--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6348963</v>
+        <v>6260136</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1770,76 +1770,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.9</v>
-      </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1847,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6260136</v>
+        <v>6348963</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1859,76 +1859,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O16">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>1.9</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.9</v>
       </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X16">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6260145</v>
+        <v>6260144</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2215,76 +2215,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X20">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2292,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6260144</v>
+        <v>6260143</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2304,76 +2304,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.8</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>1.666</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>1.95</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>1.85</v>
+      </c>
+      <c r="V21">
+        <v>1.95</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>2.75</v>
-      </c>
-      <c r="N21">
-        <v>2.55</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>2.7</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1.825</v>
-      </c>
-      <c r="S21">
-        <v>1.975</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
-      <c r="W21">
-        <v>1.55</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6260143</v>
+        <v>6260145</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2393,76 +2393,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
+        <v>1.95</v>
+      </c>
+      <c r="S22">
         <v>1.85</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6260141</v>
+        <v>6260142</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2482,46 +2482,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2536,22 +2536,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y23">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2559,7 +2559,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6260142</v>
+        <v>6260141</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2571,46 +2571,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
+        <v>4.2</v>
+      </c>
+      <c r="N24">
+        <v>1.7</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
         <v>4.75</v>
       </c>
-      <c r="N24">
-        <v>1.5</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>5.5</v>
-      </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2625,22 +2625,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6260155</v>
+        <v>6260151</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,49 +3372,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L33">
+        <v>3.4</v>
+      </c>
+      <c r="M33">
+        <v>1.666</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
         <v>3.25</v>
       </c>
-      <c r="M33">
-        <v>3.75</v>
-      </c>
-      <c r="N33">
-        <v>2.15</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3426,22 +3426,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0.95</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
         <v>-0.5</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>0.45</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3449,7 +3449,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6260151</v>
+        <v>6260155</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3461,49 +3461,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
       </c>
       <c r="K34">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>1.9</v>
@@ -3515,22 +3515,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -5318,7 +5318,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6542673</v>
+        <v>6495880</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,76 +5330,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
         <v>1.825</v>
       </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5407,7 +5407,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6495880</v>
+        <v>6542673</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,76 +5419,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>1.615</v>
+        <v>8.5</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
+        <v>1.825</v>
+      </c>
+      <c r="S56">
         <v>1.975</v>
       </c>
-      <c r="S56">
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
+        <v>1.975</v>
+      </c>
+      <c r="V56">
         <v>1.825</v>
       </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
-      <c r="V56">
-        <v>1.8</v>
-      </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X56">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>-0.5</v>
+      </c>
+      <c r="AA56">
+        <v>0.4875</v>
+      </c>
+      <c r="AB56">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
       <c r="AC56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -7543,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6260202</v>
+        <v>6260205</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7555,10 +7555,10 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7570,40 +7570,40 @@
         <v>40</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M80">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7612,19 +7612,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7632,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6260205</v>
+        <v>6260201</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,76 +7644,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="L81">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N81">
-        <v>7.5</v>
+        <v>1.285</v>
       </c>
       <c r="O81">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P81">
-        <v>1.333</v>
+        <v>8.5</v>
       </c>
       <c r="Q81">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R81">
         <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6260201</v>
+        <v>6260202</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="N82">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q82">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z82">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8967,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8979,46 +8979,46 @@
         <v>45144.625</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M96">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N96">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>2.25</v>
@@ -9033,16 +9033,16 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>0.925</v>
@@ -9056,7 +9056,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9068,46 +9068,46 @@
         <v>45144.625</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K97">
+        <v>1.533</v>
+      </c>
+      <c r="L97">
+        <v>3.6</v>
+      </c>
+      <c r="M97">
+        <v>5.75</v>
+      </c>
+      <c r="N97">
+        <v>1.533</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>5.75</v>
+      </c>
+      <c r="Q97">
+        <v>-1</v>
+      </c>
+      <c r="R97">
         <v>1.95</v>
       </c>
-      <c r="L97">
-        <v>3.3</v>
-      </c>
-      <c r="M97">
-        <v>3.4</v>
-      </c>
-      <c r="N97">
-        <v>1.909</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>3.5</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
         <v>2.25</v>
@@ -9122,16 +9122,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
         <v>0.925</v>
@@ -13328,7 +13328,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7366683</v>
+        <v>7366684</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13340,76 +13340,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K145">
+        <v>2.875</v>
+      </c>
+      <c r="L145">
+        <v>2.9</v>
+      </c>
+      <c r="M145">
         <v>2.375</v>
       </c>
-      <c r="L145">
-        <v>2.8</v>
-      </c>
-      <c r="M145">
-        <v>3</v>
-      </c>
       <c r="N145">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
+        <v>1.925</v>
+      </c>
+      <c r="V145">
         <v>1.875</v>
       </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X145">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.875</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13417,7 +13417,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,76 +13429,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L146">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M146">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O146">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P146">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>1.75</v>
+      </c>
+      <c r="U146">
+        <v>1.875</v>
+      </c>
+      <c r="V146">
         <v>1.925</v>
       </c>
-      <c r="S146">
-        <v>1.875</v>
-      </c>
-      <c r="T146">
-        <v>2.25</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -16209,25 +16209,25 @@
         <v>3.1</v>
       </c>
       <c r="P177">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q177">
         <v>0</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
         <v>0</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>OFK Petrovac</t>
   </si>
   <si>
-    <t>FK Jezero</t>
+    <t>FK Jedinstvo Bijelo Polje</t>
   </si>
   <si>
-    <t>FK Jedinstvo Bijelo Polje</t>
+    <t>FK Jezero</t>
   </si>
   <si>
     <t>FK Iskra Danilovgrad</t>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC179"/>
+  <dimension ref="A1:AC177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +705,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6260127</v>
+        <v>6260126</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1061,55 +1061,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W7">
-        <v>0.615</v>
+        <v>1.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1118,16 +1118,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6260126</v>
+        <v>6260127</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,55 +1150,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>1.8</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1207,16 +1207,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6260136</v>
+        <v>6348963</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1770,76 +1770,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.9</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X15">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1847,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6348963</v>
+        <v>6260136</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1859,76 +1859,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>1.8</v>
       </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6260144</v>
+        <v>6260145</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2292,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6260143</v>
+        <v>6260144</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2304,76 +2304,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6260145</v>
+        <v>6260143</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2393,76 +2393,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
+        <v>1.615</v>
+      </c>
+      <c r="N22">
+        <v>3.8</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
-      <c r="N22">
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <v>3.2</v>
-      </c>
       <c r="P22">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
       </c>
-      <c r="S22">
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.875</v>
-      </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6260142</v>
+        <v>6260141</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2482,46 +2482,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
+        <v>4.2</v>
+      </c>
+      <c r="N23">
+        <v>1.7</v>
+      </c>
+      <c r="O23">
+        <v>3.4</v>
+      </c>
+      <c r="P23">
         <v>4.75</v>
       </c>
-      <c r="N23">
-        <v>1.5</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>5.5</v>
-      </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2536,22 +2536,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2559,7 +2559,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6260141</v>
+        <v>6260142</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2571,46 +2571,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N24">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2625,22 +2625,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -3019,7 +3019,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -3194,7 +3194,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6260151</v>
+        <v>6260155</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,49 +3372,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3426,22 +3426,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3449,7 +3449,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6260155</v>
+        <v>6260151</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3461,49 +3461,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
       </c>
       <c r="K34">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>1.666</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
         <v>3.25</v>
       </c>
-      <c r="M34">
-        <v>3.75</v>
-      </c>
-      <c r="N34">
-        <v>2.15</v>
-      </c>
-      <c r="O34">
-        <v>3</v>
-      </c>
       <c r="P34">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
         <v>1.9</v>
@@ -3515,22 +3515,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
+        <v>0.95</v>
+      </c>
+      <c r="AA34">
+        <v>-1</v>
+      </c>
+      <c r="AB34">
         <v>-0.5</v>
       </c>
-      <c r="AA34">
+      <c r="AC34">
         <v>0.45</v>
-      </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
-      <c r="AC34">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4440,7 +4440,7 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4618,7 +4618,7 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -4977,7 +4977,7 @@
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5244,7 +5244,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5318,7 +5318,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6495880</v>
+        <v>6542673</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,76 +5330,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N55">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>1.615</v>
+        <v>8.5</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
         <v>1.975</v>
       </c>
-      <c r="S55">
+      <c r="T55">
+        <v>2.25</v>
+      </c>
+      <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
-      </c>
-      <c r="V55">
-        <v>1.8</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
+        <v>-0.5</v>
+      </c>
+      <c r="AA55">
+        <v>0.4875</v>
+      </c>
+      <c r="AB55">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5407,7 +5407,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6542673</v>
+        <v>6495880</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,76 +5419,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N56">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
         <v>1.825</v>
       </c>
-      <c r="S56">
-        <v>1.975</v>
-      </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5864,7 +5864,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -6134,7 +6134,7 @@
         <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -6843,7 +6843,7 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
         <v>38</v>
@@ -7202,7 +7202,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7291,7 +7291,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -7543,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6260205</v>
+        <v>6260203</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7555,76 +7555,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="L80">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7632,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6260201</v>
+        <v>6260202</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,76 +7644,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="N81">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O81">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q81">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6260202</v>
+        <v>6260201</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6260203</v>
+        <v>6260205</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N83">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="O83">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P83">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R83">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8267,7 +8267,7 @@
         <v>45130.625</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8445,7 +8445,7 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8626,7 +8626,7 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8801,10 +8801,10 @@
         <v>45143.625</v>
       </c>
       <c r="F94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" t="s">
         <v>34</v>
-      </c>
-      <c r="G94" t="s">
-        <v>35</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9513,7 +9513,7 @@
         <v>45151.625</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
         <v>32</v>
@@ -9694,7 +9694,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10047,7 +10047,7 @@
         <v>45158.625</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,7 +10139,7 @@
         <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10759,7 +10759,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>38</v>
@@ -10848,7 +10848,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11029,7 +11029,7 @@
         <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11649,7 +11649,7 @@
         <v>45192.5</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11738,7 +11738,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>39</v>
@@ -11993,7 +11993,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6815331</v>
+        <v>6815333</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12005,76 +12005,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F130" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s">
         <v>35</v>
       </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L130">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N130">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
         <v>3.6</v>
       </c>
       <c r="P130">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>2.25</v>
       </c>
       <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="V130">
-        <v>1.85</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12082,7 +12082,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6815333</v>
+        <v>6815331</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12094,76 +12094,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K131">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N131">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O131">
         <v>3.6</v>
       </c>
       <c r="P131">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>2.25</v>
       </c>
       <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
         <v>1.85</v>
       </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12438,7 +12438,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12450,76 +12450,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y135">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
         <v>1.8</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
       <c r="T137">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12895,10 +12895,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F140" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" t="s">
         <v>35</v>
-      </c>
-      <c r="G140" t="s">
-        <v>34</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13254,7 +13254,7 @@
         <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13328,7 +13328,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13340,76 +13340,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K145">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L145">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P145">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>1.75</v>
+      </c>
+      <c r="U145">
+        <v>1.875</v>
+      </c>
+      <c r="V145">
         <v>1.925</v>
       </c>
-      <c r="S145">
-        <v>1.875</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
-      <c r="V145">
-        <v>1.875</v>
-      </c>
       <c r="W145">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13417,7 +13417,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7366683</v>
+        <v>7366684</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,76 +13429,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K146">
+        <v>2.875</v>
+      </c>
+      <c r="L146">
+        <v>2.9</v>
+      </c>
+      <c r="M146">
         <v>2.375</v>
       </c>
-      <c r="L146">
-        <v>2.8</v>
-      </c>
-      <c r="M146">
-        <v>3</v>
-      </c>
       <c r="N146">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O146">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P146">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
+        <v>1.925</v>
+      </c>
+      <c r="V146">
         <v>1.875</v>
       </c>
-      <c r="V146">
-        <v>1.925</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X146">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
         <v>0.875</v>
-      </c>
-      <c r="AC146">
-        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13518,7 +13518,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>38</v>
@@ -13607,7 +13607,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>30</v>
@@ -13699,7 +13699,7 @@
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>45234.5</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
         <v>39</v>
@@ -14230,7 +14230,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14500,7 +14500,7 @@
         <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -14678,7 +14678,7 @@
         <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14930,7 +14930,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14942,61 +14942,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K163">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N163">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O163">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X163">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15005,13 +15005,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15019,7 +15019,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15031,61 +15031,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>42</v>
+      </c>
+      <c r="K164">
+        <v>2.2</v>
+      </c>
+      <c r="L164">
         <v>3</v>
       </c>
-      <c r="J164" t="s">
-        <v>41</v>
-      </c>
-      <c r="K164">
-        <v>1.444</v>
-      </c>
-      <c r="L164">
-        <v>3.75</v>
-      </c>
       <c r="M164">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N164">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P164">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q164">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>1.75</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>1.8</v>
+      </c>
+      <c r="V164">
+        <v>2</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
         <v>1.875</v>
-      </c>
-      <c r="S164">
-        <v>1.925</v>
-      </c>
-      <c r="T164">
-        <v>2.5</v>
-      </c>
-      <c r="U164">
-        <v>1.775</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
-      <c r="W164">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15094,13 +15094,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB164">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15120,7 +15120,7 @@
         <v>45257.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>29</v>
@@ -15209,7 +15209,7 @@
         <v>45258.375</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>33</v>
@@ -15479,7 +15479,7 @@
         <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15657,7 +15657,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15835,7 +15835,7 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -16099,7 +16099,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>32</v>
@@ -16176,7 +16176,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6815374</v>
+        <v>6815432</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16185,49 +16185,49 @@
         <v>28</v>
       </c>
       <c r="E177" s="2">
-        <v>45339.4375</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K177">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
+        <v>3.5</v>
+      </c>
+      <c r="N177">
+        <v>1.909</v>
+      </c>
+      <c r="O177">
+        <v>3.2</v>
+      </c>
+      <c r="P177">
+        <v>3.6</v>
+      </c>
+      <c r="Q177">
+        <v>-0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.975</v>
+      </c>
+      <c r="S177">
+        <v>1.825</v>
+      </c>
+      <c r="T177">
         <v>2.5</v>
       </c>
-      <c r="N177">
-        <v>2.6</v>
-      </c>
-      <c r="O177">
-        <v>3.1</v>
-      </c>
-      <c r="P177">
-        <v>2.625</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>1.875</v>
-      </c>
-      <c r="S177">
-        <v>1.925</v>
-      </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
       <c r="U177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16242,154 +16242,6 @@
         <v>0</v>
       </c>
       <c r="AA177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>6815375</v>
-      </c>
-      <c r="C178" t="s">
-        <v>28</v>
-      </c>
-      <c r="D178" t="s">
-        <v>28</v>
-      </c>
-      <c r="E178" s="2">
-        <v>45339.45833333334</v>
-      </c>
-      <c r="F178" t="s">
-        <v>35</v>
-      </c>
-      <c r="G178" t="s">
-        <v>29</v>
-      </c>
-      <c r="K178">
-        <v>1.833</v>
-      </c>
-      <c r="L178">
-        <v>3.25</v>
-      </c>
-      <c r="M178">
-        <v>3.8</v>
-      </c>
-      <c r="N178">
-        <v>1.8</v>
-      </c>
-      <c r="O178">
-        <v>3.3</v>
-      </c>
-      <c r="P178">
-        <v>4.2</v>
-      </c>
-      <c r="Q178">
-        <v>-0.5</v>
-      </c>
-      <c r="R178">
-        <v>1.85</v>
-      </c>
-      <c r="S178">
-        <v>1.95</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.8</v>
-      </c>
-      <c r="V178">
-        <v>2</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>6815376</v>
-      </c>
-      <c r="C179" t="s">
-        <v>28</v>
-      </c>
-      <c r="D179" t="s">
-        <v>28</v>
-      </c>
-      <c r="E179" s="2">
-        <v>45339.54166666666</v>
-      </c>
-      <c r="F179" t="s">
-        <v>33</v>
-      </c>
-      <c r="G179" t="s">
-        <v>39</v>
-      </c>
-      <c r="K179">
-        <v>1.909</v>
-      </c>
-      <c r="L179">
-        <v>3.2</v>
-      </c>
-      <c r="M179">
-        <v>3.6</v>
-      </c>
-      <c r="N179">
-        <v>2</v>
-      </c>
-      <c r="O179">
-        <v>3.2</v>
-      </c>
-      <c r="P179">
-        <v>3.4</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.775</v>
-      </c>
-      <c r="S179">
-        <v>2.025</v>
-      </c>
-      <c r="T179">
-        <v>2.5</v>
-      </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
-      <c r="V179">
-        <v>1.8</v>
-      </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-      <c r="AA179">
         <v>0</v>
       </c>
     </row>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC177"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6348963</v>
+        <v>6260136</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1770,76 +1770,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.9</v>
-      </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1847,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6260136</v>
+        <v>6348963</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1859,76 +1859,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O16">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>1.9</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.9</v>
       </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X16">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2292,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6260144</v>
+        <v>6260143</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2304,76 +2304,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.8</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>1.666</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>1.95</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>1.85</v>
+      </c>
+      <c r="V21">
+        <v>1.95</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>2.75</v>
-      </c>
-      <c r="N21">
-        <v>2.55</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>2.7</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1.825</v>
-      </c>
-      <c r="S21">
-        <v>1.975</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
-      <c r="W21">
-        <v>1.55</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6260143</v>
+        <v>6260144</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2393,76 +2393,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6260141</v>
+        <v>6260142</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2482,46 +2482,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2536,22 +2536,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y23">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2559,7 +2559,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6260142</v>
+        <v>6260141</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2571,46 +2571,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
+        <v>4.2</v>
+      </c>
+      <c r="N24">
+        <v>1.7</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
         <v>4.75</v>
       </c>
-      <c r="N24">
-        <v>1.5</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>5.5</v>
-      </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2625,22 +2625,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6260148</v>
+        <v>6260149</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,76 +2838,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
         <v>1.725</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="T27">
-        <v>2.25</v>
-      </c>
-      <c r="U27">
-        <v>1.925</v>
-      </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2915,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6260149</v>
+        <v>6260148</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2927,76 +2927,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>1.725</v>
+      </c>
+      <c r="S28">
         <v>1.975</v>
       </c>
-      <c r="S28">
-        <v>1.825</v>
-      </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X28">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3538,7 +3538,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6260157</v>
+        <v>6260159</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3550,76 +3550,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P35">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W35">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3627,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6260159</v>
+        <v>6260157</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3639,76 +3639,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="O36">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6260172</v>
+        <v>6260174</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,40 +4974,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5016,16 +5016,16 @@
         <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5040,10 +5040,10 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5051,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6260174</v>
+        <v>6260172</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5063,40 +5063,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N52">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5105,16 +5105,16 @@
         <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5129,10 +5129,10 @@
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5140,7 +5140,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6524837</v>
+        <v>6524836</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5152,73 +5152,73 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
         <v>3.1</v>
       </c>
       <c r="P53">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5229,7 +5229,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6524836</v>
+        <v>6524837</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5241,73 +5241,73 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
+        <v>3.2</v>
+      </c>
+      <c r="M54">
+        <v>1.909</v>
+      </c>
+      <c r="N54">
         <v>3.1</v>
-      </c>
-      <c r="M54">
-        <v>3.4</v>
-      </c>
-      <c r="N54">
-        <v>1.95</v>
       </c>
       <c r="O54">
         <v>3.1</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5318,7 +5318,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6542673</v>
+        <v>6495880</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,76 +5330,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
         <v>1.825</v>
       </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5407,7 +5407,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6495880</v>
+        <v>6542673</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,76 +5419,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>1.615</v>
+        <v>8.5</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
+        <v>1.825</v>
+      </c>
+      <c r="S56">
         <v>1.975</v>
       </c>
-      <c r="S56">
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
+        <v>1.975</v>
+      </c>
+      <c r="V56">
         <v>1.825</v>
       </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
-      <c r="V56">
-        <v>1.8</v>
-      </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X56">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>-0.5</v>
+      </c>
+      <c r="AA56">
+        <v>0.4875</v>
+      </c>
+      <c r="AB56">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
       <c r="AC56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5852,7 +5852,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6260182</v>
+        <v>6260183</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5864,73 +5864,73 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>3</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K61">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N61">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5941,7 +5941,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6260183</v>
+        <v>6260182</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5953,73 +5953,73 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62">
+        <v>2.375</v>
+      </c>
+      <c r="L62">
         <v>3</v>
       </c>
-      <c r="J62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62">
-        <v>1.7</v>
-      </c>
-      <c r="L62">
-        <v>3.3</v>
-      </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6564,7 +6564,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6260194</v>
+        <v>6260191</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6576,76 +6576,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
         <v>2.4</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6653,7 +6653,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6260195</v>
+        <v>6260192</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6665,58 +6665,58 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="L70">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O70">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q70">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6725,16 +6725,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
         <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6742,7 +6742,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6260192</v>
+        <v>6260193</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6754,76 +6754,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6831,7 +6831,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6260193</v>
+        <v>6260194</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,76 +6843,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72">
+        <v>2.2</v>
+      </c>
+      <c r="L72">
+        <v>3.1</v>
+      </c>
+      <c r="M72">
         <v>3</v>
       </c>
-      <c r="J72" t="s">
-        <v>40</v>
-      </c>
-      <c r="K72">
-        <v>3.3</v>
-      </c>
-      <c r="L72">
-        <v>3.25</v>
-      </c>
-      <c r="M72">
-        <v>2</v>
-      </c>
       <c r="N72">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y72">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6920,7 +6920,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6260191</v>
+        <v>6260195</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,76 +6932,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M73">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>1.166</v>
       </c>
       <c r="O73">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P73">
-        <v>2.875</v>
+        <v>12</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R73">
         <v>1.75</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7009,7 +7009,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6260200</v>
+        <v>6260196</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7021,76 +7021,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>9.5</v>
+      </c>
+      <c r="N74">
+        <v>1.25</v>
+      </c>
+      <c r="O74">
+        <v>5</v>
+      </c>
+      <c r="P74">
+        <v>9</v>
+      </c>
+      <c r="Q74">
+        <v>-1.75</v>
+      </c>
+      <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
         <v>3</v>
       </c>
-      <c r="M74">
-        <v>2.3</v>
-      </c>
-      <c r="N74">
-        <v>3.8</v>
-      </c>
-      <c r="O74">
-        <v>3.25</v>
-      </c>
-      <c r="P74">
-        <v>1.8</v>
-      </c>
-      <c r="Q74">
-        <v>0.5</v>
-      </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>1.85</v>
-      </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X74">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7098,7 +7098,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6260196</v>
+        <v>6260198</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7110,49 +7110,49 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>41</v>
       </c>
       <c r="K75">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Q75">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
         <v>1.825</v>
@@ -7161,7 +7161,7 @@
         <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7170,16 +7170,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7187,7 +7187,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6260198</v>
+        <v>6260197</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7199,76 +7199,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
         <v>1.8</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="W76">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
         <v>0.8</v>
       </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6260199</v>
+        <v>6260200</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>42</v>
+      </c>
+      <c r="K77">
+        <v>2.875</v>
+      </c>
+      <c r="L77">
         <v>3</v>
       </c>
-      <c r="J77" t="s">
-        <v>40</v>
-      </c>
-      <c r="K77">
-        <v>1.444</v>
-      </c>
-      <c r="L77">
-        <v>4</v>
-      </c>
       <c r="M77">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <v>1.8</v>
       </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>1.825</v>
-      </c>
-      <c r="V77">
-        <v>1.975</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y77">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6260197</v>
+        <v>6260199</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,55 +7377,55 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>40</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L78">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7434,16 +7434,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7543,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6260203</v>
+        <v>6260205</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7555,76 +7555,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K80">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N80">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P80">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7632,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6260202</v>
+        <v>6260203</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,64 +7644,64 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>-0</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6260205</v>
+        <v>6260202</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,10 +7822,10 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7837,40 +7837,40 @@
         <v>40</v>
       </c>
       <c r="K83">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="N83">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="O83">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7879,19 +7879,19 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="Z83">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L85">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O85">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X85">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>0.4</v>
+      </c>
+      <c r="AA85">
         <v>-0.5</v>
       </c>
-      <c r="AA85">
-        <v>0.45</v>
-      </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8077,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8089,76 +8089,76 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N86">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8967,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8979,46 +8979,46 @@
         <v>45144.625</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K96">
+        <v>1.533</v>
+      </c>
+      <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>5.75</v>
+      </c>
+      <c r="N96">
+        <v>1.533</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>5.75</v>
+      </c>
+      <c r="Q96">
+        <v>-1</v>
+      </c>
+      <c r="R96">
         <v>1.95</v>
       </c>
-      <c r="L96">
-        <v>3.3</v>
-      </c>
-      <c r="M96">
-        <v>3.4</v>
-      </c>
-      <c r="N96">
-        <v>1.909</v>
-      </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
-      <c r="P96">
-        <v>3.5</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.975</v>
-      </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.25</v>
@@ -9033,16 +9033,16 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
         <v>0.925</v>
@@ -9056,7 +9056,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9068,46 +9068,46 @@
         <v>45144.625</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K97">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N97">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.25</v>
@@ -9122,16 +9122,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
         <v>0.925</v>
@@ -9234,7 +9234,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9246,49 +9246,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N99">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U99">
         <v>1.85</v>
@@ -9297,25 +9297,25 @@
         <v>1.95</v>
       </c>
       <c r="W99">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,49 +9335,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
         <v>1.85</v>
@@ -9386,25 +9386,25 @@
         <v>1.95</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6815304</v>
+        <v>6815422</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45151.625</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45151.625</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.925</v>
-      </c>
-      <c r="AB103">
-        <v>-0.5</v>
-      </c>
-      <c r="AC103">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9946,7 +9946,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9958,76 +9958,76 @@
         <v>45158.625</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>41</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P107">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
+        <v>1.925</v>
+      </c>
+      <c r="V107">
+        <v>1.875</v>
+      </c>
+      <c r="W107">
+        <v>1.7</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>0.875</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="R107">
-        <v>1.825</v>
-      </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>2</v>
-      </c>
-      <c r="U107">
-        <v>1.825</v>
-      </c>
-      <c r="V107">
-        <v>1.975</v>
-      </c>
-      <c r="W107">
-        <v>0.8</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>-1</v>
-      </c>
-      <c r="Z107">
-        <v>0.825</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.825</v>
-      </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10035,7 +10035,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10047,58 +10047,58 @@
         <v>45158.625</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>41</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M108">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10107,16 +10107,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC108">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10569,7 +10569,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10581,61 +10581,61 @@
         <v>45172.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>42</v>
       </c>
       <c r="K114">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L114">
         <v>3</v>
       </c>
       <c r="M114">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O114">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P114">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -10647,10 +10647,10 @@
         <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10658,7 +10658,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10670,61 +10670,61 @@
         <v>45172.5</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
       </c>
       <c r="K115">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N115">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
@@ -10736,10 +10736,10 @@
         <v>-0</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11459,7 +11459,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11471,76 +11471,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11548,7 +11548,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11560,76 +11560,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K125">
+        <v>1.3</v>
+      </c>
+      <c r="L125">
+        <v>4.333</v>
+      </c>
+      <c r="M125">
+        <v>9</v>
+      </c>
+      <c r="N125">
+        <v>1.363</v>
+      </c>
+      <c r="O125">
+        <v>4.333</v>
+      </c>
+      <c r="P125">
+        <v>7.5</v>
+      </c>
+      <c r="Q125">
+        <v>-1.5</v>
+      </c>
+      <c r="R125">
+        <v>1.95</v>
+      </c>
+      <c r="S125">
+        <v>1.85</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="L125">
-        <v>3</v>
-      </c>
-      <c r="M125">
-        <v>2.25</v>
-      </c>
-      <c r="N125">
-        <v>3.25</v>
-      </c>
-      <c r="O125">
-        <v>3</v>
-      </c>
-      <c r="P125">
-        <v>2.1</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
       <c r="U125">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12972,7 +12972,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,73 +12984,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K141">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L141">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N141">
+        <v>1.833</v>
+      </c>
+      <c r="O141">
         <v>3.1</v>
       </c>
-      <c r="O141">
-        <v>2.9</v>
-      </c>
       <c r="P141">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V141">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13061,7 +13061,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13073,73 +13073,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K142">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L142">
+        <v>2.875</v>
+      </c>
+      <c r="M142">
+        <v>2.6</v>
+      </c>
+      <c r="N142">
         <v>3.1</v>
       </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>1.833</v>
-      </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P142">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W142">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -14396,7 +14396,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6815357</v>
+        <v>6815358</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14408,10 +14408,10 @@
         <v>45241.5</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14423,61 +14423,61 @@
         <v>42</v>
       </c>
       <c r="K157">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N157">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T157">
         <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB157">
         <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14574,7 +14574,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6815358</v>
+        <v>6815357</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14586,10 +14586,10 @@
         <v>45241.5</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14601,61 +14601,61 @@
         <v>42</v>
       </c>
       <c r="K159">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N159">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O159">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
         <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -16171,78 +16171,449 @@
         <v>1.025</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:29">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
+        <v>6815374</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45339.4375</v>
+      </c>
+      <c r="F177" t="s">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>35</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>41</v>
+      </c>
+      <c r="K177">
+        <v>2.6</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>2.5</v>
+      </c>
+      <c r="N177">
+        <v>2.6</v>
+      </c>
+      <c r="O177">
+        <v>3.1</v>
+      </c>
+      <c r="P177">
+        <v>2.625</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>1.875</v>
+      </c>
+      <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
+        <v>1.8</v>
+      </c>
+      <c r="W177">
+        <v>1.6</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.875</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>1</v>
+      </c>
+      <c r="AC177">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>6815375</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F178" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>41</v>
+      </c>
+      <c r="K178">
+        <v>1.833</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
+        <v>3.8</v>
+      </c>
+      <c r="N178">
+        <v>1.8</v>
+      </c>
+      <c r="O178">
+        <v>3.3</v>
+      </c>
+      <c r="P178">
+        <v>4.2</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.8</v>
+      </c>
+      <c r="V178">
+        <v>2</v>
+      </c>
+      <c r="W178">
+        <v>0.8</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>6815376</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45339.54166666666</v>
+      </c>
+      <c r="F179" t="s">
+        <v>33</v>
+      </c>
+      <c r="G179" t="s">
+        <v>39</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179" t="s">
+        <v>41</v>
+      </c>
+      <c r="K179">
+        <v>1.909</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>3.6</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179">
+        <v>3.2</v>
+      </c>
+      <c r="P179">
+        <v>3.4</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.775</v>
+      </c>
+      <c r="S179">
+        <v>2.025</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>2</v>
+      </c>
+      <c r="V179">
+        <v>1.8</v>
+      </c>
+      <c r="W179">
+        <v>1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>1</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>6815373</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F180" t="s">
+        <v>37</v>
+      </c>
+      <c r="G180" t="s">
+        <v>32</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>41</v>
+      </c>
+      <c r="K180">
+        <v>4</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>1.95</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180">
+        <v>3</v>
+      </c>
+      <c r="P180">
+        <v>1.95</v>
+      </c>
+      <c r="Q180">
+        <v>0.5</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.95</v>
+      </c>
+      <c r="V180">
+        <v>1.85</v>
+      </c>
+      <c r="W180">
+        <v>3</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.8</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
         <v>6815432</v>
       </c>
-      <c r="C177" t="s">
-        <v>28</v>
-      </c>
-      <c r="D177" t="s">
-        <v>28</v>
-      </c>
-      <c r="E177" s="2">
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
         <v>45340.54166666666</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F181" t="s">
         <v>38</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G181" t="s">
         <v>31</v>
       </c>
-      <c r="K177">
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181" t="s">
+        <v>42</v>
+      </c>
+      <c r="K181">
         <v>1.95</v>
       </c>
-      <c r="L177">
+      <c r="L181">
         <v>3.2</v>
       </c>
-      <c r="M177">
+      <c r="M181">
         <v>3.5</v>
       </c>
-      <c r="N177">
+      <c r="N181">
         <v>1.909</v>
       </c>
-      <c r="O177">
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="P177">
+      <c r="P181">
         <v>3.6</v>
       </c>
-      <c r="Q177">
+      <c r="Q181">
         <v>-0.5</v>
       </c>
-      <c r="R177">
+      <c r="R181">
         <v>1.975</v>
       </c>
-      <c r="S177">
+      <c r="S181">
         <v>1.825</v>
       </c>
-      <c r="T177">
+      <c r="T181">
         <v>2.5</v>
       </c>
-      <c r="U177">
+      <c r="U181">
         <v>2.025</v>
       </c>
-      <c r="V177">
+      <c r="V181">
         <v>1.775</v>
       </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
-      </c>
-      <c r="Y177">
-        <v>0</v>
-      </c>
-      <c r="Z177">
-        <v>0</v>
-      </c>
-      <c r="AA177">
-        <v>0</v>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>2.2</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>0.825</v>
+      </c>
+      <c r="AB181">
+        <v>1.025</v>
+      </c>
+      <c r="AC181">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>FK Rudar Pljevlja</t>
   </si>
   <si>
-    <t>FK Arsenal</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>FK Arsenal</t>
   </si>
   <si>
     <t>Sutjeska Niksic</t>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6260125</v>
+        <v>6260122</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -705,73 +705,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>4.5</v>
+      </c>
+      <c r="N3">
+        <v>1.833</v>
+      </c>
+      <c r="O3">
+        <v>3.4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>-0.5</v>
+      </c>
+      <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
+        <v>1.925</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
+        <v>1.775</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>3.6</v>
-      </c>
-      <c r="N3">
-        <v>2.3</v>
-      </c>
-      <c r="O3">
-        <v>2.875</v>
-      </c>
-      <c r="P3">
-        <v>3.1</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>1.8</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.95</v>
-      </c>
-      <c r="V3">
-        <v>1.85</v>
-      </c>
-      <c r="W3">
-        <v>1.3</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6260122</v>
+        <v>6260125</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -794,73 +794,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>44985.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1684,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6260136</v>
+        <v>6348963</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1770,76 +1770,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.9</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X15">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1847,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6348963</v>
+        <v>6260136</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1859,76 +1859,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>1.8</v>
       </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6260145</v>
+        <v>6260144</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2215,76 +2215,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X20">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2304,7 +2304,7 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6260144</v>
+        <v>6260145</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2393,76 +2393,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2838,10 +2838,10 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
         <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6410905</v>
+        <v>6260152</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3194,55 +3194,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
         <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S31">
         <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3251,19 +3251,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6260152</v>
+        <v>6410905</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,55 +3283,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L32">
         <v>3.4</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
         <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3340,19 +3340,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>45017.5</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3909,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4087,7 +4087,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>45021.5</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4532,7 +4532,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6260174</v>
+        <v>6260172</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,40 +4974,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5016,16 +5016,16 @@
         <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5040,10 +5040,10 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5051,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6260172</v>
+        <v>6260174</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5063,40 +5063,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O52">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5105,16 +5105,16 @@
         <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5129,10 +5129,10 @@
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5140,7 +5140,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6524836</v>
+        <v>6524837</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5152,73 +5152,73 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
+        <v>3.2</v>
+      </c>
+      <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
         <v>3.1</v>
-      </c>
-      <c r="M53">
-        <v>3.4</v>
-      </c>
-      <c r="N53">
-        <v>1.95</v>
       </c>
       <c r="O53">
         <v>3.1</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5229,7 +5229,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6524837</v>
+        <v>6524836</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5241,73 +5241,73 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N54">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O54">
         <v>3.1</v>
       </c>
       <c r="P54">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5318,7 +5318,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6495880</v>
+        <v>6542673</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,76 +5330,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N55">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>1.615</v>
+        <v>8.5</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
         <v>1.975</v>
       </c>
-      <c r="S55">
+      <c r="T55">
+        <v>2.25</v>
+      </c>
+      <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
-      </c>
-      <c r="V55">
-        <v>1.8</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
+        <v>-0.5</v>
+      </c>
+      <c r="AA55">
+        <v>0.4875</v>
+      </c>
+      <c r="AB55">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5407,7 +5407,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6542673</v>
+        <v>6495880</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,76 +5419,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N56">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
         <v>1.825</v>
       </c>
-      <c r="S56">
-        <v>1.975</v>
-      </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5852,7 +5852,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6260183</v>
+        <v>6260182</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5864,73 +5864,73 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61">
+        <v>2.375</v>
+      </c>
+      <c r="L61">
         <v>3</v>
       </c>
-      <c r="J61" t="s">
-        <v>40</v>
-      </c>
-      <c r="K61">
-        <v>1.7</v>
-      </c>
-      <c r="L61">
-        <v>3.3</v>
-      </c>
       <c r="M61">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5941,7 +5941,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6260182</v>
+        <v>6260183</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5953,73 +5953,73 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z62">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6045,7 +6045,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6653,7 +6653,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6260192</v>
+        <v>6260194</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6665,76 +6665,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M70">
         <v>3</v>
       </c>
       <c r="N70">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6742,7 +6742,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6260193</v>
+        <v>6260195</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6754,76 +6754,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="L71">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>12</v>
+      </c>
+      <c r="N71">
+        <v>1.166</v>
+      </c>
+      <c r="O71">
+        <v>6</v>
+      </c>
+      <c r="P71">
+        <v>12</v>
+      </c>
+      <c r="Q71">
+        <v>-2</v>
+      </c>
+      <c r="R71">
+        <v>1.75</v>
+      </c>
+      <c r="S71">
+        <v>1.95</v>
+      </c>
+      <c r="T71">
         <v>3.25</v>
       </c>
-      <c r="M71">
-        <v>2</v>
-      </c>
-      <c r="N71">
-        <v>5.25</v>
-      </c>
-      <c r="O71">
-        <v>3.6</v>
-      </c>
-      <c r="P71">
-        <v>1.55</v>
-      </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6831,7 +6831,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6260194</v>
+        <v>6260192</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,76 +6843,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
         <v>3</v>
       </c>
       <c r="N72">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O72">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X72">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6920,7 +6920,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6260195</v>
+        <v>6260193</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,76 +6932,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K73">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="L73">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>12</v>
+        <v>1.55</v>
       </c>
       <c r="Q73">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7009,7 +7009,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6260196</v>
+        <v>6260200</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7021,76 +7021,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="N74">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P74">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="Q74">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7098,7 +7098,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6260198</v>
+        <v>6260199</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7110,37 +7110,37 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q75">
         <v>-1.25</v>
@@ -7161,25 +7161,25 @@
         <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7187,7 +7187,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6260197</v>
+        <v>6260198</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7199,76 +7199,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6260200</v>
+        <v>6260197</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K77">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
         <v>2.3</v>
       </c>
       <c r="N77">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O77">
         <v>3.25</v>
       </c>
       <c r="P77">
+        <v>4.2</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
         <v>1.8</v>
       </c>
-      <c r="Q77">
-        <v>0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.95</v>
-      </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC77">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6260199</v>
+        <v>6260196</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,49 +7377,49 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78">
+        <v>1.25</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>9.5</v>
+      </c>
+      <c r="N78">
+        <v>1.25</v>
+      </c>
+      <c r="O78">
+        <v>5</v>
+      </c>
+      <c r="P78">
+        <v>9</v>
+      </c>
+      <c r="Q78">
+        <v>-1.75</v>
+      </c>
+      <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
+        <v>1.925</v>
+      </c>
+      <c r="T78">
         <v>3</v>
-      </c>
-      <c r="J78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K78">
-        <v>1.444</v>
-      </c>
-      <c r="L78">
-        <v>4</v>
-      </c>
-      <c r="M78">
-        <v>6</v>
-      </c>
-      <c r="N78">
-        <v>1.333</v>
-      </c>
-      <c r="O78">
-        <v>4.5</v>
-      </c>
-      <c r="P78">
-        <v>8</v>
-      </c>
-      <c r="Q78">
-        <v>-1.25</v>
-      </c>
-      <c r="R78">
-        <v>1.8</v>
-      </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
       </c>
       <c r="U78">
         <v>1.825</v>
@@ -7428,25 +7428,25 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7543,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6260205</v>
+        <v>6260202</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7555,10 +7555,10 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7570,40 +7570,40 @@
         <v>40</v>
       </c>
       <c r="K80">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="N80">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="O80">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="Q80">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7612,19 +7612,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="Z80">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6260201</v>
+        <v>6260205</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M82">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="N82">
-        <v>1.285</v>
+        <v>7.5</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P82">
-        <v>8.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q82">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R82">
         <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z82">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6260202</v>
+        <v>6260201</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N85">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8077,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8089,76 +8089,76 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L86">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O86">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0.4</v>
+      </c>
+      <c r="AA86">
         <v>-0.5</v>
       </c>
-      <c r="AA86">
-        <v>0.45</v>
-      </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>45137.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8982,7 +8982,7 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9068,7 +9068,7 @@
         <v>45144.625</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>33</v>
@@ -9160,7 +9160,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9249,7 +9249,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45151.625</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N102">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y102">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.925</v>
-      </c>
-      <c r="AB102">
-        <v>-0.5</v>
-      </c>
-      <c r="AC102">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6815304</v>
+        <v>6815422</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45151.625</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K103">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -10047,7 +10047,7 @@
         <v>45158.625</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10302,7 +10302,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6815311</v>
+        <v>6815312</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10314,58 +10314,58 @@
         <v>45164.625</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>41</v>
       </c>
       <c r="K111">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L111">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M111">
+        <v>6</v>
+      </c>
+      <c r="N111">
+        <v>1.4</v>
+      </c>
+      <c r="O111">
         <v>4</v>
       </c>
-      <c r="N111">
-        <v>2.25</v>
-      </c>
-      <c r="O111">
-        <v>2.9</v>
-      </c>
       <c r="P111">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10374,16 +10374,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10391,7 +10391,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10403,34 +10403,34 @@
         <v>45164.625</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K112">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
         <v>1.4</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
         <v>6.5</v>
@@ -10439,40 +10439,40 @@
         <v>-1.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10480,7 +10480,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10492,76 +10492,76 @@
         <v>45164.625</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>45172.5</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10851,7 +10851,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11118,7 +11118,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11382,7 +11382,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -11471,10 +11471,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F124" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" t="s">
         <v>30</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>45196.4375</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12097,7 +12097,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12539,7 +12539,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
         <v>38</v>
@@ -12806,7 +12806,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
@@ -13076,7 +13076,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13239,7 +13239,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13251,13 +13251,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13266,43 +13266,43 @@
         <v>41</v>
       </c>
       <c r="K144">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L144">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M144">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P144">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13311,7 +13311,7 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA144">
         <v>-1</v>
@@ -13320,7 +13320,7 @@
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13340,7 +13340,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13417,7 +13417,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7366684</v>
+        <v>6815343</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,13 +13429,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -13444,43 +13444,43 @@
         <v>41</v>
       </c>
       <c r="K146">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L146">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M146">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O146">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>1.625</v>
+        <v>0.333</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13489,7 +13489,7 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13498,7 +13498,7 @@
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -14040,7 +14040,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14052,76 +14052,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F153" t="s">
+        <v>29</v>
+      </c>
+      <c r="G153" t="s">
         <v>30</v>
       </c>
-      <c r="G153" t="s">
-        <v>38</v>
-      </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K153">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N153">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
         <v>1.85</v>
       </c>
-      <c r="S153">
-        <v>1.95</v>
-      </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.8</v>
       </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14129,7 +14129,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14141,76 +14141,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K154">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
+        <v>1.666</v>
+      </c>
+      <c r="N154">
+        <v>5.25</v>
+      </c>
+      <c r="O154">
+        <v>3.8</v>
+      </c>
+      <c r="P154">
+        <v>1.5</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
         <v>1.8</v>
       </c>
-      <c r="N154">
-        <v>3.8</v>
-      </c>
-      <c r="O154">
-        <v>3.25</v>
-      </c>
-      <c r="P154">
-        <v>1.8</v>
-      </c>
-      <c r="Q154">
-        <v>0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.95</v>
-      </c>
-      <c r="S154">
-        <v>1.85</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14485,7 +14485,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14497,76 +14497,76 @@
         <v>45241.5</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L158">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N158">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O158">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q158">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14574,7 +14574,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14586,76 +14586,76 @@
         <v>45241.5</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K159">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N159">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q159">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X159">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC159">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14675,7 +14675,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
@@ -14853,7 +14853,7 @@
         <v>45256.375</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -15034,7 +15034,7 @@
         <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15298,10 +15298,10 @@
         <v>45262.375</v>
       </c>
       <c r="F167" t="s">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s">
         <v>31</v>
-      </c>
-      <c r="G167" t="s">
-        <v>30</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15746,7 +15746,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15832,7 +15832,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>34</v>
@@ -16188,7 +16188,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>35</v>
@@ -16547,7 +16547,7 @@
         <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>2</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>FK Rudar Pljevlja</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>FK Arsenal</t>
   </si>
   <si>
-    <t>FK Arsenal</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
     <t>Sutjeska Niksic</t>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6260122</v>
+        <v>6260125</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -705,73 +705,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6260125</v>
+        <v>6260122</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -794,73 +794,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>4.5</v>
+      </c>
+      <c r="N4">
+        <v>1.833</v>
+      </c>
+      <c r="O4">
+        <v>3.4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.5</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.925</v>
+      </c>
+      <c r="T4">
+        <v>2.25</v>
+      </c>
+      <c r="U4">
+        <v>2.025</v>
+      </c>
+      <c r="V4">
+        <v>1.775</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>3.6</v>
-      </c>
-      <c r="N4">
-        <v>2.3</v>
-      </c>
-      <c r="O4">
-        <v>2.875</v>
-      </c>
-      <c r="P4">
-        <v>3.1</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.8</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.95</v>
-      </c>
-      <c r="V4">
-        <v>1.85</v>
-      </c>
-      <c r="W4">
-        <v>1.3</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>44985.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1684,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6348963</v>
+        <v>6260136</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1770,76 +1770,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.9</v>
-      </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1847,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6260136</v>
+        <v>6348963</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1859,76 +1859,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O16">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>1.9</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.9</v>
       </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X16">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6260144</v>
+        <v>6260145</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2215,76 +2215,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2292,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6260143</v>
+        <v>6260144</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2304,76 +2304,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6260145</v>
+        <v>6260143</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2393,76 +2393,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
+        <v>1.615</v>
+      </c>
+      <c r="N22">
+        <v>3.8</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
-      <c r="N22">
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <v>3.2</v>
-      </c>
       <c r="P22">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
       </c>
-      <c r="S22">
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.875</v>
-      </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2838,10 +2838,10 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
         <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6260155</v>
+        <v>6260151</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,49 +3372,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L33">
+        <v>3.4</v>
+      </c>
+      <c r="M33">
+        <v>1.666</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
         <v>3.25</v>
       </c>
-      <c r="M33">
-        <v>3.75</v>
-      </c>
-      <c r="N33">
-        <v>2.15</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3426,22 +3426,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0.95</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
         <v>-0.5</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>0.45</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3449,7 +3449,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6260151</v>
+        <v>6260155</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3461,49 +3461,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
       </c>
       <c r="K34">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>1.9</v>
@@ -3515,22 +3515,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3538,7 +3538,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6260159</v>
+        <v>6260157</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3550,76 +3550,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K35">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N35">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="O35">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3627,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6260157</v>
+        <v>6260159</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3639,76 +3639,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K36">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P36">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>45017.5</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3909,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4087,7 +4087,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>45021.5</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4532,7 +4532,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6260172</v>
+        <v>6260174</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,40 +4974,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5016,16 +5016,16 @@
         <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5040,10 +5040,10 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5051,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6260174</v>
+        <v>6260172</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5063,40 +5063,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N52">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5105,16 +5105,16 @@
         <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5129,10 +5129,10 @@
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5140,7 +5140,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6524837</v>
+        <v>6524836</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5152,73 +5152,73 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O53">
         <v>3.1</v>
       </c>
       <c r="P53">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5229,7 +5229,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6524836</v>
+        <v>6524837</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5241,73 +5241,73 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
+        <v>3.2</v>
+      </c>
+      <c r="M54">
+        <v>1.909</v>
+      </c>
+      <c r="N54">
         <v>3.1</v>
-      </c>
-      <c r="M54">
-        <v>3.4</v>
-      </c>
-      <c r="N54">
-        <v>1.95</v>
       </c>
       <c r="O54">
         <v>3.1</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5318,7 +5318,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6542673</v>
+        <v>6495880</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,76 +5330,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
         <v>1.825</v>
       </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5407,7 +5407,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6495880</v>
+        <v>6542673</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,76 +5419,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>1.615</v>
+        <v>8.5</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
+        <v>1.825</v>
+      </c>
+      <c r="S56">
         <v>1.975</v>
       </c>
-      <c r="S56">
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
+        <v>1.975</v>
+      </c>
+      <c r="V56">
         <v>1.825</v>
       </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
-      <c r="V56">
-        <v>1.8</v>
-      </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X56">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>-0.5</v>
+      </c>
+      <c r="AA56">
+        <v>0.4875</v>
+      </c>
+      <c r="AB56">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
       <c r="AC56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5953,7 +5953,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>36</v>
@@ -6045,7 +6045,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6564,7 +6564,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6260191</v>
+        <v>6260194</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6576,76 +6576,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N69">
         <v>2.4</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6653,7 +6653,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6260194</v>
+        <v>6260193</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6665,76 +6665,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6742,7 +6742,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6260195</v>
+        <v>6260192</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6754,58 +6754,58 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>41</v>
       </c>
       <c r="K71">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q71">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6814,16 +6814,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6831,7 +6831,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6260192</v>
+        <v>6260191</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,76 +6843,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
         <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P72">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
+        <v>1.825</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>1.875</v>
       </c>
-      <c r="W72">
-        <v>0.833</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6920,7 +6920,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6260193</v>
+        <v>6260195</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,76 +6932,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="L73">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <v>12</v>
+      </c>
+      <c r="N73">
+        <v>1.166</v>
+      </c>
+      <c r="O73">
+        <v>6</v>
+      </c>
+      <c r="P73">
+        <v>12</v>
+      </c>
+      <c r="Q73">
+        <v>-2</v>
+      </c>
+      <c r="R73">
+        <v>1.75</v>
+      </c>
+      <c r="S73">
+        <v>1.95</v>
+      </c>
+      <c r="T73">
         <v>3.25</v>
       </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>5.25</v>
-      </c>
-      <c r="O73">
-        <v>3.6</v>
-      </c>
-      <c r="P73">
-        <v>1.55</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>1.825</v>
-      </c>
-      <c r="S73">
-        <v>1.975</v>
-      </c>
-      <c r="T73">
-        <v>2.5</v>
-      </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7009,7 +7009,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6260200</v>
+        <v>6260196</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7021,76 +7021,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>9.5</v>
+      </c>
+      <c r="N74">
+        <v>1.25</v>
+      </c>
+      <c r="O74">
+        <v>5</v>
+      </c>
+      <c r="P74">
+        <v>9</v>
+      </c>
+      <c r="Q74">
+        <v>-1.75</v>
+      </c>
+      <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
         <v>3</v>
       </c>
-      <c r="M74">
-        <v>2.3</v>
-      </c>
-      <c r="N74">
-        <v>3.8</v>
-      </c>
-      <c r="O74">
-        <v>3.25</v>
-      </c>
-      <c r="P74">
-        <v>1.8</v>
-      </c>
-      <c r="Q74">
-        <v>0.5</v>
-      </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>1.85</v>
-      </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X74">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7098,7 +7098,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6260199</v>
+        <v>6260197</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7110,55 +7110,55 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N75">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
         <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7167,16 +7167,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7187,7 +7187,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6260198</v>
+        <v>6260199</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7199,37 +7199,37 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P76">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q76">
         <v>-1.25</v>
@@ -7250,25 +7250,25 @@
         <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6260197</v>
+        <v>6260200</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M77">
         <v>2.3</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="O77">
         <v>3.25</v>
       </c>
       <c r="P77">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <v>1.8</v>
       </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>2.1</v>
-      </c>
-      <c r="V77">
-        <v>1.7</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6260196</v>
+        <v>6260198</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,49 +7377,49 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>41</v>
       </c>
       <c r="K78">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Q78">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>1.825</v>
@@ -7428,7 +7428,7 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7437,16 +7437,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7454,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6260204</v>
+        <v>6260201</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,73 +7466,73 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="N79">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="O79">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
         <v>8.5</v>
       </c>
       <c r="Q79">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R79">
+        <v>1.925</v>
+      </c>
+      <c r="S79">
+        <v>1.775</v>
+      </c>
+      <c r="T79">
+        <v>2.75</v>
+      </c>
+      <c r="U79">
+        <v>1.85</v>
+      </c>
+      <c r="V79">
         <v>1.95</v>
       </c>
-      <c r="S79">
-        <v>1.85</v>
-      </c>
-      <c r="T79">
-        <v>3.75</v>
-      </c>
-      <c r="U79">
-        <v>1.8</v>
-      </c>
-      <c r="V79">
-        <v>2</v>
-      </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB79">
-        <v>0.8</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6260205</v>
+        <v>6260204</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
         <v>40</v>
       </c>
       <c r="K82">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L82">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M82">
-        <v>1.444</v>
+        <v>3.7</v>
       </c>
       <c r="N82">
+        <v>1.25</v>
+      </c>
+      <c r="O82">
+        <v>5.75</v>
+      </c>
+      <c r="P82">
+        <v>8.5</v>
+      </c>
+      <c r="Q82">
+        <v>-2</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
+        <v>1.85</v>
+      </c>
+      <c r="T82">
+        <v>3.75</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
         <v>7.5</v>
       </c>
-      <c r="O82">
-        <v>4.333</v>
-      </c>
-      <c r="P82">
-        <v>1.333</v>
-      </c>
-      <c r="Q82">
-        <v>1.25</v>
-      </c>
-      <c r="R82">
-        <v>1.925</v>
-      </c>
-      <c r="S82">
-        <v>1.875</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.9</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>0.333</v>
-      </c>
       <c r="Z82">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6260201</v>
+        <v>6260205</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="N83">
-        <v>1.285</v>
+        <v>7.5</v>
       </c>
       <c r="O83">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P83">
-        <v>8.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q83">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R83">
         <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8089,7 +8089,7 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>34</v>
@@ -8181,7 +8181,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>45137.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8967,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8979,46 +8979,46 @@
         <v>45144.625</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M96">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N96">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>2.25</v>
@@ -9033,16 +9033,16 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>0.925</v>
@@ -9056,7 +9056,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9068,46 +9068,46 @@
         <v>45144.625</v>
       </c>
       <c r="F97" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
         <v>30</v>
       </c>
-      <c r="G97" t="s">
-        <v>33</v>
-      </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K97">
+        <v>1.533</v>
+      </c>
+      <c r="L97">
+        <v>3.6</v>
+      </c>
+      <c r="M97">
+        <v>5.75</v>
+      </c>
+      <c r="N97">
+        <v>1.533</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>5.75</v>
+      </c>
+      <c r="Q97">
+        <v>-1</v>
+      </c>
+      <c r="R97">
         <v>1.95</v>
       </c>
-      <c r="L97">
-        <v>3.3</v>
-      </c>
-      <c r="M97">
-        <v>3.4</v>
-      </c>
-      <c r="N97">
-        <v>1.909</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>3.5</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
         <v>2.25</v>
@@ -9122,16 +9122,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
         <v>0.925</v>
@@ -9160,7 +9160,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9246,49 +9246,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
         <v>1.85</v>
@@ -9297,25 +9297,25 @@
         <v>1.95</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,49 +9335,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
         <v>1.85</v>
@@ -9386,25 +9386,25 @@
         <v>1.95</v>
       </c>
       <c r="W100">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815305</v>
+        <v>6815422</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45151.625</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N101">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45151.625</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
       </c>
       <c r="K102">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45151.625</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.925</v>
-      </c>
-      <c r="AB103">
-        <v>-0.5</v>
-      </c>
-      <c r="AC103">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -9946,7 +9946,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9958,58 +9958,58 @@
         <v>45158.625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>41</v>
       </c>
       <c r="K107">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10018,16 +10018,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10035,7 +10035,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10047,76 +10047,76 @@
         <v>45158.625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>41</v>
       </c>
       <c r="K108">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P108">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>2.25</v>
+      </c>
+      <c r="U108">
+        <v>1.925</v>
+      </c>
+      <c r="V108">
+        <v>1.875</v>
+      </c>
+      <c r="W108">
+        <v>1.7</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>0.875</v>
+      </c>
+      <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
         <v>-0.5</v>
       </c>
-      <c r="R108">
-        <v>1.825</v>
-      </c>
-      <c r="S108">
-        <v>1.975</v>
-      </c>
-      <c r="T108">
-        <v>2</v>
-      </c>
-      <c r="U108">
-        <v>1.825</v>
-      </c>
-      <c r="V108">
-        <v>1.975</v>
-      </c>
-      <c r="W108">
-        <v>0.8</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>0.825</v>
-      </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>0.825</v>
-      </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10302,7 +10302,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10314,34 +10314,34 @@
         <v>45164.625</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K111">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
         <v>1.4</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P111">
         <v>6.5</v>
@@ -10350,40 +10350,40 @@
         <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10391,7 +10391,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10403,34 +10403,34 @@
         <v>45164.625</v>
       </c>
       <c r="F112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
         <v>30</v>
       </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K112">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N112">
         <v>1.4</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P112">
         <v>6.5</v>
@@ -10439,40 +10439,40 @@
         <v>-1.25</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>45172.5</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10851,7 +10851,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11115,76 +11115,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W120">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11192,7 +11192,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11204,76 +11204,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
+        <v>2.375</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>2.75</v>
+      </c>
+      <c r="N121">
+        <v>2.625</v>
+      </c>
+      <c r="O121">
+        <v>3</v>
+      </c>
+      <c r="P121">
+        <v>2.4</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
         <v>1.8</v>
       </c>
-      <c r="L121">
-        <v>3.4</v>
-      </c>
-      <c r="M121">
-        <v>3.75</v>
-      </c>
-      <c r="N121">
-        <v>1.6</v>
-      </c>
-      <c r="O121">
-        <v>3.5</v>
-      </c>
-      <c r="P121">
-        <v>4.75</v>
-      </c>
-      <c r="Q121">
-        <v>-0.75</v>
-      </c>
-      <c r="R121">
-        <v>1.825</v>
-      </c>
-      <c r="S121">
+      <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
+        <v>1.725</v>
+      </c>
+      <c r="V121">
         <v>1.975</v>
       </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.95</v>
-      </c>
-      <c r="V121">
-        <v>1.75</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X121">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11382,7 +11382,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -11459,7 +11459,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11471,76 +11471,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K124">
+        <v>1.3</v>
+      </c>
+      <c r="L124">
+        <v>4.333</v>
+      </c>
+      <c r="M124">
+        <v>9</v>
+      </c>
+      <c r="N124">
+        <v>1.363</v>
+      </c>
+      <c r="O124">
+        <v>4.333</v>
+      </c>
+      <c r="P124">
+        <v>7.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.5</v>
+      </c>
+      <c r="R124">
+        <v>1.95</v>
+      </c>
+      <c r="S124">
+        <v>1.85</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="L124">
-        <v>3</v>
-      </c>
-      <c r="M124">
-        <v>2.25</v>
-      </c>
-      <c r="N124">
-        <v>3.25</v>
-      </c>
-      <c r="O124">
-        <v>3</v>
-      </c>
-      <c r="P124">
-        <v>2.1</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11548,7 +11548,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11560,76 +11560,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K125">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N125">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O125">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11916,7 +11916,7 @@
         <v>45196.4375</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12097,7 +12097,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7279987</v>
+        <v>6815426</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12450,76 +12450,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L135">
         <v>3</v>
       </c>
       <c r="M135">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O135">
         <v>3</v>
       </c>
       <c r="P135">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.7</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.5</v>
-      </c>
-      <c r="AB135">
-        <v>0</v>
-      </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6815426</v>
+        <v>6815334</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N136">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z136">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y137">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12806,7 +12806,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
@@ -12972,7 +12972,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,73 +12984,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K141">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
+        <v>2.875</v>
+      </c>
+      <c r="M141">
+        <v>2.6</v>
+      </c>
+      <c r="N141">
         <v>3.1</v>
       </c>
-      <c r="M141">
-        <v>4</v>
-      </c>
-      <c r="N141">
-        <v>1.833</v>
-      </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W141">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13061,7 +13061,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13073,73 +13073,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K142">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L142">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N142">
+        <v>1.833</v>
+      </c>
+      <c r="O142">
         <v>3.1</v>
       </c>
-      <c r="O142">
-        <v>2.9</v>
-      </c>
       <c r="P142">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V142">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13610,7 +13610,7 @@
         <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -14040,7 +14040,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14052,76 +14052,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K153">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
+        <v>1.666</v>
+      </c>
+      <c r="N153">
+        <v>5.25</v>
+      </c>
+      <c r="O153">
+        <v>3.8</v>
+      </c>
+      <c r="P153">
+        <v>1.5</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>1.95</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
         <v>1.8</v>
       </c>
-      <c r="N153">
-        <v>3.8</v>
-      </c>
-      <c r="O153">
-        <v>3.25</v>
-      </c>
-      <c r="P153">
-        <v>1.8</v>
-      </c>
-      <c r="Q153">
-        <v>0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.95</v>
-      </c>
-      <c r="S153">
-        <v>1.85</v>
-      </c>
-      <c r="T153">
-        <v>2.25</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14129,7 +14129,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14141,76 +14141,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F154" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154" t="s">
         <v>31</v>
       </c>
-      <c r="G154" t="s">
-        <v>38</v>
-      </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K154">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N154">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O154">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
         <v>1.85</v>
       </c>
-      <c r="S154">
-        <v>1.95</v>
-      </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
         <v>1.8</v>
       </c>
-      <c r="V154">
-        <v>2</v>
-      </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14396,7 +14396,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6815358</v>
+        <v>6815359</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14408,61 +14408,61 @@
         <v>45241.5</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K157">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N157">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="O157">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R157">
+        <v>1.875</v>
+      </c>
+      <c r="S157">
+        <v>1.925</v>
+      </c>
+      <c r="T157">
+        <v>2.75</v>
+      </c>
+      <c r="U157">
         <v>1.8</v>
       </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>2.25</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X157">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC157">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14485,7 +14485,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6815357</v>
+        <v>6815358</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14497,10 +14497,10 @@
         <v>45241.5</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14512,61 +14512,61 @@
         <v>42</v>
       </c>
       <c r="K158">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N158">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P158">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T158">
         <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB158">
         <v>-0.5</v>
       </c>
       <c r="AC158">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14574,7 +14574,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14586,76 +14586,76 @@
         <v>45241.5</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N159">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14675,7 +14675,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
@@ -14853,7 +14853,7 @@
         <v>45256.375</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -15034,7 +15034,7 @@
         <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15286,7 +15286,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15298,55 +15298,55 @@
         <v>45262.375</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>40</v>
       </c>
       <c r="K167">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L167">
+        <v>3.5</v>
+      </c>
+      <c r="M167">
+        <v>1.615</v>
+      </c>
+      <c r="N167">
+        <v>5</v>
+      </c>
+      <c r="O167">
         <v>3.6</v>
       </c>
-      <c r="M167">
-        <v>5</v>
-      </c>
-      <c r="N167">
-        <v>1.363</v>
-      </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
       <c r="P167">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S167">
         <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15355,19 +15355,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15387,55 +15387,55 @@
         <v>45262.375</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>40</v>
       </c>
       <c r="K168">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N168">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q168">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R168">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
         <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -15444,19 +15444,19 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15832,7 +15832,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>34</v>
@@ -16188,7 +16188,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>35</v>
@@ -16547,7 +16547,7 @@
         <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H181">
         <v>2</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>FK Rudar Pljevlja</t>
   </si>
   <si>
-    <t>FK Arsenal</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>FK Arsenal</t>
   </si>
   <si>
     <t>Sutjeska Niksic</t>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6260125</v>
+        <v>6260122</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -705,73 +705,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>4.5</v>
+      </c>
+      <c r="N3">
+        <v>1.833</v>
+      </c>
+      <c r="O3">
+        <v>3.4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>-0.5</v>
+      </c>
+      <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
+        <v>1.925</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
+        <v>1.775</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>3.6</v>
-      </c>
-      <c r="N3">
-        <v>2.3</v>
-      </c>
-      <c r="O3">
-        <v>2.875</v>
-      </c>
-      <c r="P3">
-        <v>3.1</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>1.8</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.95</v>
-      </c>
-      <c r="V3">
-        <v>1.85</v>
-      </c>
-      <c r="W3">
-        <v>1.3</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6260122</v>
+        <v>6260125</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -794,73 +794,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>44985.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1684,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6260136</v>
+        <v>6348963</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1770,76 +1770,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.9</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X15">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1847,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6348963</v>
+        <v>6260136</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1859,76 +1859,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>1.8</v>
       </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6260145</v>
+        <v>6260143</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2215,76 +2215,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
       </c>
       <c r="K20">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.8</v>
+      </c>
+      <c r="O20">
         <v>4</v>
       </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>3.2</v>
-      </c>
       <c r="P20">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
         <v>1.95</v>
       </c>
-      <c r="S20">
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
         <v>1.85</v>
       </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6260143</v>
+        <v>6260145</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2393,76 +2393,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
+        <v>1.95</v>
+      </c>
+      <c r="S22">
         <v>1.85</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6260142</v>
+        <v>6260141</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2482,46 +2482,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
+        <v>4.2</v>
+      </c>
+      <c r="N23">
+        <v>1.7</v>
+      </c>
+      <c r="O23">
+        <v>3.4</v>
+      </c>
+      <c r="P23">
         <v>4.75</v>
       </c>
-      <c r="N23">
-        <v>1.5</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>5.5</v>
-      </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2536,22 +2536,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2559,7 +2559,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6260141</v>
+        <v>6260142</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2571,46 +2571,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N24">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2625,22 +2625,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6260149</v>
+        <v>6260148</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,76 +2838,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
+        <v>1.725</v>
+      </c>
+      <c r="S27">
         <v>1.975</v>
       </c>
-      <c r="S27">
-        <v>1.825</v>
-      </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2915,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6260148</v>
+        <v>6260149</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2927,76 +2927,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.825</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
         <v>1.725</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.975</v>
       </c>
-      <c r="T28">
-        <v>2.25</v>
-      </c>
-      <c r="U28">
-        <v>1.925</v>
-      </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
       <c r="W28">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3538,7 +3538,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6260157</v>
+        <v>6260159</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3550,76 +3550,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P35">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W35">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3627,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6260159</v>
+        <v>6260157</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3639,76 +3639,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="O36">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>45017.5</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3909,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4072,7 +4072,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6260161</v>
+        <v>6260164</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4084,76 +4084,76 @@
         <v>45021.5</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N41">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="P41">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>2.025</v>
+      </c>
+      <c r="S41">
+        <v>1.775</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>1.8</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>1.55</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>1.975</v>
-      </c>
-      <c r="S41">
-        <v>1.825</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.875</v>
-      </c>
-      <c r="V41">
-        <v>1.925</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>2.6</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4161,7 +4161,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6260164</v>
+        <v>6260161</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4173,76 +4173,76 @@
         <v>45021.5</v>
       </c>
       <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
         <v>31</v>
       </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O42">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6260174</v>
+        <v>6260172</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,40 +4974,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5016,16 +5016,16 @@
         <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5040,10 +5040,10 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5051,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6260172</v>
+        <v>6260174</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5063,40 +5063,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O52">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5105,16 +5105,16 @@
         <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5129,10 +5129,10 @@
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5241,7 +5241,7 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>38</v>
@@ -5318,7 +5318,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6495880</v>
+        <v>6542673</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,76 +5330,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N55">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>1.615</v>
+        <v>8.5</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
         <v>1.975</v>
       </c>
-      <c r="S55">
+      <c r="T55">
+        <v>2.25</v>
+      </c>
+      <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
-      </c>
-      <c r="V55">
-        <v>1.8</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
+        <v>-0.5</v>
+      </c>
+      <c r="AA55">
+        <v>0.4875</v>
+      </c>
+      <c r="AB55">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5407,7 +5407,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6542673</v>
+        <v>6495880</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,76 +5419,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N56">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
         <v>1.825</v>
       </c>
-      <c r="S56">
-        <v>1.975</v>
-      </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5941,7 +5941,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6260183</v>
+        <v>6260185</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5953,76 +5953,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
         <v>30</v>
       </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6030,7 +6030,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6260185</v>
+        <v>6260183</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6042,76 +6042,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L63">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R63">
+        <v>1.85</v>
+      </c>
+      <c r="S63">
+        <v>1.95</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
         <v>1.9</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.9</v>
       </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6564,7 +6564,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6260194</v>
+        <v>6260192</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6576,76 +6576,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L69">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
         <v>3</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6653,7 +6653,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6260193</v>
+        <v>6260191</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6665,49 +6665,49 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
       </c>
       <c r="K70">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N70">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>1.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
         <v>1.975</v>
@@ -6722,19 +6722,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.55</v>
+        <v>1.875</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6742,7 +6742,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6260192</v>
+        <v>6260194</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6754,76 +6754,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M71">
         <v>3</v>
       </c>
       <c r="N71">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P71">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W71">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6831,7 +6831,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6260191</v>
+        <v>6260195</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,76 +6843,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M72">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="N72">
-        <v>2.4</v>
+        <v>1.166</v>
       </c>
       <c r="O72">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>2.875</v>
+        <v>12</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R72">
         <v>1.75</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6920,7 +6920,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6260195</v>
+        <v>6260193</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,76 +6932,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K73">
-        <v>1.166</v>
+        <v>3.3</v>
       </c>
       <c r="L73">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>1.166</v>
+        <v>5.25</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>12</v>
+        <v>1.55</v>
       </c>
       <c r="Q73">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7009,7 +7009,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6260196</v>
+        <v>6260200</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7021,76 +7021,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="N74">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P74">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="Q74">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7098,7 +7098,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6260197</v>
+        <v>6260198</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7110,76 +7110,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6260200</v>
+        <v>6260196</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>9.5</v>
+      </c>
+      <c r="N77">
+        <v>1.25</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <v>-1.75</v>
+      </c>
+      <c r="R77">
+        <v>1.875</v>
+      </c>
+      <c r="S77">
+        <v>1.925</v>
+      </c>
+      <c r="T77">
         <v>3</v>
       </c>
-      <c r="M77">
-        <v>2.3</v>
-      </c>
-      <c r="N77">
-        <v>3.8</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>1.8</v>
-      </c>
-      <c r="Q77">
-        <v>0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.95</v>
-      </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X77">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6260198</v>
+        <v>6260197</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
         <v>31</v>
       </c>
-      <c r="G78" t="s">
-        <v>34</v>
-      </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N78">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
-      </c>
-      <c r="S78">
-        <v>2</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="W78">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
         <v>0.8</v>
       </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7454,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6260201</v>
+        <v>6260205</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,76 +7466,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K79">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M79">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="N79">
-        <v>1.285</v>
+        <v>7.5</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P79">
-        <v>8.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q79">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
         <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7543,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6260202</v>
+        <v>6260204</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7555,55 +7555,55 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
         <v>40</v>
       </c>
       <c r="K80">
+        <v>1.909</v>
+      </c>
+      <c r="L80">
+        <v>3.1</v>
+      </c>
+      <c r="M80">
+        <v>3.7</v>
+      </c>
+      <c r="N80">
+        <v>1.25</v>
+      </c>
+      <c r="O80">
+        <v>5.75</v>
+      </c>
+      <c r="P80">
+        <v>8.5</v>
+      </c>
+      <c r="Q80">
+        <v>-2</v>
+      </c>
+      <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
+        <v>1.85</v>
+      </c>
+      <c r="T80">
         <v>3.75</v>
       </c>
-      <c r="L80">
-        <v>3.3</v>
-      </c>
-      <c r="M80">
-        <v>1.833</v>
-      </c>
-      <c r="N80">
-        <v>5</v>
-      </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
-      <c r="P80">
-        <v>1.5</v>
-      </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.825</v>
-      </c>
-      <c r="T80">
-        <v>2.5</v>
-      </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7612,19 +7612,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7632,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6260203</v>
+        <v>6260202</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,64 +7644,64 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N81">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>-0</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6260204</v>
+        <v>6260201</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,73 +7733,73 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="N82">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="O82">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
         <v>8.5</v>
       </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
+        <v>1.925</v>
+      </c>
+      <c r="S82">
+        <v>1.775</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
+        <v>1.85</v>
+      </c>
+      <c r="V82">
         <v>1.95</v>
       </c>
-      <c r="S82">
-        <v>1.85</v>
-      </c>
-      <c r="T82">
-        <v>3.75</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB82">
-        <v>0.8</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6260205</v>
+        <v>6260203</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
       </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="O83">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L85">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O85">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X85">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>0.4</v>
+      </c>
+      <c r="AA85">
         <v>-0.5</v>
       </c>
-      <c r="AA85">
-        <v>0.45</v>
-      </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8077,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8089,76 +8089,76 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N86">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>45137.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8967,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8979,46 +8979,46 @@
         <v>45144.625</v>
       </c>
       <c r="F96" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s">
         <v>31</v>
       </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K96">
+        <v>1.533</v>
+      </c>
+      <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>5.75</v>
+      </c>
+      <c r="N96">
+        <v>1.533</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>5.75</v>
+      </c>
+      <c r="Q96">
+        <v>-1</v>
+      </c>
+      <c r="R96">
         <v>1.95</v>
       </c>
-      <c r="L96">
-        <v>3.3</v>
-      </c>
-      <c r="M96">
-        <v>3.4</v>
-      </c>
-      <c r="N96">
-        <v>1.909</v>
-      </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
-      <c r="P96">
-        <v>3.5</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.975</v>
-      </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.25</v>
@@ -9033,16 +9033,16 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
         <v>0.925</v>
@@ -9056,7 +9056,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9068,46 +9068,46 @@
         <v>45144.625</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K97">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N97">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.25</v>
@@ -9122,16 +9122,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
         <v>0.925</v>
@@ -9160,7 +9160,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9246,49 +9246,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N99">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U99">
         <v>1.85</v>
@@ -9297,25 +9297,25 @@
         <v>1.95</v>
       </c>
       <c r="W99">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,49 +9335,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
         <v>1.85</v>
@@ -9386,25 +9386,25 @@
         <v>1.95</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6815305</v>
+        <v>6815304</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45151.625</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
       </c>
       <c r="K102">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N102">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45151.625</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>42</v>
       </c>
       <c r="K103">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -9958,7 +9958,7 @@
         <v>45158.625</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10314,7 +10314,7 @@
         <v>45164.625</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10391,7 +10391,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6815312</v>
+        <v>6815311</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10403,58 +10403,58 @@
         <v>45164.625</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>41</v>
       </c>
       <c r="K112">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L112">
+        <v>3.1</v>
+      </c>
+      <c r="M112">
         <v>4</v>
       </c>
-      <c r="M112">
-        <v>6</v>
-      </c>
       <c r="N112">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P112">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10463,16 +10463,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10480,7 +10480,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6815311</v>
+        <v>6815312</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10492,58 +10492,58 @@
         <v>45164.625</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>41</v>
       </c>
       <c r="K113">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L113">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M113">
+        <v>6</v>
+      </c>
+      <c r="N113">
+        <v>1.4</v>
+      </c>
+      <c r="O113">
         <v>4</v>
       </c>
-      <c r="N113">
-        <v>2.25</v>
-      </c>
-      <c r="O113">
-        <v>2.9</v>
-      </c>
       <c r="P113">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10552,16 +10552,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>45172.5</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10851,7 +10851,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11382,7 +11382,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -11560,10 +11560,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" t="s">
         <v>30</v>
-      </c>
-      <c r="G125" t="s">
-        <v>31</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>45196.4375</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12097,7 +12097,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6815426</v>
+        <v>6815334</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12450,76 +12450,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N135">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z135">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y136">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7279987</v>
+        <v>6815426</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O137">
         <v>3</v>
       </c>
       <c r="P137">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X137">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
+        <v>0.7</v>
+      </c>
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
         <v>-0.5</v>
       </c>
-      <c r="AA137">
-        <v>0.5</v>
-      </c>
-      <c r="AB137">
-        <v>0</v>
-      </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12806,7 +12806,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
@@ -12972,7 +12972,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,73 +12984,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K141">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L141">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N141">
+        <v>1.833</v>
+      </c>
+      <c r="O141">
         <v>3.1</v>
       </c>
-      <c r="O141">
-        <v>2.9</v>
-      </c>
       <c r="P141">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V141">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13061,7 +13061,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13073,73 +13073,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K142">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L142">
+        <v>2.875</v>
+      </c>
+      <c r="M142">
+        <v>2.6</v>
+      </c>
+      <c r="N142">
         <v>3.1</v>
       </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>1.833</v>
-      </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P142">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W142">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13610,7 +13610,7 @@
         <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -14052,7 +14052,7 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>38</v>
@@ -14144,7 +14144,7 @@
         <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14396,7 +14396,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14408,76 +14408,76 @@
         <v>45241.5</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K157">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L157">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N157">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O157">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q157">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14574,7 +14574,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14586,76 +14586,76 @@
         <v>45241.5</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K159">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N159">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q159">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X159">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC159">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14675,7 +14675,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
@@ -14853,7 +14853,7 @@
         <v>45256.375</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -14930,7 +14930,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14942,61 +14942,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>42</v>
+      </c>
+      <c r="K163">
+        <v>2.2</v>
+      </c>
+      <c r="L163">
         <v>3</v>
       </c>
-      <c r="J163" t="s">
-        <v>41</v>
-      </c>
-      <c r="K163">
-        <v>1.444</v>
-      </c>
-      <c r="L163">
-        <v>3.75</v>
-      </c>
       <c r="M163">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N163">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P163">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>2.05</v>
+      </c>
+      <c r="S163">
+        <v>1.75</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
+        <v>1.8</v>
+      </c>
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
         <v>1.875</v>
-      </c>
-      <c r="S163">
-        <v>1.925</v>
-      </c>
-      <c r="T163">
-        <v>2.5</v>
-      </c>
-      <c r="U163">
-        <v>1.775</v>
-      </c>
-      <c r="V163">
-        <v>1.925</v>
-      </c>
-      <c r="W163">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15005,13 +15005,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB163">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15019,7 +15019,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15031,61 +15031,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L164">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N164">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O164">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X164">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15094,13 +15094,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15387,10 +15387,10 @@
         <v>45262.375</v>
       </c>
       <c r="F168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s">
         <v>31</v>
-      </c>
-      <c r="G168" t="s">
-        <v>30</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15746,7 +15746,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15832,7 +15832,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>34</v>
@@ -16188,7 +16188,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>35</v>
@@ -16547,7 +16547,7 @@
         <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>2</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>FK Rudar Pljevlja</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>FK Arsenal</t>
   </si>
   <si>
-    <t>FK Arsenal</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
     <t>Sutjeska Niksic</t>
@@ -118,10 +118,10 @@
     <t>OFK Petrovac</t>
   </si>
   <si>
-    <t>FK Jedinstvo Bijelo Polje</t>
+    <t>FK Jezero</t>
   </si>
   <si>
-    <t>FK Jezero</t>
+    <t>FK Jedinstvo Bijelo Polje</t>
   </si>
   <si>
     <t>FK Iskra Danilovgrad</t>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6260122</v>
+        <v>6260125</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -705,73 +705,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6260125</v>
+        <v>6260122</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -794,73 +794,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>4.5</v>
+      </c>
+      <c r="N4">
+        <v>1.833</v>
+      </c>
+      <c r="O4">
+        <v>3.4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.5</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.925</v>
+      </c>
+      <c r="T4">
+        <v>2.25</v>
+      </c>
+      <c r="U4">
+        <v>2.025</v>
+      </c>
+      <c r="V4">
+        <v>1.775</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>3.6</v>
-      </c>
-      <c r="N4">
-        <v>2.3</v>
-      </c>
-      <c r="O4">
-        <v>2.875</v>
-      </c>
-      <c r="P4">
-        <v>3.1</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.8</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.95</v>
-      </c>
-      <c r="V4">
-        <v>1.85</v>
-      </c>
-      <c r="W4">
-        <v>1.3</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6260126</v>
+        <v>6260127</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1061,55 +1061,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N7">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1.8</v>
+        <v>0.615</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1118,16 +1118,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6260127</v>
+        <v>6260126</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,55 +1150,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>1.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1207,16 +1207,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>44985.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1684,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1770,7 +1770,7 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -1859,7 +1859,7 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1951,7 +1951,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6260143</v>
+        <v>6260144</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2215,76 +2215,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2292,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6260144</v>
+        <v>6260143</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2304,76 +2304,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.8</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>1.666</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>1.95</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>1.85</v>
+      </c>
+      <c r="V21">
+        <v>1.95</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>2.75</v>
-      </c>
-      <c r="N21">
-        <v>2.55</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>2.7</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1.825</v>
-      </c>
-      <c r="S21">
-        <v>1.975</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
-      <c r="W21">
-        <v>1.55</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6260141</v>
+        <v>6260142</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2482,46 +2482,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2536,22 +2536,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y23">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2559,7 +2559,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6260142</v>
+        <v>6260141</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2571,46 +2571,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
+        <v>4.2</v>
+      </c>
+      <c r="N24">
+        <v>1.7</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
         <v>4.75</v>
       </c>
-      <c r="N24">
-        <v>1.5</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>5.5</v>
-      </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2625,22 +2625,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6260148</v>
+        <v>6260149</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,76 +2838,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
         <v>1.725</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="T27">
-        <v>2.25</v>
-      </c>
-      <c r="U27">
-        <v>1.925</v>
-      </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2915,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6260149</v>
+        <v>6260148</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2927,76 +2927,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>1.725</v>
+      </c>
+      <c r="S28">
         <v>1.975</v>
       </c>
-      <c r="S28">
-        <v>1.825</v>
-      </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X28">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3105,10 +3105,10 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3283,7 +3283,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6260151</v>
+        <v>6260155</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,49 +3372,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3426,22 +3426,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3449,7 +3449,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6260155</v>
+        <v>6260151</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3461,49 +3461,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
       </c>
       <c r="K34">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>1.666</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
         <v>3.25</v>
       </c>
-      <c r="M34">
-        <v>3.75</v>
-      </c>
-      <c r="N34">
-        <v>2.15</v>
-      </c>
-      <c r="O34">
-        <v>3</v>
-      </c>
       <c r="P34">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
         <v>1.9</v>
@@ -3515,22 +3515,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
+        <v>0.95</v>
+      </c>
+      <c r="AA34">
+        <v>-1</v>
+      </c>
+      <c r="AB34">
         <v>-0.5</v>
       </c>
-      <c r="AA34">
+      <c r="AC34">
         <v>0.45</v>
-      </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
-      <c r="AC34">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3817,10 +3817,10 @@
         <v>45017.5</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>45021.5</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4176,7 +4176,7 @@
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4428,7 +4428,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6260169</v>
+        <v>6260167</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4440,76 +4440,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M45">
+        <v>2.4</v>
+      </c>
+      <c r="N45">
+        <v>2.8</v>
+      </c>
+      <c r="O45">
+        <v>2.875</v>
+      </c>
+      <c r="P45">
+        <v>2.45</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
+        <v>1.75</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
         <v>1.8</v>
       </c>
-      <c r="N45">
-        <v>4</v>
-      </c>
-      <c r="O45">
-        <v>3.25</v>
-      </c>
-      <c r="P45">
-        <v>1.8</v>
-      </c>
-      <c r="Q45">
-        <v>0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>1.775</v>
-      </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4517,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6260167</v>
+        <v>6260169</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4529,76 +4529,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,10 +4618,10 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6260172</v>
+        <v>6260174</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4974,40 +4974,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
         <v>3</v>
       </c>
       <c r="M51">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5016,16 +5016,16 @@
         <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5040,10 +5040,10 @@
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5051,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6260174</v>
+        <v>6260172</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5063,40 +5063,40 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="M52">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N52">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5105,16 +5105,16 @@
         <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5129,10 +5129,10 @@
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5140,7 +5140,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6524836</v>
+        <v>6524837</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5152,73 +5152,73 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
+        <v>3.2</v>
+      </c>
+      <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
         <v>3.1</v>
-      </c>
-      <c r="M53">
-        <v>3.4</v>
-      </c>
-      <c r="N53">
-        <v>1.95</v>
       </c>
       <c r="O53">
         <v>3.1</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5229,7 +5229,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6524837</v>
+        <v>6524836</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5241,73 +5241,73 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N54">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O54">
         <v>3.1</v>
       </c>
       <c r="P54">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5330,10 +5330,10 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
         <v>34</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5511,7 +5511,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5864,7 +5864,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -5956,7 +5956,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6134,7 +6134,7 @@
         <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6401,7 +6401,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6564,7 +6564,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6260192</v>
+        <v>6260191</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6576,76 +6576,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
+        <v>1.825</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
         <v>1.875</v>
       </c>
-      <c r="W69">
-        <v>0.833</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6653,7 +6653,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6260191</v>
+        <v>6260193</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6665,49 +6665,49 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.875</v>
+        <v>1.55</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
         <v>1.975</v>
@@ -6722,19 +6722,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.875</v>
+        <v>0.55</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6742,7 +6742,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6260194</v>
+        <v>6260192</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6754,76 +6754,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
         <v>3</v>
       </c>
       <c r="N71">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O71">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X71">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6831,7 +6831,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6260195</v>
+        <v>6260194</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,76 +6843,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1.166</v>
+        <v>2.4</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q72">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6920,7 +6920,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6260193</v>
+        <v>6260195</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,76 +6932,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>3.3</v>
+        <v>1.166</v>
       </c>
       <c r="L73">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <v>12</v>
+      </c>
+      <c r="N73">
+        <v>1.166</v>
+      </c>
+      <c r="O73">
+        <v>6</v>
+      </c>
+      <c r="P73">
+        <v>12</v>
+      </c>
+      <c r="Q73">
+        <v>-2</v>
+      </c>
+      <c r="R73">
+        <v>1.75</v>
+      </c>
+      <c r="S73">
+        <v>1.95</v>
+      </c>
+      <c r="T73">
         <v>3.25</v>
       </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>5.25</v>
-      </c>
-      <c r="O73">
-        <v>3.6</v>
-      </c>
-      <c r="P73">
-        <v>1.55</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>1.825</v>
-      </c>
-      <c r="S73">
-        <v>1.975</v>
-      </c>
-      <c r="T73">
-        <v>2.5</v>
-      </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7098,7 +7098,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6260198</v>
+        <v>6260199</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7110,37 +7110,37 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>34</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q75">
         <v>-1.25</v>
@@ -7161,25 +7161,25 @@
         <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7187,7 +7187,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6260199</v>
+        <v>6260197</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7199,55 +7199,55 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>40</v>
       </c>
       <c r="K76">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="O76">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
         <v>1.8</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7256,16 +7256,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6260197</v>
+        <v>6260198</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,76 +7377,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7454,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6260205</v>
+        <v>6260201</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,76 +7466,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N79">
-        <v>7.5</v>
+        <v>1.285</v>
       </c>
       <c r="O79">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>1.333</v>
+        <v>8.5</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R79">
         <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7543,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6260204</v>
+        <v>6260202</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7555,55 +7555,55 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>40</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>3.7</v>
+        <v>1.833</v>
       </c>
       <c r="N80">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="O80">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7612,19 +7612,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7632,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6260202</v>
+        <v>6260203</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,64 +7644,64 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>-0</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6260201</v>
+        <v>6260204</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,73 +7733,73 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
         <v>4</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M82">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="N82">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P82">
         <v>8.5</v>
       </c>
       <c r="Q82">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6260203</v>
+        <v>6260205</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N83">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="O83">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P83">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R83">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8000,10 +8000,10 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8181,7 +8181,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>45130.625</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8445,7 +8445,7 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8623,10 +8623,10 @@
         <v>45137.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8801,10 +8801,10 @@
         <v>45143.625</v>
       </c>
       <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" t="s">
         <v>35</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8967,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8979,46 +8979,46 @@
         <v>45144.625</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M96">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N96">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>2.25</v>
@@ -9033,16 +9033,16 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>0.925</v>
@@ -9056,7 +9056,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9068,46 +9068,46 @@
         <v>45144.625</v>
       </c>
       <c r="F97" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
         <v>30</v>
       </c>
-      <c r="G97" t="s">
-        <v>33</v>
-      </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K97">
+        <v>1.533</v>
+      </c>
+      <c r="L97">
+        <v>3.6</v>
+      </c>
+      <c r="M97">
+        <v>5.75</v>
+      </c>
+      <c r="N97">
+        <v>1.533</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>5.75</v>
+      </c>
+      <c r="Q97">
+        <v>-1</v>
+      </c>
+      <c r="R97">
         <v>1.95</v>
       </c>
-      <c r="L97">
-        <v>3.3</v>
-      </c>
-      <c r="M97">
-        <v>3.4</v>
-      </c>
-      <c r="N97">
-        <v>1.909</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>3.5</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
         <v>2.25</v>
@@ -9122,16 +9122,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
         <v>0.925</v>
@@ -9160,7 +9160,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9246,49 +9246,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
         <v>1.85</v>
@@ -9297,25 +9297,25 @@
         <v>1.95</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,49 +9335,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
         <v>1.85</v>
@@ -9386,25 +9386,25 @@
         <v>1.95</v>
       </c>
       <c r="W100">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815422</v>
+        <v>6815305</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45151.625</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>7</v>
+      </c>
+      <c r="N101">
+        <v>1.571</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <v>4.2</v>
+      </c>
+      <c r="Q101">
+        <v>-0.75</v>
+      </c>
+      <c r="R101">
+        <v>1.75</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>1.95</v>
+      </c>
+      <c r="V101">
+        <v>1.85</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>3</v>
       </c>
-      <c r="M101">
-        <v>2.75</v>
-      </c>
-      <c r="N101">
-        <v>3.1</v>
-      </c>
-      <c r="O101">
-        <v>3</v>
-      </c>
-      <c r="P101">
-        <v>2.15</v>
-      </c>
-      <c r="Q101">
-        <v>0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
-      <c r="V101">
-        <v>1.775</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6815304</v>
+        <v>6815422</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45151.625</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9590,7 +9590,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6815305</v>
+        <v>6815304</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9602,76 +9602,76 @@
         <v>45151.625</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>42</v>
       </c>
       <c r="K103">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N103">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,10 +9691,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9958,7 +9958,7 @@
         <v>45158.625</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10047,7 +10047,7 @@
         <v>45158.625</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,7 +10139,7 @@
         <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10302,7 +10302,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10314,76 +10314,76 @@
         <v>45164.625</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N111">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P111">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10391,7 +10391,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6815311</v>
+        <v>6815312</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10403,58 +10403,58 @@
         <v>45164.625</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>41</v>
       </c>
       <c r="K112">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L112">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M112">
+        <v>6</v>
+      </c>
+      <c r="N112">
+        <v>1.4</v>
+      </c>
+      <c r="O112">
         <v>4</v>
       </c>
-      <c r="N112">
-        <v>2.25</v>
-      </c>
-      <c r="O112">
-        <v>2.9</v>
-      </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10463,16 +10463,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10480,7 +10480,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10492,34 +10492,34 @@
         <v>45164.625</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K113">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N113">
         <v>1.4</v>
       </c>
       <c r="O113">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
         <v>6.5</v>
@@ -10528,40 +10528,40 @@
         <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10569,7 +10569,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10581,61 +10581,61 @@
         <v>45172.5</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>42</v>
       </c>
       <c r="K114">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L114">
         <v>3</v>
       </c>
       <c r="M114">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N114">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O114">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P114">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -10647,10 +10647,10 @@
         <v>-0</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10658,7 +10658,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10670,61 +10670,61 @@
         <v>45172.5</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
       </c>
       <c r="K115">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y115">
         <v>-1</v>
@@ -10736,10 +10736,10 @@
         <v>-0</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>38</v>
@@ -10848,10 +10848,10 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11115,76 +11115,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
+        <v>2.375</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>2.75</v>
+      </c>
+      <c r="N120">
+        <v>2.625</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>2.4</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="L120">
-        <v>3.4</v>
-      </c>
-      <c r="M120">
-        <v>3.75</v>
-      </c>
-      <c r="N120">
-        <v>1.6</v>
-      </c>
-      <c r="O120">
-        <v>3.5</v>
-      </c>
-      <c r="P120">
-        <v>4.75</v>
-      </c>
-      <c r="Q120">
-        <v>-0.75</v>
-      </c>
-      <c r="R120">
-        <v>1.825</v>
-      </c>
-      <c r="S120">
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>1.725</v>
+      </c>
+      <c r="V120">
         <v>1.975</v>
       </c>
-      <c r="T120">
-        <v>2.5</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.75</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X120">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11192,7 +11192,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11204,76 +11204,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N121">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W121">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11382,7 +11382,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -11560,10 +11560,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F125" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s">
         <v>31</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>45192.5</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11738,7 +11738,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>39</v>
@@ -11916,7 +11916,7 @@
         <v>45196.4375</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -11993,7 +11993,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6815333</v>
+        <v>6815331</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12005,76 +12005,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K130">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M130">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O130">
         <v>3.6</v>
       </c>
       <c r="P130">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
         <v>2.25</v>
       </c>
       <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
         <v>1.85</v>
       </c>
-      <c r="V130">
-        <v>1.95</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12082,7 +12082,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6815331</v>
+        <v>6815333</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12094,76 +12094,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F131" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" t="s">
         <v>34</v>
       </c>
-      <c r="G131" t="s">
-        <v>30</v>
-      </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L131">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N131">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O131">
         <v>3.6</v>
       </c>
       <c r="P131">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>2.25</v>
       </c>
       <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
         <v>1.95</v>
       </c>
-      <c r="V131">
-        <v>1.85</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12438,7 +12438,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12450,76 +12450,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y135">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7279987</v>
+        <v>6815426</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O136">
         <v>3</v>
       </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X136">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>0.7</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.5</v>
-      </c>
-      <c r="AB136">
-        <v>0</v>
-      </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6815426</v>
+        <v>6815334</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z137">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12806,7 +12806,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
@@ -12895,10 +12895,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F140" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
         <v>34</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13239,7 +13239,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13251,76 +13251,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L144">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O144">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P144">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
+        <v>1.75</v>
+      </c>
+      <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
         <v>1.925</v>
       </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.875</v>
-      </c>
       <c r="W144">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13328,7 +13328,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7366683</v>
+        <v>7366684</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13340,76 +13340,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K145">
+        <v>2.875</v>
+      </c>
+      <c r="L145">
+        <v>2.9</v>
+      </c>
+      <c r="M145">
         <v>2.375</v>
       </c>
-      <c r="L145">
-        <v>2.8</v>
-      </c>
-      <c r="M145">
-        <v>3</v>
-      </c>
       <c r="N145">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
+        <v>1.925</v>
+      </c>
+      <c r="V145">
         <v>1.875</v>
       </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X145">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.875</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13518,7 +13518,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
         <v>38</v>
@@ -13607,10 +13607,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13699,7 +13699,7 @@
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>45234.5</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
         <v>39</v>
@@ -14040,7 +14040,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14052,76 +14052,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F153" t="s">
+        <v>29</v>
+      </c>
+      <c r="G153" t="s">
         <v>31</v>
       </c>
-      <c r="G153" t="s">
-        <v>38</v>
-      </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K153">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N153">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
         <v>1.85</v>
       </c>
-      <c r="S153">
-        <v>1.95</v>
-      </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.8</v>
       </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14129,7 +14129,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14141,76 +14141,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K154">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
+        <v>1.666</v>
+      </c>
+      <c r="N154">
+        <v>5.25</v>
+      </c>
+      <c r="O154">
+        <v>3.8</v>
+      </c>
+      <c r="P154">
+        <v>1.5</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
         <v>1.8</v>
       </c>
-      <c r="N154">
-        <v>3.8</v>
-      </c>
-      <c r="O154">
-        <v>3.25</v>
-      </c>
-      <c r="P154">
-        <v>1.8</v>
-      </c>
-      <c r="Q154">
-        <v>0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.95</v>
-      </c>
-      <c r="S154">
-        <v>1.85</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14230,7 +14230,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14500,7 +14500,7 @@
         <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14675,10 +14675,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14853,7 +14853,7 @@
         <v>45256.375</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -14945,7 +14945,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15120,7 +15120,7 @@
         <v>45257.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
         <v>29</v>
@@ -15209,7 +15209,7 @@
         <v>45258.375</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>33</v>
@@ -15286,7 +15286,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15298,55 +15298,55 @@
         <v>45262.375</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>40</v>
       </c>
       <c r="K167">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N167">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q167">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
         <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15355,19 +15355,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15387,55 +15387,55 @@
         <v>45262.375</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>40</v>
       </c>
       <c r="K168">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L168">
+        <v>3.5</v>
+      </c>
+      <c r="M168">
+        <v>1.615</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168">
         <v>3.6</v>
       </c>
-      <c r="M168">
-        <v>5</v>
-      </c>
-      <c r="N168">
-        <v>1.363</v>
-      </c>
-      <c r="O168">
-        <v>4.2</v>
-      </c>
       <c r="P168">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S168">
         <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -15444,19 +15444,19 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15479,7 +15479,7 @@
         <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15657,7 +15657,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15746,7 +15746,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15832,10 +15832,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -16099,7 +16099,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>32</v>
@@ -16188,10 +16188,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>3</v>
@@ -16277,7 +16277,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
         <v>29</v>
@@ -16547,7 +16547,7 @@
         <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H181">
         <v>2</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>OFK Petrovac</t>
   </si>
   <si>
-    <t>FK Jezero</t>
+    <t>FK Jedinstvo Bijelo Polje</t>
   </si>
   <si>
-    <t>FK Jedinstvo Bijelo Polje</t>
+    <t>FK Jezero</t>
   </si>
   <si>
     <t>FK Iskra Danilovgrad</t>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +705,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6260127</v>
+        <v>6260126</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1061,55 +1061,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W7">
-        <v>0.615</v>
+        <v>1.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1118,16 +1118,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6260126</v>
+        <v>6260127</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,55 +1150,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>1.8</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1207,16 +1207,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6348963</v>
+        <v>6260136</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1770,76 +1770,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.8</v>
       </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.9</v>
-      </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1847,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6260136</v>
+        <v>6348963</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1859,76 +1859,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O16">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>1.9</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.9</v>
       </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X16">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
@@ -2292,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6260143</v>
+        <v>6260145</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2304,76 +2304,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
       </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6260145</v>
+        <v>6260143</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2393,76 +2393,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
+        <v>1.615</v>
+      </c>
+      <c r="N22">
+        <v>3.8</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
-      <c r="N22">
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <v>3.2</v>
-      </c>
       <c r="P22">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
       </c>
-      <c r="S22">
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.875</v>
-      </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3019,7 +3019,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -3182,7 +3182,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6260152</v>
+        <v>6410905</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3194,55 +3194,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L31">
         <v>3.4</v>
       </c>
       <c r="M31">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
         <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3251,19 +3251,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6410905</v>
+        <v>6260152</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,55 +3283,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
         <v>3.4</v>
       </c>
       <c r="M32">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S32">
         <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3340,19 +3340,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3360,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6260155</v>
+        <v>6260151</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3372,49 +3372,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L33">
+        <v>3.4</v>
+      </c>
+      <c r="M33">
+        <v>1.666</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
         <v>3.25</v>
       </c>
-      <c r="M33">
-        <v>3.75</v>
-      </c>
-      <c r="N33">
-        <v>2.15</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3426,22 +3426,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0.95</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
         <v>-0.5</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>0.45</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3449,7 +3449,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6260151</v>
+        <v>6260155</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3461,49 +3461,49 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
       </c>
       <c r="K34">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>1.9</v>
@@ -3515,22 +3515,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3538,7 +3538,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6260159</v>
+        <v>6260157</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3550,76 +3550,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K35">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N35">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="O35">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3627,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6260157</v>
+        <v>6260159</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3639,76 +3639,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K36">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P36">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4428,7 +4428,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6260167</v>
+        <v>6260169</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4440,76 +4440,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N45">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4517,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6260169</v>
+        <v>6260167</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4529,76 +4529,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M46">
+        <v>2.4</v>
+      </c>
+      <c r="N46">
+        <v>2.8</v>
+      </c>
+      <c r="O46">
+        <v>2.875</v>
+      </c>
+      <c r="P46">
+        <v>2.45</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>2.05</v>
+      </c>
+      <c r="S46">
+        <v>1.75</v>
+      </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
         <v>1.8</v>
       </c>
-      <c r="N46">
-        <v>4</v>
-      </c>
-      <c r="O46">
-        <v>3.25</v>
-      </c>
-      <c r="P46">
-        <v>1.8</v>
-      </c>
-      <c r="Q46">
-        <v>0.5</v>
-      </c>
-      <c r="R46">
-        <v>1.95</v>
-      </c>
-      <c r="S46">
-        <v>1.85</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>1.775</v>
-      </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -5066,7 +5066,7 @@
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5244,7 +5244,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5330,10 +5330,10 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
         <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5852,7 +5852,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6260182</v>
+        <v>6260185</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5864,76 +5864,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="N61">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5941,7 +5941,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6260185</v>
+        <v>6260182</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5953,76 +5953,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L62">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N62">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6564,7 +6564,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6260191</v>
+        <v>6260192</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6576,76 +6576,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6665,7 +6665,7 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6742,7 +6742,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6260192</v>
+        <v>6260191</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6754,76 +6754,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
         <v>3.2</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N71">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P71">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
         <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
+        <v>1.825</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>1.875</v>
       </c>
-      <c r="W71">
-        <v>0.833</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7113,7 +7113,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7187,7 +7187,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6260197</v>
+        <v>6260198</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7199,76 +7199,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6260196</v>
+        <v>6260197</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K77">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="N77">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q77">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="W77">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6260198</v>
+        <v>6260196</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,49 +7377,49 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>41</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M78">
+        <v>9.5</v>
+      </c>
+      <c r="N78">
+        <v>1.25</v>
+      </c>
+      <c r="O78">
+        <v>5</v>
+      </c>
+      <c r="P78">
+        <v>9</v>
+      </c>
+      <c r="Q78">
+        <v>-1.75</v>
+      </c>
+      <c r="R78">
+        <v>1.875</v>
+      </c>
+      <c r="S78">
+        <v>1.925</v>
+      </c>
+      <c r="T78">
         <v>3</v>
-      </c>
-      <c r="N78">
-        <v>1.363</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78">
-        <v>7.5</v>
-      </c>
-      <c r="Q78">
-        <v>-1.25</v>
-      </c>
-      <c r="R78">
-        <v>1.8</v>
-      </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
       </c>
       <c r="U78">
         <v>1.825</v>
@@ -7428,7 +7428,7 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7437,16 +7437,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7454,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6260201</v>
+        <v>6260203</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,13 +7466,13 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7481,43 +7481,43 @@
         <v>41</v>
       </c>
       <c r="K79">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>1.615</v>
+      </c>
+      <c r="O79">
+        <v>3.5</v>
+      </c>
+      <c r="P79">
         <v>4.5</v>
       </c>
-      <c r="N79">
-        <v>1.285</v>
-      </c>
-      <c r="O79">
-        <v>4.75</v>
-      </c>
-      <c r="P79">
-        <v>8.5</v>
-      </c>
       <c r="Q79">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7526,13 +7526,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7543,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6260202</v>
+        <v>6260201</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7555,76 +7555,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P80">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7632,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6260203</v>
+        <v>6260202</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,64 +7644,64 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N81">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>-0</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7733,7 +7733,7 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8003,7 +8003,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8267,7 +8267,7 @@
         <v>45130.625</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8445,7 +8445,7 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8626,7 +8626,7 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8801,10 +8801,10 @@
         <v>45143.625</v>
       </c>
       <c r="F94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" t="s">
         <v>34</v>
-      </c>
-      <c r="G94" t="s">
-        <v>35</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9246,49 +9246,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N99">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U99">
         <v>1.85</v>
@@ -9297,25 +9297,25 @@
         <v>1.95</v>
       </c>
       <c r="W99">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,49 +9335,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
         <v>1.85</v>
@@ -9386,25 +9386,25 @@
         <v>1.95</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9412,7 +9412,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815305</v>
+        <v>6815422</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9424,76 +9424,76 @@
         <v>45151.625</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N101">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9501,7 +9501,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6815422</v>
+        <v>6815305</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,76 +9513,76 @@
         <v>45151.625</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>7</v>
+      </c>
+      <c r="N102">
+        <v>1.571</v>
+      </c>
+      <c r="O102">
+        <v>4</v>
+      </c>
+      <c r="P102">
+        <v>4.2</v>
+      </c>
+      <c r="Q102">
+        <v>-0.75</v>
+      </c>
+      <c r="R102">
+        <v>1.75</v>
+      </c>
+      <c r="S102">
+        <v>1.95</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
+        <v>1.85</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>3</v>
       </c>
-      <c r="M102">
-        <v>2.75</v>
-      </c>
-      <c r="N102">
-        <v>3.1</v>
-      </c>
-      <c r="O102">
-        <v>3</v>
-      </c>
-      <c r="P102">
-        <v>2.15</v>
-      </c>
-      <c r="Q102">
-        <v>0.25</v>
-      </c>
-      <c r="R102">
-        <v>1.875</v>
-      </c>
-      <c r="S102">
-        <v>1.925</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>2.025</v>
-      </c>
-      <c r="V102">
-        <v>1.775</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
       <c r="Y102">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>45151.625</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -9694,7 +9694,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10047,7 +10047,7 @@
         <v>45158.625</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,7 +10139,7 @@
         <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10302,7 +10302,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10314,76 +10314,76 @@
         <v>45164.625</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K111">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L111">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N111">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O111">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P111">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10480,7 +10480,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10492,76 +10492,76 @@
         <v>45164.625</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>38</v>
@@ -10848,7 +10848,7 @@
         <v>45172.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11029,7 +11029,7 @@
         <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11649,7 +11649,7 @@
         <v>45192.5</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11738,7 +11738,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>39</v>
@@ -12005,7 +12005,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12097,7 +12097,7 @@
         <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12364,7 +12364,7 @@
         <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12438,7 +12438,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12450,76 +12450,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
         <v>1.8</v>
       </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6815426</v>
+        <v>7279987</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N136">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O136">
         <v>3</v>
       </c>
       <c r="P136">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12616,7 +12616,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6815334</v>
+        <v>6815426</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12628,76 +12628,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K137">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12895,10 +12895,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F140" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" t="s">
         <v>35</v>
-      </c>
-      <c r="G140" t="s">
-        <v>34</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12972,7 +12972,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,73 +12984,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K141">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
+        <v>2.875</v>
+      </c>
+      <c r="M141">
+        <v>2.6</v>
+      </c>
+      <c r="N141">
         <v>3.1</v>
       </c>
-      <c r="M141">
-        <v>4</v>
-      </c>
-      <c r="N141">
-        <v>1.833</v>
-      </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W141">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13061,7 +13061,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13073,73 +13073,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K142">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L142">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N142">
+        <v>1.833</v>
+      </c>
+      <c r="O142">
         <v>3.1</v>
       </c>
-      <c r="O142">
-        <v>2.9</v>
-      </c>
       <c r="P142">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V142">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13432,7 +13432,7 @@
         <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13518,7 +13518,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>38</v>
@@ -13607,7 +13607,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>30</v>
@@ -13699,7 +13699,7 @@
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>45234.5</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
         <v>39</v>
@@ -14040,7 +14040,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14052,76 +14052,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K153">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
+        <v>1.666</v>
+      </c>
+      <c r="N153">
+        <v>5.25</v>
+      </c>
+      <c r="O153">
+        <v>3.8</v>
+      </c>
+      <c r="P153">
+        <v>1.5</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>1.95</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
         <v>1.8</v>
       </c>
-      <c r="N153">
-        <v>3.8</v>
-      </c>
-      <c r="O153">
-        <v>3.25</v>
-      </c>
-      <c r="P153">
-        <v>1.8</v>
-      </c>
-      <c r="Q153">
-        <v>0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.95</v>
-      </c>
-      <c r="S153">
-        <v>1.85</v>
-      </c>
-      <c r="T153">
-        <v>2.25</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14129,7 +14129,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14141,76 +14141,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K154">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N154">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O154">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
         <v>1.85</v>
       </c>
-      <c r="S154">
-        <v>1.95</v>
-      </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
         <v>1.8</v>
       </c>
-      <c r="V154">
-        <v>2</v>
-      </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14230,7 +14230,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14396,7 +14396,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14408,76 +14408,76 @@
         <v>45241.5</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K157">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N157">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q157">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R157">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC157">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14574,7 +14574,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14586,76 +14586,76 @@
         <v>45241.5</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N159">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15120,7 +15120,7 @@
         <v>45257.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>29</v>
@@ -15209,7 +15209,7 @@
         <v>45258.375</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>33</v>
@@ -15286,7 +15286,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15298,55 +15298,55 @@
         <v>45262.375</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>40</v>
       </c>
       <c r="K167">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L167">
+        <v>3.5</v>
+      </c>
+      <c r="M167">
+        <v>1.615</v>
+      </c>
+      <c r="N167">
+        <v>5</v>
+      </c>
+      <c r="O167">
         <v>3.6</v>
       </c>
-      <c r="M167">
-        <v>5</v>
-      </c>
-      <c r="N167">
-        <v>1.363</v>
-      </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
       <c r="P167">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q167">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S167">
         <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15355,19 +15355,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15387,55 +15387,55 @@
         <v>45262.375</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>40</v>
       </c>
       <c r="K168">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N168">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q168">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R168">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
         <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -15444,19 +15444,19 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15479,7 +15479,7 @@
         <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15657,7 +15657,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15835,7 +15835,7 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -16099,7 +16099,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>32</v>
@@ -16191,7 +16191,7 @@
         <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>3</v>
@@ -16277,7 +16277,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
         <v>29</v>
@@ -16614,6 +16614,228 @@
       </c>
       <c r="AC181">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>6815378</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45346.41666666666</v>
+      </c>
+      <c r="F182" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182" t="s">
+        <v>38</v>
+      </c>
+      <c r="K182">
+        <v>10</v>
+      </c>
+      <c r="L182">
+        <v>5.5</v>
+      </c>
+      <c r="M182">
+        <v>1.2</v>
+      </c>
+      <c r="N182">
+        <v>11</v>
+      </c>
+      <c r="O182">
+        <v>5.5</v>
+      </c>
+      <c r="P182">
+        <v>1.2</v>
+      </c>
+      <c r="Q182">
+        <v>1.75</v>
+      </c>
+      <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.9</v>
+      </c>
+      <c r="V182">
+        <v>1.9</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>6815433</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45346.41666666666</v>
+      </c>
+      <c r="F183" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" t="s">
+        <v>37</v>
+      </c>
+      <c r="K183">
+        <v>2.5</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>2.6</v>
+      </c>
+      <c r="N183">
+        <v>2.5</v>
+      </c>
+      <c r="O183">
+        <v>3</v>
+      </c>
+      <c r="P183">
+        <v>2.6</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>2</v>
+      </c>
+      <c r="U183">
+        <v>1.975</v>
+      </c>
+      <c r="V183">
+        <v>1.825</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>6815380</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F184" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" t="s">
+        <v>30</v>
+      </c>
+      <c r="K184">
+        <v>1.5</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>5</v>
+      </c>
+      <c r="N184">
+        <v>1.5</v>
+      </c>
+      <c r="O184">
+        <v>4</v>
+      </c>
+      <c r="P184">
+        <v>5.25</v>
+      </c>
+      <c r="Q184">
+        <v>-1</v>
+      </c>
+      <c r="R184">
+        <v>1.85</v>
+      </c>
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>1.95</v>
+      </c>
+      <c r="V184">
+        <v>1.85</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC184"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6260144</v>
+        <v>6260145</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2215,76 +2215,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2292,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6260145</v>
+        <v>6260144</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2304,76 +2304,76 @@
         <v>44993.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6260142</v>
+        <v>6260141</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2482,46 +2482,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
+        <v>4.2</v>
+      </c>
+      <c r="N23">
+        <v>1.7</v>
+      </c>
+      <c r="O23">
+        <v>3.4</v>
+      </c>
+      <c r="P23">
         <v>4.75</v>
       </c>
-      <c r="N23">
-        <v>1.5</v>
-      </c>
-      <c r="O23">
-        <v>3.75</v>
-      </c>
-      <c r="P23">
-        <v>5.5</v>
-      </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2536,22 +2536,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2559,7 +2559,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6260141</v>
+        <v>6260142</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2571,46 +2571,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N24">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2625,22 +2625,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6260149</v>
+        <v>6260148</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,76 +2838,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
+        <v>1.725</v>
+      </c>
+      <c r="S27">
         <v>1.975</v>
       </c>
-      <c r="S27">
-        <v>1.825</v>
-      </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2915,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6260148</v>
+        <v>6260149</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2927,76 +2927,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.825</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
         <v>1.725</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.975</v>
       </c>
-      <c r="T28">
-        <v>2.25</v>
-      </c>
-      <c r="U28">
-        <v>1.925</v>
-      </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
       <c r="W28">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -7098,7 +7098,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6260199</v>
+        <v>6260198</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7110,37 +7110,37 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75">
+        <v>2.2</v>
+      </c>
+      <c r="L75">
+        <v>3.1</v>
+      </c>
+      <c r="M75">
         <v>3</v>
       </c>
-      <c r="J75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K75">
-        <v>1.444</v>
-      </c>
-      <c r="L75">
+      <c r="N75">
+        <v>1.363</v>
+      </c>
+      <c r="O75">
         <v>4</v>
       </c>
-      <c r="M75">
-        <v>6</v>
-      </c>
-      <c r="N75">
-        <v>1.333</v>
-      </c>
-      <c r="O75">
-        <v>4.5</v>
-      </c>
       <c r="P75">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q75">
         <v>-1.25</v>
@@ -7161,25 +7161,25 @@
         <v>1.975</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7187,7 +7187,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6260198</v>
+        <v>6260197</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7199,76 +7199,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
         <v>1.8</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="W76">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
         <v>0.8</v>
       </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6260197</v>
+        <v>6260196</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>9.5</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6260196</v>
+        <v>6260199</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,49 +7377,49 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K78">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q78">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
         <v>1.825</v>
@@ -7428,25 +7428,25 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7454,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6260203</v>
+        <v>6260201</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,13 +7466,13 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7481,43 +7481,43 @@
         <v>41</v>
       </c>
       <c r="K79">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N79">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7526,13 +7526,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7543,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6260201</v>
+        <v>6260203</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7555,13 +7555,13 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7570,43 +7570,43 @@
         <v>41</v>
       </c>
       <c r="K80">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>1.615</v>
+      </c>
+      <c r="O80">
+        <v>3.5</v>
+      </c>
+      <c r="P80">
         <v>4.5</v>
       </c>
-      <c r="N80">
-        <v>1.285</v>
-      </c>
-      <c r="O80">
-        <v>4.75</v>
-      </c>
-      <c r="P80">
-        <v>8.5</v>
-      </c>
       <c r="Q80">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7615,13 +7615,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7632,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6260202</v>
+        <v>6260205</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,10 +7644,10 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,40 +7659,40 @@
         <v>40</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M81">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7701,19 +7701,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6260204</v>
+        <v>6260202</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,55 +7733,55 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>40</v>
       </c>
       <c r="K82">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L82">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>3.7</v>
+        <v>1.833</v>
       </c>
       <c r="N82">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7790,19 +7790,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6260205</v>
+        <v>6260204</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,76 +7822,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
         <v>40</v>
       </c>
       <c r="K83">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>1.444</v>
+        <v>3.7</v>
       </c>
       <c r="N83">
+        <v>1.25</v>
+      </c>
+      <c r="O83">
+        <v>5.75</v>
+      </c>
+      <c r="P83">
+        <v>8.5</v>
+      </c>
+      <c r="Q83">
+        <v>-2</v>
+      </c>
+      <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>3.75</v>
+      </c>
+      <c r="U83">
+        <v>1.8</v>
+      </c>
+      <c r="V83">
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
         <v>7.5</v>
       </c>
-      <c r="O83">
-        <v>4.333</v>
-      </c>
-      <c r="P83">
-        <v>1.333</v>
-      </c>
-      <c r="Q83">
-        <v>1.25</v>
-      </c>
-      <c r="R83">
-        <v>1.925</v>
-      </c>
-      <c r="S83">
-        <v>1.875</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.9</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>0.333</v>
-      </c>
       <c r="Z83">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -9234,7 +9234,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9246,49 +9246,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
         <v>1.85</v>
@@ -9297,25 +9297,25 @@
         <v>1.95</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9323,7 +9323,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9335,49 +9335,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
         <v>1.85</v>
@@ -9386,25 +9386,25 @@
         <v>1.95</v>
       </c>
       <c r="W100">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -12438,7 +12438,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12450,76 +12450,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y135">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12527,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12539,76 +12539,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
         <v>1.8</v>
       </c>
-      <c r="S136">
-        <v>2</v>
-      </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -16621,7 +16621,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6815378</v>
+        <v>6815377</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16630,49 +16630,49 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45346.41666666666</v>
+        <v>45347.5625</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K182">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="L182">
+        <v>3.4</v>
+      </c>
+      <c r="M182">
         <v>5.5</v>
       </c>
-      <c r="M182">
-        <v>1.2</v>
-      </c>
       <c r="N182">
-        <v>11</v>
+        <v>1.615</v>
       </c>
       <c r="O182">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P182">
-        <v>1.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q182">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16687,154 +16687,6 @@
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>6815433</v>
-      </c>
-      <c r="C183" t="s">
-        <v>28</v>
-      </c>
-      <c r="D183" t="s">
-        <v>28</v>
-      </c>
-      <c r="E183" s="2">
-        <v>45346.41666666666</v>
-      </c>
-      <c r="F183" t="s">
-        <v>39</v>
-      </c>
-      <c r="G183" t="s">
-        <v>37</v>
-      </c>
-      <c r="K183">
-        <v>2.5</v>
-      </c>
-      <c r="L183">
-        <v>3</v>
-      </c>
-      <c r="M183">
-        <v>2.6</v>
-      </c>
-      <c r="N183">
-        <v>2.5</v>
-      </c>
-      <c r="O183">
-        <v>3</v>
-      </c>
-      <c r="P183">
-        <v>2.6</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
-      </c>
-      <c r="R183">
-        <v>1.85</v>
-      </c>
-      <c r="S183">
-        <v>1.95</v>
-      </c>
-      <c r="T183">
-        <v>2</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
-      <c r="V183">
-        <v>1.825</v>
-      </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-      <c r="X183">
-        <v>0</v>
-      </c>
-      <c r="Y183">
-        <v>0</v>
-      </c>
-      <c r="Z183">
-        <v>0</v>
-      </c>
-      <c r="AA183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>6815380</v>
-      </c>
-      <c r="C184" t="s">
-        <v>28</v>
-      </c>
-      <c r="D184" t="s">
-        <v>28</v>
-      </c>
-      <c r="E184" s="2">
-        <v>45346.45833333334</v>
-      </c>
-      <c r="F184" t="s">
-        <v>32</v>
-      </c>
-      <c r="G184" t="s">
-        <v>30</v>
-      </c>
-      <c r="K184">
-        <v>1.5</v>
-      </c>
-      <c r="L184">
-        <v>4</v>
-      </c>
-      <c r="M184">
-        <v>5</v>
-      </c>
-      <c r="N184">
-        <v>1.5</v>
-      </c>
-      <c r="O184">
-        <v>4</v>
-      </c>
-      <c r="P184">
-        <v>5.25</v>
-      </c>
-      <c r="Q184">
-        <v>-1</v>
-      </c>
-      <c r="R184">
-        <v>1.85</v>
-      </c>
-      <c r="S184">
-        <v>1.95</v>
-      </c>
-      <c r="T184">
-        <v>2.25</v>
-      </c>
-      <c r="U184">
-        <v>1.95</v>
-      </c>
-      <c r="V184">
-        <v>1.85</v>
-      </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-      <c r="X184">
-        <v>0</v>
-      </c>
-      <c r="Y184">
-        <v>0</v>
-      </c>
-      <c r="Z184">
-        <v>0</v>
-      </c>
-      <c r="AA184">
         <v>0</v>
       </c>
     </row>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6260141</v>
+        <v>6260142</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2482,46 +2482,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2536,22 +2536,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y23">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2559,7 +2559,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6260142</v>
+        <v>6260141</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2571,46 +2571,46 @@
         <v>44993.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
+        <v>4.2</v>
+      </c>
+      <c r="N24">
+        <v>1.7</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
         <v>4.75</v>
       </c>
-      <c r="N24">
-        <v>1.5</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
-      <c r="P24">
-        <v>5.5</v>
-      </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2625,22 +2625,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6260148</v>
+        <v>6260149</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2838,76 +2838,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
         <v>3.3</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
         <v>1.725</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="T27">
-        <v>2.25</v>
-      </c>
-      <c r="U27">
-        <v>1.925</v>
-      </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2915,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6260149</v>
+        <v>6260148</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2927,76 +2927,76 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
         <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>1.725</v>
+      </c>
+      <c r="S28">
         <v>1.975</v>
       </c>
-      <c r="S28">
-        <v>1.825</v>
-      </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X28">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3182,7 +3182,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6410905</v>
+        <v>6260152</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3194,55 +3194,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
         <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S31">
         <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3251,19 +3251,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3271,7 +3271,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6260152</v>
+        <v>6410905</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3283,55 +3283,55 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L32">
         <v>3.4</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
         <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3340,19 +3340,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3538,7 +3538,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6260157</v>
+        <v>6260159</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3550,76 +3550,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P35">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W35">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3627,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6260159</v>
+        <v>6260157</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3639,76 +3639,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="O36">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4428,7 +4428,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6260169</v>
+        <v>6260167</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4440,76 +4440,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M45">
+        <v>2.4</v>
+      </c>
+      <c r="N45">
+        <v>2.8</v>
+      </c>
+      <c r="O45">
+        <v>2.875</v>
+      </c>
+      <c r="P45">
+        <v>2.45</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
+        <v>1.75</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
         <v>1.8</v>
       </c>
-      <c r="N45">
-        <v>4</v>
-      </c>
-      <c r="O45">
-        <v>3.25</v>
-      </c>
-      <c r="P45">
-        <v>1.8</v>
-      </c>
-      <c r="Q45">
-        <v>0.5</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>1.775</v>
-      </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4517,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6260167</v>
+        <v>6260169</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4529,76 +4529,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5318,7 +5318,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6542673</v>
+        <v>6495880</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,76 +5330,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
         <v>1.825</v>
       </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5407,7 +5407,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6495880</v>
+        <v>6542673</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,76 +5419,76 @@
         <v>45035.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>1.615</v>
+        <v>8.5</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
+        <v>1.825</v>
+      </c>
+      <c r="S56">
         <v>1.975</v>
       </c>
-      <c r="S56">
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
+        <v>1.975</v>
+      </c>
+      <c r="V56">
         <v>1.825</v>
       </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
-      <c r="V56">
-        <v>1.8</v>
-      </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X56">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>-0.5</v>
+      </c>
+      <c r="AA56">
+        <v>0.4875</v>
+      </c>
+      <c r="AB56">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
       <c r="AC56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5852,7 +5852,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6260185</v>
+        <v>6260182</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5864,76 +5864,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5941,7 +5941,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6260182</v>
+        <v>6260183</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5953,73 +5953,73 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z62">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6030,7 +6030,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6260183</v>
+        <v>6260185</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6042,76 +6042,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y63">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6564,7 +6564,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6260192</v>
+        <v>6260195</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6576,58 +6576,58 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N69">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
         <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>0.833</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6636,16 +6636,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
         <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6742,7 +6742,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6260191</v>
+        <v>6260194</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6754,76 +6754,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M71">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N71">
         <v>2.4</v>
       </c>
       <c r="O71">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P71">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y71">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6831,7 +6831,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6260194</v>
+        <v>6260191</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,76 +6843,76 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
         <v>2.4</v>
       </c>
       <c r="O72">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P72">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6920,7 +6920,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6260195</v>
+        <v>6260192</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,58 +6932,58 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
       </c>
       <c r="K73">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="L73">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q73">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6992,16 +6992,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7009,7 +7009,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6260200</v>
+        <v>6260197</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7021,76 +7021,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K74">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
         <v>2.3</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
         <v>3.25</v>
       </c>
       <c r="P74">
+        <v>4.2</v>
+      </c>
+      <c r="Q74">
+        <v>-0.75</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
         <v>1.8</v>
       </c>
-      <c r="Q74">
-        <v>0.5</v>
-      </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>1.85</v>
-      </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC74">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7098,7 +7098,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6260198</v>
+        <v>6260196</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7110,49 +7110,49 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>41</v>
       </c>
       <c r="K75">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M75">
+        <v>9.5</v>
+      </c>
+      <c r="N75">
+        <v>1.25</v>
+      </c>
+      <c r="O75">
+        <v>5</v>
+      </c>
+      <c r="P75">
+        <v>9</v>
+      </c>
+      <c r="Q75">
+        <v>-1.75</v>
+      </c>
+      <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
         <v>3</v>
-      </c>
-      <c r="N75">
-        <v>1.363</v>
-      </c>
-      <c r="O75">
-        <v>4</v>
-      </c>
-      <c r="P75">
-        <v>7.5</v>
-      </c>
-      <c r="Q75">
-        <v>-1.25</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
       </c>
       <c r="U75">
         <v>1.825</v>
@@ -7161,7 +7161,7 @@
         <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7170,16 +7170,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7187,7 +7187,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6260197</v>
+        <v>6260199</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7199,55 +7199,55 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>40</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7256,16 +7256,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7276,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6260196</v>
+        <v>6260200</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7288,76 +7288,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="N77">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="Q77">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7365,7 +7365,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6260199</v>
+        <v>6260198</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,37 +7377,37 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78">
+        <v>2.2</v>
+      </c>
+      <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="J78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K78">
-        <v>1.444</v>
-      </c>
-      <c r="L78">
+      <c r="N78">
+        <v>1.363</v>
+      </c>
+      <c r="O78">
         <v>4</v>
       </c>
-      <c r="M78">
-        <v>6</v>
-      </c>
-      <c r="N78">
-        <v>1.333</v>
-      </c>
-      <c r="O78">
-        <v>4.5</v>
-      </c>
       <c r="P78">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q78">
         <v>-1.25</v>
@@ -7428,25 +7428,25 @@
         <v>1.975</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7454,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6260201</v>
+        <v>6260204</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,73 +7466,73 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
         <v>4</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K79">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="N79">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P79">
         <v>8.5</v>
       </c>
       <c r="Q79">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7632,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6260205</v>
+        <v>6260202</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,10 +7644,10 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,40 +7659,40 @@
         <v>40</v>
       </c>
       <c r="K81">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="N81">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="O81">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="Q81">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7701,19 +7701,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="Z81">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7721,7 +7721,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6260202</v>
+        <v>6260201</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7733,76 +7733,76 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7810,7 +7810,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6260204</v>
+        <v>6260205</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,55 +7822,55 @@
         <v>45071.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>40</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>3.7</v>
+        <v>1.444</v>
       </c>
       <c r="N83">
+        <v>7.5</v>
+      </c>
+      <c r="O83">
+        <v>4.333</v>
+      </c>
+      <c r="P83">
+        <v>1.333</v>
+      </c>
+      <c r="Q83">
         <v>1.25</v>
       </c>
-      <c r="O83">
-        <v>5.75</v>
-      </c>
-      <c r="P83">
-        <v>8.5</v>
-      </c>
-      <c r="Q83">
-        <v>-2</v>
-      </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7879,19 +7879,19 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>7.5</v>
+        <v>0.333</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA83">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7988,7 +7988,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8000,76 +8000,76 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N85">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8077,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8089,76 +8089,76 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L86">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O86">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0.4</v>
+      </c>
+      <c r="AA86">
         <v>-0.5</v>
       </c>
-      <c r="AA86">
-        <v>0.45</v>
-      </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8967,7 +8967,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8979,46 +8979,46 @@
         <v>45144.625</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K96">
+        <v>1.533</v>
+      </c>
+      <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>5.75</v>
+      </c>
+      <c r="N96">
+        <v>1.533</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>5.75</v>
+      </c>
+      <c r="Q96">
+        <v>-1</v>
+      </c>
+      <c r="R96">
         <v>1.95</v>
       </c>
-      <c r="L96">
-        <v>3.3</v>
-      </c>
-      <c r="M96">
-        <v>3.4</v>
-      </c>
-      <c r="N96">
-        <v>1.909</v>
-      </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
-      <c r="P96">
-        <v>3.5</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.975</v>
-      </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.25</v>
@@ -9033,16 +9033,16 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
         <v>0.925</v>
@@ -9056,7 +9056,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9068,46 +9068,46 @@
         <v>45144.625</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K97">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N97">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.25</v>
@@ -9122,16 +9122,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
         <v>0.925</v>
@@ -10302,7 +10302,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10314,34 +10314,34 @@
         <v>45164.625</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N111">
         <v>1.4</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P111">
         <v>6.5</v>
@@ -10350,40 +10350,40 @@
         <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10391,7 +10391,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10403,34 +10403,34 @@
         <v>45164.625</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K112">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N112">
         <v>1.4</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
         <v>6.5</v>
@@ -10439,40 +10439,40 @@
         <v>-1.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10569,7 +10569,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10581,61 +10581,61 @@
         <v>45172.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>42</v>
       </c>
       <c r="K114">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L114">
         <v>3</v>
       </c>
       <c r="M114">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O114">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P114">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -10647,10 +10647,10 @@
         <v>-0</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10658,7 +10658,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10670,61 +10670,61 @@
         <v>45172.5</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
       </c>
       <c r="K115">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N115">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
@@ -10736,10 +10736,10 @@
         <v>-0</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11459,7 +11459,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11471,76 +11471,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11548,7 +11548,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11560,76 +11560,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K125">
+        <v>1.3</v>
+      </c>
+      <c r="L125">
+        <v>4.333</v>
+      </c>
+      <c r="M125">
+        <v>9</v>
+      </c>
+      <c r="N125">
+        <v>1.363</v>
+      </c>
+      <c r="O125">
+        <v>4.333</v>
+      </c>
+      <c r="P125">
+        <v>7.5</v>
+      </c>
+      <c r="Q125">
+        <v>-1.5</v>
+      </c>
+      <c r="R125">
+        <v>1.95</v>
+      </c>
+      <c r="S125">
+        <v>1.85</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="L125">
-        <v>3</v>
-      </c>
-      <c r="M125">
-        <v>2.25</v>
-      </c>
-      <c r="N125">
-        <v>3.25</v>
-      </c>
-      <c r="O125">
-        <v>3</v>
-      </c>
-      <c r="P125">
-        <v>2.1</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
       <c r="U125">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -13328,7 +13328,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7366684</v>
+        <v>6815343</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13340,13 +13340,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13355,43 +13355,43 @@
         <v>41</v>
       </c>
       <c r="K145">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L145">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O145">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R145">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>1.625</v>
+        <v>0.333</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13400,7 +13400,7 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
         <v>-1</v>
@@ -13409,7 +13409,7 @@
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13417,7 +13417,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,13 +13429,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -13444,43 +13444,43 @@
         <v>41</v>
       </c>
       <c r="K146">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L146">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M146">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N146">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P146">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q146">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13489,7 +13489,7 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13498,7 +13498,7 @@
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -14040,7 +14040,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14052,76 +14052,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K153">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N153">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
         <v>1.85</v>
       </c>
-      <c r="S153">
-        <v>1.95</v>
-      </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.8</v>
       </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14129,7 +14129,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14141,76 +14141,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K154">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
+        <v>1.666</v>
+      </c>
+      <c r="N154">
+        <v>5.25</v>
+      </c>
+      <c r="O154">
+        <v>3.8</v>
+      </c>
+      <c r="P154">
+        <v>1.5</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
         <v>1.8</v>
       </c>
-      <c r="N154">
-        <v>3.8</v>
-      </c>
-      <c r="O154">
-        <v>3.25</v>
-      </c>
-      <c r="P154">
-        <v>1.8</v>
-      </c>
-      <c r="Q154">
-        <v>0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.95</v>
-      </c>
-      <c r="S154">
-        <v>1.85</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14930,7 +14930,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14942,61 +14942,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K163">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N163">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O163">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X163">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15005,13 +15005,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15019,7 +15019,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15031,61 +15031,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>42</v>
+      </c>
+      <c r="K164">
+        <v>2.2</v>
+      </c>
+      <c r="L164">
         <v>3</v>
       </c>
-      <c r="J164" t="s">
-        <v>41</v>
-      </c>
-      <c r="K164">
-        <v>1.444</v>
-      </c>
-      <c r="L164">
-        <v>3.75</v>
-      </c>
       <c r="M164">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N164">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P164">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q164">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>1.75</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>1.8</v>
+      </c>
+      <c r="V164">
+        <v>2</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
         <v>1.875</v>
-      </c>
-      <c r="S164">
-        <v>1.925</v>
-      </c>
-      <c r="T164">
-        <v>2.5</v>
-      </c>
-      <c r="U164">
-        <v>1.775</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
-      <c r="W164">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15094,13 +15094,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB164">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -16621,7 +16621,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6815377</v>
+        <v>6815433</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16630,43 +16630,52 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45347.5625</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182" t="s">
+        <v>40</v>
       </c>
       <c r="K182">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N182">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O182">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P182">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U182">
         <v>1.975</v>
@@ -16675,18 +16684,365 @@
         <v>1.825</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
+        <v>0.95</v>
+      </c>
+      <c r="AB182">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC182">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>6815378</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45346.41666666666</v>
+      </c>
+      <c r="F183" t="s">
+        <v>29</v>
+      </c>
+      <c r="G183" t="s">
+        <v>38</v>
+      </c>
+      <c r="H183">
+        <v>3</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>41</v>
+      </c>
+      <c r="K183">
+        <v>10</v>
+      </c>
+      <c r="L183">
+        <v>5.5</v>
+      </c>
+      <c r="M183">
+        <v>1.2</v>
+      </c>
+      <c r="N183">
+        <v>11</v>
+      </c>
+      <c r="O183">
+        <v>4.75</v>
+      </c>
+      <c r="P183">
+        <v>1.222</v>
+      </c>
+      <c r="Q183">
+        <v>1.75</v>
+      </c>
+      <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.825</v>
+      </c>
+      <c r="V183">
+        <v>1.975</v>
+      </c>
+      <c r="W183">
+        <v>10</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
+        <v>0.825</v>
+      </c>
+      <c r="AC183">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>6815379</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F184" t="s">
+        <v>35</v>
+      </c>
+      <c r="G184" t="s">
+        <v>34</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+      <c r="J184" t="s">
+        <v>40</v>
+      </c>
+      <c r="K184">
+        <v>1.909</v>
+      </c>
+      <c r="L184">
+        <v>3.1</v>
+      </c>
+      <c r="M184">
+        <v>3.75</v>
+      </c>
+      <c r="N184">
+        <v>1.85</v>
+      </c>
+      <c r="O184">
+        <v>3.1</v>
+      </c>
+      <c r="P184">
+        <v>3.8</v>
+      </c>
+      <c r="Q184">
+        <v>-0.5</v>
+      </c>
+      <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
+        <v>1.875</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
+        <v>1.95</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>2.8</v>
+      </c>
+      <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.875</v>
+      </c>
+      <c r="AB184">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC184">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>6815380</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F185" t="s">
+        <v>32</v>
+      </c>
+      <c r="G185" t="s">
+        <v>30</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>42</v>
+      </c>
+      <c r="K185">
+        <v>1.5</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>5</v>
+      </c>
+      <c r="N185">
+        <v>1.6</v>
+      </c>
+      <c r="O185">
+        <v>4</v>
+      </c>
+      <c r="P185">
+        <v>4.333</v>
+      </c>
+      <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
+        <v>1.775</v>
+      </c>
+      <c r="S185">
+        <v>2.025</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>1.95</v>
+      </c>
+      <c r="V185">
+        <v>1.85</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>3</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>1.025</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>6815377</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45347.5625</v>
+      </c>
+      <c r="F186" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
+        <v>33</v>
+      </c>
+      <c r="K186">
+        <v>1.6</v>
+      </c>
+      <c r="L186">
+        <v>3.4</v>
+      </c>
+      <c r="M186">
+        <v>5.5</v>
+      </c>
+      <c r="N186">
+        <v>1.615</v>
+      </c>
+      <c r="O186">
+        <v>3.4</v>
+      </c>
+      <c r="P186">
+        <v>5.25</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.825</v>
+      </c>
+      <c r="S186">
+        <v>1.975</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
+        <v>1.825</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
         <v>0</v>
       </c>
     </row>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L4">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.4</v>
+      </c>
+      <c r="AA4">
         <v>-0.5</v>
       </c>
-      <c r="AA4">
-        <v>0.45</v>
-      </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1678,10 +1678,10 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>2.75</v>
+      </c>
+      <c r="N17">
+        <v>2.4</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>2.75</v>
+      </c>
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>2.1</v>
-      </c>
-      <c r="L17">
-        <v>3.1</v>
-      </c>
-      <c r="M17">
-        <v>3.2</v>
-      </c>
-      <c r="N17">
-        <v>1.615</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17">
-        <v>-0.75</v>
-      </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2304,7 +2304,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>1.7</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>0.875</v>
+      </c>
+      <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>-0.5</v>
       </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
-      <c r="W25">
-        <v>0.8</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.825</v>
-      </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
-      <c r="AB25">
-        <v>0.825</v>
-      </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,58 +2746,58 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2806,16 +2806,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815312</v>
+        <v>6815311</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,58 +3013,58 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>39</v>
       </c>
       <c r="K29">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
       <c r="N29">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3073,16 +3073,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,34 +3102,34 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1.4</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>6.5</v>
@@ -3138,40 +3138,40 @@
         <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,76 +3191,76 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O31">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,61 +3280,61 @@
         <v>45172.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,61 +3369,61 @@
         <v>45172.5</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
       </c>
       <c r="K33">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3435,10 +3435,10 @@
         <v>-0</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N42">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K43">
+        <v>1.3</v>
+      </c>
+      <c r="L43">
+        <v>4.333</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>1.363</v>
+      </c>
+      <c r="O43">
+        <v>4.333</v>
+      </c>
+      <c r="P43">
+        <v>7.5</v>
+      </c>
+      <c r="Q43">
+        <v>-1.5</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>1.85</v>
+      </c>
+      <c r="T43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>2.25</v>
-      </c>
-      <c r="N43">
-        <v>3.25</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>2.1</v>
-      </c>
-      <c r="Q43">
-        <v>0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.925</v>
-      </c>
-      <c r="S43">
-        <v>1.875</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
       <c r="U43">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6815331</v>
+        <v>6815333</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,76 +4704,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6815333</v>
+        <v>6815331</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,76 +4793,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O49">
         <v>3.6</v>
       </c>
       <c r="P49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
+        <v>1.95</v>
+      </c>
+      <c r="V49">
         <v>1.85</v>
       </c>
-      <c r="V49">
-        <v>1.95</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53">
+        <v>2.1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3.25</v>
+      </c>
+      <c r="N53">
+        <v>2.05</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3.4</v>
+      </c>
+      <c r="Q53">
+        <v>-0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.8</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
+        <v>1.875</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>2</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
+        <v>-0.5</v>
+      </c>
+      <c r="AA53">
+        <v>0.5</v>
+      </c>
+      <c r="AB53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>41</v>
-      </c>
-      <c r="K53">
-        <v>1.444</v>
-      </c>
-      <c r="L53">
-        <v>4</v>
-      </c>
-      <c r="M53">
-        <v>6.5</v>
-      </c>
-      <c r="N53">
-        <v>1.444</v>
-      </c>
-      <c r="O53">
-        <v>4</v>
-      </c>
-      <c r="P53">
-        <v>6.5</v>
-      </c>
-      <c r="Q53">
-        <v>-1.25</v>
-      </c>
-      <c r="R53">
-        <v>2</v>
-      </c>
-      <c r="S53">
-        <v>1.8</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53">
-        <v>1.8</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>5.5</v>
-      </c>
-      <c r="Z53">
-        <v>-1</v>
-      </c>
-      <c r="AA53">
-        <v>0.8</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7279987</v>
+        <v>6815426</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O54">
         <v>3</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
+        <v>0.7</v>
+      </c>
+      <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
         <v>-0.5</v>
       </c>
-      <c r="AA54">
-        <v>0.5</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6815426</v>
+        <v>6815334</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N55">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z55">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
+        <v>2.875</v>
+      </c>
+      <c r="M59">
+        <v>2.6</v>
+      </c>
+      <c r="N59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>1.833</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W59">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L60">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N60">
+        <v>1.833</v>
+      </c>
+      <c r="O60">
         <v>3.1</v>
       </c>
-      <c r="O60">
-        <v>2.9</v>
-      </c>
       <c r="P60">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V60">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,13 +6039,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6054,43 +6054,43 @@
         <v>39</v>
       </c>
       <c r="K63">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N63">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P63">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6099,7 +6099,7 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6108,7 +6108,7 @@
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366684</v>
+        <v>6815343</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,13 +6128,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6143,43 +6143,43 @@
         <v>39</v>
       </c>
       <c r="K64">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L64">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M64">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>1.625</v>
+        <v>0.333</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6188,7 +6188,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6197,7 +6197,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6754,7 +6754,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815357</v>
+        <v>6815358</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,10 +7107,10 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7122,61 +7122,61 @@
         <v>40</v>
       </c>
       <c r="K75">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T75">
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
         <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815358</v>
+        <v>6815359</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,61 +7196,61 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
+        <v>1.925</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
         <v>1.8</v>
       </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X76">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7259,13 +7259,13 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45241.5</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,61 +7641,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81">
+        <v>2.2</v>
+      </c>
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81">
-        <v>1.444</v>
-      </c>
-      <c r="L81">
-        <v>3.75</v>
-      </c>
       <c r="M81">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>1.75</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
         <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.775</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
-      <c r="W81">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7704,13 +7704,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB81">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,61 +7730,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X82">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7793,13 +7793,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>36</v>
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
         <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L3">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>0.4</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="AA3">
-        <v>0.45</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1678,10 +1678,10 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>2.4</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2.75</v>
+      </c>
+      <c r="N18">
+        <v>2.4</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>2.75</v>
+      </c>
+      <c r="Q18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>2.1</v>
-      </c>
-      <c r="L18">
-        <v>3.1</v>
-      </c>
-      <c r="M18">
-        <v>3.2</v>
-      </c>
-      <c r="N18">
-        <v>1.615</v>
-      </c>
-      <c r="O18">
-        <v>3.5</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-      <c r="Q18">
-        <v>-0.75</v>
-      </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>40</v>
       </c>
       <c r="K19">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815305</v>
+        <v>6815422</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.925</v>
-      </c>
-      <c r="AB21">
-        <v>-0.5</v>
-      </c>
-      <c r="AC21">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,58 +2657,58 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2717,16 +2717,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
         <v>31</v>
       </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>1.7</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.875</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>-0.5</v>
       </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
-      <c r="W26">
-        <v>0.8</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.825</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>0.825</v>
-      </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,76 +3013,76 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O29">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,76 +3191,76 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
+        <v>2.375</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.75</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>2.4</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>1.8</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>3.75</v>
-      </c>
-      <c r="N38">
-        <v>1.6</v>
-      </c>
-      <c r="O38">
-        <v>3.5</v>
-      </c>
-      <c r="P38">
-        <v>4.75</v>
-      </c>
-      <c r="Q38">
-        <v>-0.75</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1.725</v>
+      </c>
+      <c r="V38">
         <v>1.975</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.75</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K42">
+        <v>1.3</v>
+      </c>
+      <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>1.363</v>
+      </c>
+      <c r="O42">
+        <v>4.333</v>
+      </c>
+      <c r="P42">
+        <v>7.5</v>
+      </c>
+      <c r="Q42">
+        <v>-1.5</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.85</v>
+      </c>
+      <c r="T42">
         <v>3</v>
       </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>2.25</v>
-      </c>
-      <c r="N42">
-        <v>3.25</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
-      <c r="P42">
-        <v>2.1</v>
-      </c>
-      <c r="Q42">
-        <v>0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.925</v>
-      </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6815333</v>
+        <v>6815331</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,76 +4704,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6815331</v>
+        <v>6815333</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,76 +4793,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L49">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M49">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
         <v>3.6</v>
       </c>
       <c r="P49">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
+        <v>1.85</v>
+      </c>
+      <c r="V49">
         <v>1.95</v>
       </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>38</v>
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N59">
+        <v>1.833</v>
+      </c>
+      <c r="O59">
         <v>3.1</v>
       </c>
-      <c r="O59">
-        <v>2.9</v>
-      </c>
       <c r="P59">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L60">
+        <v>2.875</v>
+      </c>
+      <c r="M60">
+        <v>2.6</v>
+      </c>
+      <c r="N60">
         <v>3.1</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W60">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7366683</v>
+        <v>6815343</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L62">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O62">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X62">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M63">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P63">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>1.75</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.925</v>
-      </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,13 +6128,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6143,43 +6143,43 @@
         <v>39</v>
       </c>
       <c r="K64">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N64">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6188,7 +6188,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6197,7 +6197,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,76 +6751,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
+        <v>1.666</v>
+      </c>
+      <c r="N71">
+        <v>5.25</v>
+      </c>
+      <c r="O71">
+        <v>3.8</v>
+      </c>
+      <c r="P71">
+        <v>1.5</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1.85</v>
+      </c>
+      <c r="S71">
+        <v>1.95</v>
+      </c>
+      <c r="T71">
+        <v>2.5</v>
+      </c>
+      <c r="U71">
         <v>1.8</v>
       </c>
-      <c r="N71">
-        <v>3.8</v>
-      </c>
-      <c r="O71">
-        <v>3.25</v>
-      </c>
-      <c r="P71">
-        <v>1.8</v>
-      </c>
-      <c r="Q71">
-        <v>0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.95</v>
-      </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>2</v>
-      </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6840,76 +6840,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N72">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
       </c>
-      <c r="S72">
-        <v>1.95</v>
-      </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815358</v>
+        <v>6815359</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,61 +7107,61 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
         <v>1.8</v>
       </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>1.95</v>
-      </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7170,13 +7170,13 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815359</v>
+        <v>6815358</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,61 +7196,61 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7259,13 +7259,13 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,61 +7641,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N81">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X81">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7704,13 +7704,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,61 +7730,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82">
+        <v>2.2</v>
+      </c>
+      <c r="L82">
         <v>3</v>
       </c>
-      <c r="J82" t="s">
-        <v>39</v>
-      </c>
-      <c r="K82">
-        <v>1.444</v>
-      </c>
-      <c r="L82">
-        <v>3.75</v>
-      </c>
       <c r="M82">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>1.75</v>
+      </c>
+      <c r="T82">
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>1.875</v>
-      </c>
-      <c r="S82">
-        <v>1.925</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.775</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
-      <c r="W82">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7793,13 +7793,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB82">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>36</v>
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>1.975</v>
       </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
         <v>3</v>
       </c>
-      <c r="I101">
+      <c r="M101">
+        <v>2.6</v>
+      </c>
+      <c r="N101">
+        <v>2.5</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>2.6</v>
+      </c>
+      <c r="Q101">
         <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K101">
-        <v>10</v>
-      </c>
-      <c r="L101">
-        <v>5.5</v>
-      </c>
-      <c r="M101">
-        <v>1.2</v>
-      </c>
-      <c r="N101">
-        <v>11</v>
-      </c>
-      <c r="O101">
-        <v>4.75</v>
-      </c>
-      <c r="P101">
-        <v>1.222</v>
-      </c>
-      <c r="Q101">
-        <v>1.75</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
       <c r="W101">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
         <v>31</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9758,6 +9758,451 @@
       </c>
       <c r="AC104">
         <v>0.4125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>6815382</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45350.45833333334</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105">
+        <v>3.75</v>
+      </c>
+      <c r="L105">
+        <v>3.3</v>
+      </c>
+      <c r="M105">
+        <v>1.833</v>
+      </c>
+      <c r="N105">
+        <v>4.75</v>
+      </c>
+      <c r="O105">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <v>1.75</v>
+      </c>
+      <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
+        <v>1.95</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>0.75</v>
+      </c>
+      <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>0.825</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>6815434</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45350.45833333334</v>
+      </c>
+      <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106">
+        <v>4.6</v>
+      </c>
+      <c r="L106">
+        <v>3.6</v>
+      </c>
+      <c r="M106">
+        <v>1.615</v>
+      </c>
+      <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
+        <v>4.75</v>
+      </c>
+      <c r="P106">
+        <v>1.25</v>
+      </c>
+      <c r="Q106">
+        <v>0.75</v>
+      </c>
+      <c r="R106">
+        <v>1.925</v>
+      </c>
+      <c r="S106">
+        <v>1.875</v>
+      </c>
+      <c r="T106">
+        <v>2.25</v>
+      </c>
+      <c r="U106">
+        <v>1.9</v>
+      </c>
+      <c r="V106">
+        <v>1.9</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>0.25</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.875</v>
+      </c>
+      <c r="AB106">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7890508</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45350.5625</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
+        <v>32</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K107">
+        <v>1.75</v>
+      </c>
+      <c r="L107">
+        <v>3.1</v>
+      </c>
+      <c r="M107">
+        <v>4.5</v>
+      </c>
+      <c r="N107">
+        <v>1.8</v>
+      </c>
+      <c r="O107">
+        <v>3.2</v>
+      </c>
+      <c r="P107">
+        <v>4</v>
+      </c>
+      <c r="Q107">
+        <v>-0.5</v>
+      </c>
+      <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
+        <v>1.85</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>2.2</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>0.925</v>
+      </c>
+      <c r="AB107">
+        <v>-0.5</v>
+      </c>
+      <c r="AC107">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7890506</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45350.5625</v>
+      </c>
+      <c r="F108" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>40</v>
+      </c>
+      <c r="K108">
+        <v>1.85</v>
+      </c>
+      <c r="L108">
+        <v>3.1</v>
+      </c>
+      <c r="M108">
+        <v>3.9</v>
+      </c>
+      <c r="N108">
+        <v>1.85</v>
+      </c>
+      <c r="O108">
+        <v>3.3</v>
+      </c>
+      <c r="P108">
+        <v>3.5</v>
+      </c>
+      <c r="Q108">
+        <v>-0.5</v>
+      </c>
+      <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
+        <v>1.875</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
+        <v>1.85</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>2.3</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.875</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7890507</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45350.58333333334</v>
+      </c>
+      <c r="F109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109">
+        <v>1.4</v>
+      </c>
+      <c r="L109">
+        <v>4.5</v>
+      </c>
+      <c r="M109">
+        <v>5.5</v>
+      </c>
+      <c r="N109">
+        <v>1.363</v>
+      </c>
+      <c r="O109">
+        <v>5</v>
+      </c>
+      <c r="P109">
+        <v>6</v>
+      </c>
+      <c r="Q109">
+        <v>-1.25</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
+        <v>1.8</v>
+      </c>
+      <c r="V109">
+        <v>2</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>5</v>
+      </c>
+      <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L4">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.4</v>
+      </c>
+      <c r="AA4">
         <v>-0.5</v>
       </c>
-      <c r="AA4">
-        <v>0.45</v>
-      </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1678,10 +1678,10 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815305</v>
+        <v>6815422</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y20">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.925</v>
-      </c>
-      <c r="AB20">
-        <v>-0.5</v>
-      </c>
-      <c r="AC20">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
       <c r="K21">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>1.7</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>0.875</v>
+      </c>
+      <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>-0.5</v>
       </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
-      <c r="W25">
-        <v>0.8</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.825</v>
-      </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
-      <c r="AB25">
-        <v>0.825</v>
-      </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,58 +2746,58 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2806,16 +2806,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,34 +3013,34 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1.4</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3049,40 +3049,40 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,34 +3102,34 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
         <v>1.4</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
         <v>6.5</v>
@@ -3138,40 +3138,40 @@
         <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N42">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K43">
+        <v>1.3</v>
+      </c>
+      <c r="L43">
+        <v>4.333</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>1.363</v>
+      </c>
+      <c r="O43">
+        <v>4.333</v>
+      </c>
+      <c r="P43">
+        <v>7.5</v>
+      </c>
+      <c r="Q43">
+        <v>-1.5</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>1.85</v>
+      </c>
+      <c r="T43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>2.25</v>
-      </c>
-      <c r="N43">
-        <v>3.25</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>2.1</v>
-      </c>
-      <c r="Q43">
-        <v>0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.925</v>
-      </c>
-      <c r="S43">
-        <v>1.875</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
       <c r="U43">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4707,7 +4707,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
         <v>1.8</v>
       </c>
-      <c r="S53">
-        <v>2</v>
-      </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6815426</v>
+        <v>7279987</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N54">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>3</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6815334</v>
+        <v>6815426</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N55">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
+        <v>2.875</v>
+      </c>
+      <c r="M59">
+        <v>2.6</v>
+      </c>
+      <c r="N59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>1.833</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W59">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L60">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N60">
+        <v>1.833</v>
+      </c>
+      <c r="O60">
         <v>3.1</v>
       </c>
-      <c r="O60">
-        <v>2.9</v>
-      </c>
       <c r="P60">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V60">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366683</v>
+        <v>7366684</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
+        <v>2.875</v>
+      </c>
+      <c r="L63">
+        <v>2.9</v>
+      </c>
+      <c r="M63">
         <v>2.375</v>
       </c>
-      <c r="L63">
-        <v>2.8</v>
-      </c>
-      <c r="M63">
-        <v>3</v>
-      </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O63">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
         <v>1.875</v>
       </c>
-      <c r="V63">
-        <v>1.925</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X63">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.875</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,76 +6128,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K64">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L64">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M64">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P64">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>1.75</v>
+      </c>
+      <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.925</v>
-      </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,76 +6751,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O71">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
         <v>1.85</v>
       </c>
-      <c r="S71">
-        <v>1.95</v>
-      </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.8</v>
       </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6840,76 +6840,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
+        <v>1.666</v>
+      </c>
+      <c r="N72">
+        <v>5.25</v>
+      </c>
+      <c r="O72">
+        <v>3.8</v>
+      </c>
+      <c r="P72">
+        <v>1.5</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>1.95</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
         <v>1.8</v>
       </c>
-      <c r="N72">
-        <v>3.8</v>
-      </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>1.8</v>
-      </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>2</v>
-      </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N75">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7196,7 +7196,7 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>36</v>
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45241.5</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,61 +7641,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81">
+        <v>2.2</v>
+      </c>
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81">
-        <v>1.444</v>
-      </c>
-      <c r="L81">
-        <v>3.75</v>
-      </c>
       <c r="M81">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>1.75</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
         <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.775</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
-      <c r="W81">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7704,13 +7704,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB81">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,61 +7730,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X82">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7793,13 +7793,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,55 +7997,55 @@
         <v>45262.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N85">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
         <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8054,19 +8054,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,55 +8086,55 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>1.615</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>1.363</v>
-      </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
       <c r="P86">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S86">
         <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8143,19 +8143,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
         <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9869,7 +9869,7 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
         <v>1.875</v>
       </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
         <v>1.925</v>
       </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,46 +1678,46 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
+        <v>1.533</v>
+      </c>
+      <c r="L14">
+        <v>3.6</v>
+      </c>
+      <c r="M14">
+        <v>5.75</v>
+      </c>
+      <c r="N14">
+        <v>1.533</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>5.75</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
         <v>1.95</v>
       </c>
-      <c r="L14">
-        <v>3.3</v>
-      </c>
-      <c r="M14">
-        <v>3.4</v>
-      </c>
-      <c r="N14">
-        <v>1.909</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>3.5</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>2.25</v>
@@ -1732,16 +1732,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
         <v>0.925</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,46 +1767,46 @@
         <v>45144.625</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
       </c>
       <c r="K20">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815305</v>
+        <v>6815304</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
       <c r="K21">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,58 +2657,58 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2717,16 +2717,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>1.7</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.875</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>-0.5</v>
       </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
-      <c r="W26">
-        <v>0.8</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.825</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>0.825</v>
-      </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815312</v>
+        <v>6815311</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,58 +3013,58 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>39</v>
       </c>
       <c r="K29">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
       <c r="N29">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3073,16 +3073,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,34 +3102,34 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1.4</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>6.5</v>
@@ -3138,40 +3138,40 @@
         <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,76 +3191,76 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O31">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,61 +3280,61 @@
         <v>45172.5</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P32">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-0</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,61 +3369,61 @@
         <v>45172.5</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
       </c>
       <c r="K33">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3435,10 +3435,10 @@
         <v>-0</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6815331</v>
+        <v>6815333</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,76 +4704,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6815333</v>
+        <v>6815331</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,76 +4793,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O49">
         <v>3.6</v>
       </c>
       <c r="P49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
+        <v>1.95</v>
+      </c>
+      <c r="V49">
         <v>1.85</v>
       </c>
-      <c r="V49">
-        <v>1.95</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N59">
+        <v>1.833</v>
+      </c>
+      <c r="O59">
         <v>3.1</v>
       </c>
-      <c r="O59">
-        <v>2.9</v>
-      </c>
       <c r="P59">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60">
+        <v>2.625</v>
+      </c>
+      <c r="L60">
+        <v>2.875</v>
+      </c>
+      <c r="M60">
+        <v>2.6</v>
+      </c>
+      <c r="N60">
+        <v>3.1</v>
+      </c>
+      <c r="O60">
+        <v>2.9</v>
+      </c>
+      <c r="P60">
+        <v>2.25</v>
+      </c>
+      <c r="Q60">
+        <v>0.25</v>
+      </c>
+      <c r="R60">
+        <v>1.8</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2.25</v>
+      </c>
+      <c r="U60">
+        <v>1.975</v>
+      </c>
+      <c r="V60">
+        <v>1.725</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>1.25</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
         <v>1</v>
       </c>
-      <c r="J60" t="s">
-        <v>39</v>
-      </c>
-      <c r="K60">
-        <v>1.833</v>
-      </c>
-      <c r="L60">
-        <v>3.1</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
-      <c r="O60">
-        <v>3.1</v>
-      </c>
-      <c r="P60">
-        <v>4</v>
-      </c>
-      <c r="Q60">
-        <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.875</v>
-      </c>
-      <c r="S60">
-        <v>1.925</v>
-      </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>1.775</v>
-      </c>
-      <c r="V60">
-        <v>2.025</v>
-      </c>
-      <c r="W60">
-        <v>0.833</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
-        <v>0.875</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
       <c r="AB60">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M63">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P63">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>1.75</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.925</v>
-      </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366683</v>
+        <v>7366684</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,76 +6128,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K64">
+        <v>2.875</v>
+      </c>
+      <c r="L64">
+        <v>2.9</v>
+      </c>
+      <c r="M64">
         <v>2.375</v>
       </c>
-      <c r="L64">
-        <v>2.8</v>
-      </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
       <c r="N64">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.925</v>
+      </c>
+      <c r="V64">
         <v>1.875</v>
       </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.875</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,76 +6751,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
+        <v>1.666</v>
+      </c>
+      <c r="N71">
+        <v>5.25</v>
+      </c>
+      <c r="O71">
+        <v>3.8</v>
+      </c>
+      <c r="P71">
+        <v>1.5</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1.85</v>
+      </c>
+      <c r="S71">
+        <v>1.95</v>
+      </c>
+      <c r="T71">
+        <v>2.5</v>
+      </c>
+      <c r="U71">
         <v>1.8</v>
       </c>
-      <c r="N71">
-        <v>3.8</v>
-      </c>
-      <c r="O71">
-        <v>3.25</v>
-      </c>
-      <c r="P71">
-        <v>1.8</v>
-      </c>
-      <c r="Q71">
-        <v>0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.95</v>
-      </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>2</v>
-      </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6840,76 +6840,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N72">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
       </c>
-      <c r="S72">
-        <v>1.95</v>
-      </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>2.5</v>
+      </c>
+      <c r="L100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100">
-        <v>10</v>
-      </c>
-      <c r="L100">
-        <v>5.5</v>
-      </c>
       <c r="M100">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N100">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="Q100">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
       <c r="W100">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
+        <v>1.825</v>
+      </c>
+      <c r="V101">
         <v>1.975</v>
       </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,55 +9777,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N105">
+        <v>8</v>
+      </c>
+      <c r="O105">
         <v>4.75</v>
       </c>
-      <c r="O105">
-        <v>3</v>
-      </c>
       <c r="P105">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9834,19 +9834,19 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N106">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.825</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
         <v>0.75</v>
       </c>
-      <c r="R106">
-        <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.875</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>0.25</v>
-      </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10203,6 +10203,228 @@
       </c>
       <c r="AC109">
         <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7906319</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="K110">
+        <v>2.3</v>
+      </c>
+      <c r="L110">
+        <v>2.875</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>2.1</v>
+      </c>
+      <c r="O110">
+        <v>2.9</v>
+      </c>
+      <c r="P110">
+        <v>3.4</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.85</v>
+      </c>
+      <c r="S110">
+        <v>1.95</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>1.775</v>
+      </c>
+      <c r="V110">
+        <v>2.025</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7906320</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111">
+        <v>2.25</v>
+      </c>
+      <c r="L111">
+        <v>2.875</v>
+      </c>
+      <c r="M111">
+        <v>3.1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111">
+        <v>3</v>
+      </c>
+      <c r="P111">
+        <v>3.5</v>
+      </c>
+      <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>1.775</v>
+      </c>
+      <c r="S111">
+        <v>2.025</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
+        <v>1.825</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7906321</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" t="s">
+        <v>34</v>
+      </c>
+      <c r="K112">
+        <v>2.2</v>
+      </c>
+      <c r="L112">
+        <v>2.9</v>
+      </c>
+      <c r="M112">
+        <v>3.2</v>
+      </c>
+      <c r="N112">
+        <v>2.15</v>
+      </c>
+      <c r="O112">
+        <v>3.1</v>
+      </c>
+      <c r="P112">
+        <v>3.1</v>
+      </c>
+      <c r="Q112">
+        <v>-0.25</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>1.85</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
+        <v>1.8</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>2.75</v>
+      </c>
+      <c r="N17">
+        <v>2.4</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>2.75</v>
+      </c>
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>2.1</v>
-      </c>
-      <c r="L17">
-        <v>3.1</v>
-      </c>
-      <c r="M17">
-        <v>3.2</v>
-      </c>
-      <c r="N17">
-        <v>1.615</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17">
-        <v>-0.75</v>
-      </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y19">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.925</v>
-      </c>
-      <c r="AB19">
-        <v>-0.5</v>
-      </c>
-      <c r="AC19">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815304</v>
+        <v>6815422</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,76 +3013,76 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O29">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,76 +3191,76 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
+        <v>2.375</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>2.75</v>
+      </c>
+      <c r="N39">
+        <v>2.625</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>2.4</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
         <v>1.8</v>
       </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>3.75</v>
-      </c>
-      <c r="N39">
-        <v>1.6</v>
-      </c>
-      <c r="O39">
-        <v>3.5</v>
-      </c>
-      <c r="P39">
-        <v>4.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.825</v>
-      </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.725</v>
+      </c>
+      <c r="V39">
         <v>1.975</v>
       </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.75</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K42">
+        <v>1.3</v>
+      </c>
+      <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>1.363</v>
+      </c>
+      <c r="O42">
+        <v>4.333</v>
+      </c>
+      <c r="P42">
+        <v>7.5</v>
+      </c>
+      <c r="Q42">
+        <v>-1.5</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.85</v>
+      </c>
+      <c r="T42">
         <v>3</v>
       </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>2.25</v>
-      </c>
-      <c r="N42">
-        <v>3.25</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
-      <c r="P42">
-        <v>2.1</v>
-      </c>
-      <c r="Q42">
-        <v>0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.925</v>
-      </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6815334</v>
+        <v>6815426</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K53">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
         <v>1.8</v>
       </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6815426</v>
+        <v>7279987</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
         <v>3</v>
       </c>
       <c r="M55">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N55">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>3</v>
       </c>
       <c r="P55">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6815343</v>
+        <v>7366683</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P62">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366683</v>
+        <v>7366684</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
+        <v>2.875</v>
+      </c>
+      <c r="L63">
+        <v>2.9</v>
+      </c>
+      <c r="M63">
         <v>2.375</v>
       </c>
-      <c r="L63">
-        <v>2.8</v>
-      </c>
-      <c r="M63">
-        <v>3</v>
-      </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O63">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
         <v>1.875</v>
       </c>
-      <c r="V63">
-        <v>1.925</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X63">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.875</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366684</v>
+        <v>6815343</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,13 +6128,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6143,43 +6143,43 @@
         <v>39</v>
       </c>
       <c r="K64">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L64">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M64">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>1.625</v>
+        <v>0.333</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6188,7 +6188,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6197,7 +6197,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N75">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45241.5</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,61 +7641,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N81">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X81">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7704,13 +7704,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,61 +7730,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82">
+        <v>2.2</v>
+      </c>
+      <c r="L82">
         <v>3</v>
       </c>
-      <c r="J82" t="s">
-        <v>39</v>
-      </c>
-      <c r="K82">
-        <v>1.444</v>
-      </c>
-      <c r="L82">
-        <v>3.75</v>
-      </c>
       <c r="M82">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>1.75</v>
+      </c>
+      <c r="T82">
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>1.875</v>
-      </c>
-      <c r="S82">
-        <v>1.925</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.775</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
-      <c r="W82">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7793,13 +7793,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB82">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,55 +7997,55 @@
         <v>45262.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L85">
+        <v>3.5</v>
+      </c>
+      <c r="M85">
+        <v>1.615</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85">
         <v>3.6</v>
       </c>
-      <c r="M85">
-        <v>5</v>
-      </c>
-      <c r="N85">
-        <v>1.363</v>
-      </c>
-      <c r="O85">
-        <v>4.2</v>
-      </c>
       <c r="P85">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q85">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S85">
         <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8054,19 +8054,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,55 +8086,55 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
       </c>
       <c r="K86">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
         <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8143,19 +8143,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,76 +9777,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N105">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
+        <v>1.95</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
         <v>0.75</v>
       </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.875</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.9</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>0.25</v>
-      </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,55 +9866,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
         <v>4.75</v>
       </c>
-      <c r="O106">
-        <v>3</v>
-      </c>
       <c r="P106">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9923,19 +9923,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
         <v>1.925</v>
       </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
         <v>1.875</v>
       </c>
-      <c r="S108">
-        <v>1.925</v>
-      </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10227,6 +10227,15 @@
       <c r="G110" t="s">
         <v>29</v>
       </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>41</v>
+      </c>
       <c r="K110">
         <v>2.3</v>
       </c>
@@ -10237,46 +10246,52 @@
         <v>3</v>
       </c>
       <c r="N110">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O110">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P110">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB110">
+        <v>0.75</v>
+      </c>
+      <c r="AC110">
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10301,6 +10316,15 @@
       <c r="G111" t="s">
         <v>30</v>
       </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>41</v>
+      </c>
       <c r="K111">
         <v>2.25</v>
       </c>
@@ -10311,46 +10335,52 @@
         <v>3.1</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
         <v>3</v>
       </c>
       <c r="P111">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
         <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB111">
+        <v>0.425</v>
+      </c>
+      <c r="AC111">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10375,6 +10405,15 @@
       <c r="G112" t="s">
         <v>34</v>
       </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>40</v>
+      </c>
       <c r="K112">
         <v>2.2</v>
       </c>
@@ -10385,13 +10424,13 @@
         <v>3.2</v>
       </c>
       <c r="N112">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P112">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10406,25 +10445,209 @@
         <v>2</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>1.9</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>-0.5</v>
+      </c>
+      <c r="AA112">
+        <v>0.425</v>
+      </c>
+      <c r="AB112">
         <v>0</v>
       </c>
-      <c r="X112">
+      <c r="AC112">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>6815435</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45354.47916666666</v>
+      </c>
+      <c r="F113" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113">
         <v>0</v>
       </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
-      <c r="AA112">
-        <v>0</v>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>41</v>
+      </c>
+      <c r="K113">
+        <v>1.666</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+      <c r="N113">
+        <v>1.5</v>
+      </c>
+      <c r="O113">
+        <v>3.5</v>
+      </c>
+      <c r="P113">
+        <v>6</v>
+      </c>
+      <c r="Q113">
+        <v>-1</v>
+      </c>
+      <c r="R113">
+        <v>2.025</v>
+      </c>
+      <c r="S113">
+        <v>1.775</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>5</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>6815387</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45354.5625</v>
+      </c>
+      <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>40</v>
+      </c>
+      <c r="K114">
+        <v>3.1</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>2.25</v>
+      </c>
+      <c r="N114">
+        <v>3.1</v>
+      </c>
+      <c r="O114">
+        <v>3</v>
+      </c>
+      <c r="P114">
+        <v>2.25</v>
+      </c>
+      <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.825</v>
+      </c>
+      <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
+        <v>1.825</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>2</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.4125</v>
+      </c>
+      <c r="AA114">
+        <v>-0.5</v>
+      </c>
+      <c r="AB114">
+        <v>-0.5</v>
+      </c>
+      <c r="AC114">
+        <v>0.4125</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC114"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L3">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>0.4</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="AA3">
-        <v>0.45</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,46 +1678,46 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
         <v>2.25</v>
@@ -1732,16 +1732,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
         <v>0.925</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,46 +1767,46 @@
         <v>45144.625</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
+        <v>1.533</v>
+      </c>
+      <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>5.75</v>
+      </c>
+      <c r="N15">
+        <v>1.533</v>
+      </c>
+      <c r="O15">
+        <v>3.6</v>
+      </c>
+      <c r="P15">
+        <v>5.75</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
         <v>1.95</v>
       </c>
-      <c r="L15">
-        <v>3.3</v>
-      </c>
-      <c r="M15">
-        <v>3.4</v>
-      </c>
-      <c r="N15">
-        <v>1.909</v>
-      </c>
-      <c r="O15">
-        <v>3.3</v>
-      </c>
-      <c r="P15">
-        <v>3.5</v>
-      </c>
-      <c r="Q15">
-        <v>-0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
         <v>2.25</v>
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2304,7 +2304,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
         <v>31</v>
       </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>1.7</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>0.875</v>
+      </c>
+      <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>-0.5</v>
       </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
-      <c r="W25">
-        <v>0.8</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.825</v>
-      </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
-      <c r="AB25">
-        <v>0.825</v>
-      </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,58 +2746,58 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2806,16 +2806,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,76 +3013,76 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,76 +3191,76 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O31">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
+        <v>2.375</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.75</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>2.4</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>1.8</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>3.75</v>
-      </c>
-      <c r="N38">
-        <v>1.6</v>
-      </c>
-      <c r="O38">
-        <v>3.5</v>
-      </c>
-      <c r="P38">
-        <v>4.75</v>
-      </c>
-      <c r="Q38">
-        <v>-0.75</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1.725</v>
+      </c>
+      <c r="V38">
         <v>1.975</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.75</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N42">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K43">
+        <v>1.3</v>
+      </c>
+      <c r="L43">
+        <v>4.333</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>1.363</v>
+      </c>
+      <c r="O43">
+        <v>4.333</v>
+      </c>
+      <c r="P43">
+        <v>7.5</v>
+      </c>
+      <c r="Q43">
+        <v>-1.5</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>1.85</v>
+      </c>
+      <c r="T43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>2.25</v>
-      </c>
-      <c r="N43">
-        <v>3.25</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>2.1</v>
-      </c>
-      <c r="Q43">
-        <v>0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.925</v>
-      </c>
-      <c r="S43">
-        <v>1.875</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
       <c r="U43">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4796,7 +4796,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6815426</v>
+        <v>7279987</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N53">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O53">
         <v>3</v>
       </c>
       <c r="P53">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6815334</v>
+        <v>6815426</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K54">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N54">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
         <v>1.8</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
         <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7366683</v>
+        <v>6815343</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L62">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O62">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X62">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M63">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P63">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>1.75</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.925</v>
-      </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,13 +6128,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6143,43 +6143,43 @@
         <v>39</v>
       </c>
       <c r="K64">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N64">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6188,7 +6188,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6197,7 +6197,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6843,7 +6843,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815359</v>
+        <v>6815358</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,61 +7107,61 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7170,13 +7170,13 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815358</v>
+        <v>6815357</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,10 +7196,10 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7211,61 +7211,61 @@
         <v>40</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45241.5</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7733,7 +7733,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,55 +7997,55 @@
         <v>45262.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N85">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
         <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8054,19 +8054,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,55 +8086,55 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>1.615</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>1.363</v>
-      </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
       <c r="P86">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S86">
         <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8143,19 +8143,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>1.975</v>
       </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K101">
-        <v>10</v>
-      </c>
-      <c r="L101">
-        <v>5.5</v>
-      </c>
       <c r="M101">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N101">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="Q101">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
       <c r="W101">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
         <v>31</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,55 +9777,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N105">
+        <v>8</v>
+      </c>
+      <c r="O105">
         <v>4.75</v>
       </c>
-      <c r="O105">
-        <v>3</v>
-      </c>
       <c r="P105">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9834,19 +9834,19 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N106">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.825</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
         <v>0.75</v>
       </c>
-      <c r="R106">
-        <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.875</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>0.25</v>
-      </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
         <v>1.875</v>
       </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
         <v>1.925</v>
       </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10314,7 +10314,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -10648,6 +10648,228 @@
       </c>
       <c r="AC114">
         <v>0.4125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7934470</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115">
+        <v>1.363</v>
+      </c>
+      <c r="L115">
+        <v>4.75</v>
+      </c>
+      <c r="M115">
+        <v>6</v>
+      </c>
+      <c r="N115">
+        <v>1.363</v>
+      </c>
+      <c r="O115">
+        <v>4.75</v>
+      </c>
+      <c r="P115">
+        <v>6</v>
+      </c>
+      <c r="Q115">
+        <v>-1.5</v>
+      </c>
+      <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
+        <v>1.775</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
+        <v>2.05</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>6815389</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F116" t="s">
+        <v>35</v>
+      </c>
+      <c r="G116" t="s">
+        <v>34</v>
+      </c>
+      <c r="K116">
+        <v>1.909</v>
+      </c>
+      <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>3.75</v>
+      </c>
+      <c r="N116">
+        <v>1.75</v>
+      </c>
+      <c r="O116">
+        <v>3.2</v>
+      </c>
+      <c r="P116">
+        <v>4.333</v>
+      </c>
+      <c r="Q116">
+        <v>-0.5</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>1.9</v>
+      </c>
+      <c r="V116">
+        <v>1.9</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>6815393</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F117" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" t="s">
+        <v>32</v>
+      </c>
+      <c r="K117">
+        <v>1.285</v>
+      </c>
+      <c r="L117">
+        <v>4.75</v>
+      </c>
+      <c r="M117">
+        <v>8</v>
+      </c>
+      <c r="N117">
+        <v>1.333</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>7</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.775</v>
+      </c>
+      <c r="V117">
+        <v>2.025</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,46 +1678,46 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
+        <v>1.533</v>
+      </c>
+      <c r="L14">
+        <v>3.6</v>
+      </c>
+      <c r="M14">
+        <v>5.75</v>
+      </c>
+      <c r="N14">
+        <v>1.533</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>5.75</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
         <v>1.95</v>
       </c>
-      <c r="L14">
-        <v>3.3</v>
-      </c>
-      <c r="M14">
-        <v>3.4</v>
-      </c>
-      <c r="N14">
-        <v>1.909</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>3.5</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>2.25</v>
@@ -1732,16 +1732,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
         <v>0.925</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,46 +1767,46 @@
         <v>45144.625</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>2.75</v>
+      </c>
+      <c r="N17">
+        <v>2.4</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>2.75</v>
+      </c>
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>2.1</v>
-      </c>
-      <c r="L17">
-        <v>3.1</v>
-      </c>
-      <c r="M17">
-        <v>3.2</v>
-      </c>
-      <c r="N17">
-        <v>1.615</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17">
-        <v>-0.75</v>
-      </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,58 +2657,58 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2717,16 +2717,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>1.7</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.875</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>-0.5</v>
       </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
-      <c r="W26">
-        <v>0.8</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.825</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>0.825</v>
-      </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,34 +3102,34 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
         <v>1.4</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
         <v>6.5</v>
@@ -3138,40 +3138,40 @@
         <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,34 +3191,34 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1.4</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P31">
         <v>6.5</v>
@@ -3227,40 +3227,40 @@
         <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,61 +3280,61 @@
         <v>45172.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,61 +3369,61 @@
         <v>45172.5</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
       </c>
       <c r="K33">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3435,10 +3435,10 @@
         <v>-0</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
+        <v>2.875</v>
+      </c>
+      <c r="M59">
+        <v>2.6</v>
+      </c>
+      <c r="N59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>1.833</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W59">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L60">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N60">
+        <v>1.833</v>
+      </c>
+      <c r="O60">
         <v>3.1</v>
       </c>
-      <c r="O60">
-        <v>2.9</v>
-      </c>
       <c r="P60">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V60">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,13 +5950,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5965,43 +5965,43 @@
         <v>39</v>
       </c>
       <c r="K62">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N62">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P62">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6010,7 +6010,7 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -6019,7 +6019,7 @@
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366684</v>
+        <v>6815343</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,13 +6128,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6143,43 +6143,43 @@
         <v>39</v>
       </c>
       <c r="K64">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L64">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M64">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>1.625</v>
+        <v>0.333</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6188,7 +6188,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6197,7 +6197,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,76 +6751,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O71">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
         <v>1.85</v>
       </c>
-      <c r="S71">
-        <v>1.95</v>
-      </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.8</v>
       </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6840,76 +6840,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
+        <v>1.666</v>
+      </c>
+      <c r="N72">
+        <v>5.25</v>
+      </c>
+      <c r="O72">
+        <v>3.8</v>
+      </c>
+      <c r="P72">
+        <v>1.5</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>1.95</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
         <v>1.8</v>
       </c>
-      <c r="N72">
-        <v>3.8</v>
-      </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>1.8</v>
-      </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>2</v>
-      </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815358</v>
+        <v>6815357</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,10 +7107,10 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7122,61 +7122,61 @@
         <v>40</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815357</v>
+        <v>6815358</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,10 +7196,10 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7211,61 +7211,61 @@
         <v>40</v>
       </c>
       <c r="K76">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB76">
         <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>2.5</v>
+      </c>
+      <c r="L100">
         <v>3</v>
       </c>
-      <c r="I100">
+      <c r="M100">
+        <v>2.6</v>
+      </c>
+      <c r="N100">
+        <v>2.5</v>
+      </c>
+      <c r="O100">
+        <v>3</v>
+      </c>
+      <c r="P100">
+        <v>2.6</v>
+      </c>
+      <c r="Q100">
         <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100">
-        <v>10</v>
-      </c>
-      <c r="L100">
-        <v>5.5</v>
-      </c>
-      <c r="M100">
-        <v>1.2</v>
-      </c>
-      <c r="N100">
-        <v>11</v>
-      </c>
-      <c r="O100">
-        <v>4.75</v>
-      </c>
-      <c r="P100">
-        <v>1.222</v>
-      </c>
-      <c r="Q100">
-        <v>1.75</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
       <c r="W100">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
+        <v>1.825</v>
+      </c>
+      <c r="V101">
         <v>1.975</v>
       </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7906319</v>
+        <v>7906320</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,13 +10222,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10237,61 +10237,61 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
         <v>2.875</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N110">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
         <v>3</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.9</v>
+      </c>
+      <c r="S110">
+        <v>1.9</v>
+      </c>
+      <c r="T110">
+        <v>1.75</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>2.2</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB110">
+        <v>0.425</v>
+      </c>
+      <c r="AC110">
         <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.75</v>
-      </c>
-      <c r="V110">
-        <v>2.05</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>3</v>
-      </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>0.825</v>
-      </c>
-      <c r="AB110">
-        <v>0.75</v>
-      </c>
-      <c r="AC110">
-        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7906320</v>
+        <v>7906319</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,13 +10311,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -10326,40 +10326,40 @@
         <v>41</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
         <v>2.875</v>
       </c>
       <c r="M111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O111">
         <v>3</v>
       </c>
       <c r="P111">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
         <v>1.75</v>
       </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10368,19 +10368,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7934470</v>
+        <v>6815391</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10664,64 +10664,79 @@
         <v>28</v>
       </c>
       <c r="E115" s="2">
-        <v>45360.5</v>
+        <v>45360.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N115">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q115">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>1.8</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
         <v>2.025</v>
       </c>
-      <c r="S115">
+      <c r="V115">
         <v>1.775</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>1.75</v>
-      </c>
-      <c r="V115">
-        <v>2.05</v>
-      </c>
       <c r="W115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB115">
+        <v>1.025</v>
+      </c>
+      <c r="AC115">
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10729,7 +10744,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6815389</v>
+        <v>6815392</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10738,64 +10753,79 @@
         <v>28</v>
       </c>
       <c r="E116" s="2">
-        <v>45360.58333333334</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M116">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N116">
+        <v>2.875</v>
+      </c>
+      <c r="O116">
+        <v>2.8</v>
+      </c>
+      <c r="P116">
+        <v>2.45</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
         <v>1.75</v>
       </c>
-      <c r="O116">
-        <v>3.2</v>
-      </c>
-      <c r="P116">
-        <v>4.333</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.8</v>
-      </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10820,6 +10850,15 @@
       <c r="G117" t="s">
         <v>32</v>
       </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>39</v>
+      </c>
       <c r="K117">
         <v>1.285</v>
       </c>
@@ -10842,34 +10881,218 @@
         <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>2.25</v>
       </c>
       <c r="U117">
+        <v>1.75</v>
+      </c>
+      <c r="V117">
+        <v>1.95</v>
+      </c>
+      <c r="W117">
+        <v>0.333</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>0.75</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>0.75</v>
+      </c>
+      <c r="AC117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>6815389</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F118" t="s">
+        <v>35</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K118">
+        <v>1.909</v>
+      </c>
+      <c r="L118">
+        <v>3.1</v>
+      </c>
+      <c r="M118">
+        <v>3.75</v>
+      </c>
+      <c r="N118">
+        <v>1.75</v>
+      </c>
+      <c r="O118">
+        <v>3.2</v>
+      </c>
+      <c r="P118">
+        <v>4.333</v>
+      </c>
+      <c r="Q118">
+        <v>-0.5</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>1.9</v>
+      </c>
+      <c r="V118">
+        <v>1.9</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>2.2</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7934470</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119">
+        <v>6</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119">
+        <v>1.363</v>
+      </c>
+      <c r="L119">
+        <v>4.75</v>
+      </c>
+      <c r="M119">
+        <v>6</v>
+      </c>
+      <c r="N119">
+        <v>1.363</v>
+      </c>
+      <c r="O119">
+        <v>4.75</v>
+      </c>
+      <c r="P119">
+        <v>6</v>
+      </c>
+      <c r="Q119">
+        <v>-1.5</v>
+      </c>
+      <c r="R119">
+        <v>2.025</v>
+      </c>
+      <c r="S119">
         <v>1.775</v>
       </c>
-      <c r="V117">
-        <v>2.025</v>
-      </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-      <c r="AA117">
-        <v>0</v>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>1.75</v>
+      </c>
+      <c r="V119">
+        <v>2.05</v>
+      </c>
+      <c r="W119">
+        <v>0.363</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>1.025</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>0.75</v>
+      </c>
+      <c r="AC119">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,46 +1678,46 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
         <v>2.25</v>
@@ -1732,16 +1732,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
         <v>0.925</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,46 +1767,46 @@
         <v>45144.625</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
+        <v>1.533</v>
+      </c>
+      <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>5.75</v>
+      </c>
+      <c r="N15">
+        <v>1.533</v>
+      </c>
+      <c r="O15">
+        <v>3.6</v>
+      </c>
+      <c r="P15">
+        <v>5.75</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
         <v>1.95</v>
       </c>
-      <c r="L15">
-        <v>3.3</v>
-      </c>
-      <c r="M15">
-        <v>3.4</v>
-      </c>
-      <c r="N15">
-        <v>1.909</v>
-      </c>
-      <c r="O15">
-        <v>3.3</v>
-      </c>
-      <c r="P15">
-        <v>3.5</v>
-      </c>
-      <c r="Q15">
-        <v>-0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
         <v>2.25</v>
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>40</v>
       </c>
       <c r="K19">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815305</v>
+        <v>6815422</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.925</v>
-      </c>
-      <c r="AB21">
-        <v>-0.5</v>
-      </c>
-      <c r="AC21">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815311</v>
+        <v>6815312</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,58 +3013,58 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>1.4</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>2.25</v>
-      </c>
-      <c r="O29">
-        <v>2.9</v>
-      </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3073,16 +3073,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,76 +3102,76 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P30">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,34 +3191,34 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
         <v>1.4</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
         <v>6.5</v>
@@ -3227,40 +3227,40 @@
         <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,61 +3280,61 @@
         <v>45172.5</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P32">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-0</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,61 +3369,61 @@
         <v>45172.5</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
       </c>
       <c r="K33">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3435,10 +3435,10 @@
         <v>-0</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
+        <v>2.375</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>2.75</v>
+      </c>
+      <c r="N39">
+        <v>2.625</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>2.4</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
         <v>1.8</v>
       </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>3.75</v>
-      </c>
-      <c r="N39">
-        <v>1.6</v>
-      </c>
-      <c r="O39">
-        <v>3.5</v>
-      </c>
-      <c r="P39">
-        <v>4.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.825</v>
-      </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.725</v>
+      </c>
+      <c r="V39">
         <v>1.975</v>
       </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.75</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6815426</v>
+        <v>6815334</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N54">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z54">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6815334</v>
+        <v>6815426</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N55">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7366684</v>
+        <v>6815343</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,13 +5950,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5965,43 +5965,43 @@
         <v>39</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O62">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>1.625</v>
+        <v>0.333</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6010,7 +6010,7 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -6019,7 +6019,7 @@
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,13 +6128,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6143,43 +6143,43 @@
         <v>39</v>
       </c>
       <c r="K64">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N64">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6188,7 +6188,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6197,7 +6197,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N75">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45241.5</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,61 +7641,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81">
+        <v>2.2</v>
+      </c>
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81">
-        <v>1.444</v>
-      </c>
-      <c r="L81">
-        <v>3.75</v>
-      </c>
       <c r="M81">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>1.75</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
         <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.775</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
-      <c r="W81">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7704,13 +7704,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB81">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,61 +7730,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X82">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7793,13 +7793,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>1.975</v>
       </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K101">
-        <v>10</v>
-      </c>
-      <c r="L101">
-        <v>5.5</v>
-      </c>
       <c r="M101">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N101">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="Q101">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
       <c r="W101">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
         <v>1.925</v>
       </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
         <v>1.875</v>
       </c>
-      <c r="S108">
-        <v>1.925</v>
-      </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7906320</v>
+        <v>7906319</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,13 +10222,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10237,40 +10237,40 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
         <v>2.875</v>
       </c>
       <c r="M110">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O110">
         <v>3</v>
       </c>
       <c r="P110">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.75</v>
       </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10279,19 +10279,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB110">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7906319</v>
+        <v>7906320</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,13 +10311,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -10326,61 +10326,61 @@
         <v>41</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
         <v>2.875</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
         <v>3</v>
       </c>
       <c r="P111">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>1.9</v>
+      </c>
+      <c r="S111">
+        <v>1.9</v>
+      </c>
+      <c r="T111">
+        <v>1.75</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
+        <v>1.95</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>2.2</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB111">
+        <v>0.425</v>
+      </c>
+      <c r="AC111">
         <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.975</v>
-      </c>
-      <c r="S111">
-        <v>1.825</v>
-      </c>
-      <c r="T111">
-        <v>2</v>
-      </c>
-      <c r="U111">
-        <v>1.75</v>
-      </c>
-      <c r="V111">
-        <v>2.05</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>3</v>
-      </c>
-      <c r="Z111">
-        <v>-1</v>
-      </c>
-      <c r="AA111">
-        <v>0.825</v>
-      </c>
-      <c r="AB111">
-        <v>0.75</v>
-      </c>
-      <c r="AC111">
-        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11093,6 +11093,821 @@
       </c>
       <c r="AC119">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>6815394</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45364.41666666666</v>
+      </c>
+      <c r="F120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>40</v>
+      </c>
+      <c r="K120">
+        <v>3.2</v>
+      </c>
+      <c r="L120">
+        <v>2.8</v>
+      </c>
+      <c r="M120">
+        <v>2.25</v>
+      </c>
+      <c r="N120">
+        <v>3.6</v>
+      </c>
+      <c r="O120">
+        <v>2.875</v>
+      </c>
+      <c r="P120">
+        <v>2.05</v>
+      </c>
+      <c r="Q120">
+        <v>0.25</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>1.8</v>
+      </c>
+      <c r="T120">
+        <v>1.75</v>
+      </c>
+      <c r="U120">
+        <v>1.75</v>
+      </c>
+      <c r="V120">
+        <v>2.05</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>1.875</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.5</v>
+      </c>
+      <c r="AA120">
+        <v>-0.5</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>6815397</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45364.45833333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>40</v>
+      </c>
+      <c r="K121">
+        <v>2.6</v>
+      </c>
+      <c r="L121">
+        <v>2.7</v>
+      </c>
+      <c r="M121">
+        <v>2.8</v>
+      </c>
+      <c r="N121">
+        <v>2.75</v>
+      </c>
+      <c r="O121">
+        <v>2.5</v>
+      </c>
+      <c r="P121">
+        <v>2.875</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
+        <v>2.025</v>
+      </c>
+      <c r="V121">
+        <v>1.775</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>1.5</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>-0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>6815398</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45364.45833333334</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>38</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>41</v>
+      </c>
+      <c r="K122">
+        <v>5.75</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>1.444</v>
+      </c>
+      <c r="N122">
+        <v>6.5</v>
+      </c>
+      <c r="O122">
+        <v>4.2</v>
+      </c>
+      <c r="P122">
+        <v>1.4</v>
+      </c>
+      <c r="Q122">
+        <v>1.25</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
+        <v>1.875</v>
+      </c>
+      <c r="V122">
+        <v>1.925</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z122">
+        <v>0.45</v>
+      </c>
+      <c r="AA122">
+        <v>-0.5</v>
+      </c>
+      <c r="AB122">
+        <v>0.4375</v>
+      </c>
+      <c r="AC122">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>6815396</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45364.5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>39</v>
+      </c>
+      <c r="K123">
+        <v>1.363</v>
+      </c>
+      <c r="L123">
+        <v>4.2</v>
+      </c>
+      <c r="M123">
+        <v>7</v>
+      </c>
+      <c r="N123">
+        <v>1.363</v>
+      </c>
+      <c r="O123">
+        <v>4.333</v>
+      </c>
+      <c r="P123">
+        <v>6.5</v>
+      </c>
+      <c r="Q123">
+        <v>-1.25</v>
+      </c>
+      <c r="R123">
+        <v>1.85</v>
+      </c>
+      <c r="S123">
+        <v>1.95</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
+        <v>1.85</v>
+      </c>
+      <c r="W123">
+        <v>0.363</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>-0.5</v>
+      </c>
+      <c r="AA123">
+        <v>0.475</v>
+      </c>
+      <c r="AB123">
+        <v>0.475</v>
+      </c>
+      <c r="AC123">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>6815395</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45364.58333333334</v>
+      </c>
+      <c r="F124" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>40</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>3.1</v>
+      </c>
+      <c r="M124">
+        <v>1.85</v>
+      </c>
+      <c r="N124">
+        <v>4.333</v>
+      </c>
+      <c r="O124">
+        <v>3.2</v>
+      </c>
+      <c r="P124">
+        <v>1.75</v>
+      </c>
+      <c r="Q124">
+        <v>0.5</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
+        <v>1.85</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.2</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>1</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>6815400</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+      <c r="K125">
+        <v>2.5</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>2.625</v>
+      </c>
+      <c r="N125">
+        <v>3.6</v>
+      </c>
+      <c r="O125">
+        <v>3.2</v>
+      </c>
+      <c r="P125">
+        <v>1.909</v>
+      </c>
+      <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1.8</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
+        <v>1.975</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>6815402</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="K126">
+        <v>2.8</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>2.375</v>
+      </c>
+      <c r="N126">
+        <v>2.45</v>
+      </c>
+      <c r="O126">
+        <v>2.9</v>
+      </c>
+      <c r="P126">
+        <v>2.75</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1.775</v>
+      </c>
+      <c r="S126">
+        <v>2.025</v>
+      </c>
+      <c r="T126">
+        <v>1.75</v>
+      </c>
+      <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
+        <v>1.975</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>6815401</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F127" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s">
+        <v>37</v>
+      </c>
+      <c r="K127">
+        <v>2.55</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>2.6</v>
+      </c>
+      <c r="N127">
+        <v>2.375</v>
+      </c>
+      <c r="O127">
+        <v>3</v>
+      </c>
+      <c r="P127">
+        <v>2.8</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>1.725</v>
+      </c>
+      <c r="S127">
+        <v>2.075</v>
+      </c>
+      <c r="T127">
+        <v>2</v>
+      </c>
+      <c r="U127">
+        <v>1.9</v>
+      </c>
+      <c r="V127">
+        <v>1.9</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>6815399</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="K128">
+        <v>1.727</v>
+      </c>
+      <c r="L128">
+        <v>3.4</v>
+      </c>
+      <c r="M128">
+        <v>4.2</v>
+      </c>
+      <c r="N128">
+        <v>2.15</v>
+      </c>
+      <c r="O128">
+        <v>3.2</v>
+      </c>
+      <c r="P128">
+        <v>3.1</v>
+      </c>
+      <c r="Q128">
+        <v>-0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.95</v>
+      </c>
+      <c r="S128">
+        <v>1.85</v>
+      </c>
+      <c r="T128">
+        <v>2</v>
+      </c>
+      <c r="U128">
+        <v>1.75</v>
+      </c>
+      <c r="V128">
+        <v>2.05</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>6815436</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F129" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" t="s">
+        <v>38</v>
+      </c>
+      <c r="K129">
+        <v>2.625</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>2.5</v>
+      </c>
+      <c r="N129">
+        <v>3.6</v>
+      </c>
+      <c r="O129">
+        <v>3.2</v>
+      </c>
+      <c r="P129">
+        <v>1.909</v>
+      </c>
+      <c r="Q129">
+        <v>0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
+        <v>1.8</v>
+      </c>
+      <c r="V129">
+        <v>2</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N17">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815305</v>
+        <v>6815304</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>40</v>
       </c>
       <c r="K19">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815422</v>
+        <v>6815305</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>1.571</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>4.2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.75</v>
+      </c>
+      <c r="R20">
+        <v>1.75</v>
+      </c>
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>1.95</v>
+      </c>
+      <c r="V20">
+        <v>1.85</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>2.75</v>
-      </c>
-      <c r="N20">
-        <v>3.1</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>2.15</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>2.025</v>
-      </c>
-      <c r="V20">
-        <v>1.775</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815304</v>
+        <v>6815422</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
+        <v>2.375</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.75</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>2.4</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>1.8</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>3.75</v>
-      </c>
-      <c r="N38">
-        <v>1.6</v>
-      </c>
-      <c r="O38">
-        <v>3.5</v>
-      </c>
-      <c r="P38">
-        <v>4.75</v>
-      </c>
-      <c r="Q38">
-        <v>-0.75</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1.725</v>
+      </c>
+      <c r="V38">
         <v>1.975</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.75</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K42">
+        <v>1.3</v>
+      </c>
+      <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>1.363</v>
+      </c>
+      <c r="O42">
+        <v>4.333</v>
+      </c>
+      <c r="P42">
+        <v>7.5</v>
+      </c>
+      <c r="Q42">
+        <v>-1.5</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.85</v>
+      </c>
+      <c r="T42">
         <v>3</v>
       </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>2.25</v>
-      </c>
-      <c r="N42">
-        <v>3.25</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
-      <c r="P42">
-        <v>2.1</v>
-      </c>
-      <c r="Q42">
-        <v>0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.925</v>
-      </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
         <v>1.8</v>
       </c>
-      <c r="S53">
-        <v>2</v>
-      </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N54">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y54">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N59">
+        <v>1.833</v>
+      </c>
+      <c r="O59">
         <v>3.1</v>
       </c>
-      <c r="O59">
-        <v>2.9</v>
-      </c>
       <c r="P59">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L60">
+        <v>2.875</v>
+      </c>
+      <c r="M60">
+        <v>2.6</v>
+      </c>
+      <c r="N60">
         <v>3.1</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W60">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6815343</v>
+        <v>7366683</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P62">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366683</v>
+        <v>6815343</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L63">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O63">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X63">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815359</v>
+        <v>6815358</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,61 +7107,61 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7170,13 +7170,13 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815358</v>
+        <v>6815359</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,61 +7196,61 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
+        <v>1.925</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
         <v>1.8</v>
       </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X76">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7259,13 +7259,13 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,76 +9777,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N105">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
+        <v>1.95</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
         <v>0.75</v>
       </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.875</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.9</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>0.25</v>
-      </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,55 +9866,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
         <v>4.75</v>
       </c>
-      <c r="O106">
-        <v>3</v>
-      </c>
       <c r="P106">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9923,19 +9923,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
         <v>1.875</v>
       </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
         <v>1.925</v>
       </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7906319</v>
+        <v>7906320</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,13 +10222,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10237,61 +10237,61 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
         <v>2.875</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N110">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
         <v>3</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.9</v>
+      </c>
+      <c r="S110">
+        <v>1.9</v>
+      </c>
+      <c r="T110">
+        <v>1.75</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>2.2</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB110">
+        <v>0.425</v>
+      </c>
+      <c r="AC110">
         <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.75</v>
-      </c>
-      <c r="V110">
-        <v>2.05</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>3</v>
-      </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>0.825</v>
-      </c>
-      <c r="AB110">
-        <v>0.75</v>
-      </c>
-      <c r="AC110">
-        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7906320</v>
+        <v>7906319</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,13 +10311,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -10326,40 +10326,40 @@
         <v>41</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
         <v>2.875</v>
       </c>
       <c r="M111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O111">
         <v>3</v>
       </c>
       <c r="P111">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
         <v>1.75</v>
       </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10368,19 +10368,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10833,7 +10833,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6815393</v>
+        <v>6815389</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10845,76 +10845,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L117">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N117">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6815389</v>
+        <v>6815393</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,76 +10934,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K118">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N118">
+        <v>1.333</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>7</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.75</v>
       </c>
-      <c r="O118">
-        <v>3.2</v>
-      </c>
-      <c r="P118">
-        <v>4.333</v>
-      </c>
-      <c r="Q118">
-        <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>1.8</v>
-      </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X118">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11562,6 +11562,15 @@
       <c r="G125" t="s">
         <v>36</v>
       </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="s">
+        <v>41</v>
+      </c>
       <c r="K125">
         <v>2.5</v>
       </c>
@@ -11599,19 +11608,25 @@
         <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB125">
+        <v>0.825</v>
+      </c>
+      <c r="AC125">
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11619,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6815402</v>
+        <v>6815401</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11631,61 +11646,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>40</v>
       </c>
       <c r="K126">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O126">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>0.4875</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11693,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6815401</v>
+        <v>6815402</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11705,61 +11735,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>41</v>
       </c>
       <c r="K127">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N127">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P127">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q127">
         <v>0</v>
       </c>
       <c r="R127">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11784,6 +11829,15 @@
       <c r="G128" t="s">
         <v>34</v>
       </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>39</v>
+      </c>
       <c r="K128">
         <v>1.727</v>
       </c>
@@ -11821,22 +11875,28 @@
         <v>2.05</v>
       </c>
       <c r="W128">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11858,6 +11918,15 @@
       <c r="G129" t="s">
         <v>38</v>
       </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>39</v>
+      </c>
       <c r="K129">
         <v>2.625</v>
       </c>
@@ -11895,19 +11964,25 @@
         <v>2</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L4">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.4</v>
+      </c>
+      <c r="AA4">
         <v>-0.5</v>
       </c>
-      <c r="AA4">
-        <v>0.45</v>
-      </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,46 +1678,46 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
+        <v>1.533</v>
+      </c>
+      <c r="L14">
+        <v>3.6</v>
+      </c>
+      <c r="M14">
+        <v>5.75</v>
+      </c>
+      <c r="N14">
+        <v>1.533</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>5.75</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
         <v>1.95</v>
       </c>
-      <c r="L14">
-        <v>3.3</v>
-      </c>
-      <c r="M14">
-        <v>3.4</v>
-      </c>
-      <c r="N14">
-        <v>1.909</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>3.5</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>2.25</v>
@@ -1732,16 +1732,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
         <v>0.925</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,46 +1767,46 @@
         <v>45144.625</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815304</v>
+        <v>6815422</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815305</v>
+        <v>6815304</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
       </c>
       <c r="K20">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N20">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815422</v>
+        <v>6815305</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>1.571</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>4.2</v>
+      </c>
+      <c r="Q21">
+        <v>-0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.75</v>
+      </c>
+      <c r="S21">
+        <v>1.95</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>1.95</v>
+      </c>
+      <c r="V21">
+        <v>1.85</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>2.75</v>
-      </c>
-      <c r="N21">
-        <v>3.1</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>2.15</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.875</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.025</v>
-      </c>
-      <c r="V21">
-        <v>1.775</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815312</v>
+        <v>6815311</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,58 +3013,58 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>39</v>
       </c>
       <c r="K29">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
       <c r="N29">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3073,16 +3073,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815311</v>
+        <v>6815312</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,58 +3102,58 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>39</v>
       </c>
       <c r="K30">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L30">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>1.4</v>
+      </c>
+      <c r="O30">
         <v>4</v>
       </c>
-      <c r="N30">
-        <v>2.25</v>
-      </c>
-      <c r="O30">
-        <v>2.9</v>
-      </c>
       <c r="P30">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3162,16 +3162,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,61 +3280,61 @@
         <v>45172.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,61 +3369,61 @@
         <v>45172.5</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
       </c>
       <c r="K33">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3435,10 +3435,10 @@
         <v>-0</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N42">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K43">
+        <v>1.3</v>
+      </c>
+      <c r="L43">
+        <v>4.333</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>1.363</v>
+      </c>
+      <c r="O43">
+        <v>4.333</v>
+      </c>
+      <c r="P43">
+        <v>7.5</v>
+      </c>
+      <c r="Q43">
+        <v>-1.5</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>1.85</v>
+      </c>
+      <c r="T43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>2.25</v>
-      </c>
-      <c r="N43">
-        <v>3.25</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>2.1</v>
-      </c>
-      <c r="Q43">
-        <v>0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.925</v>
-      </c>
-      <c r="S43">
-        <v>1.875</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
       <c r="U43">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4796,7 +4796,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6815334</v>
+        <v>6815426</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K53">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6815426</v>
+        <v>6815334</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N55">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z55">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
         <v>31</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6754,7 +6754,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815358</v>
+        <v>6815359</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,61 +7107,61 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
         <v>1.8</v>
       </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>1.95</v>
-      </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7170,13 +7170,13 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815359</v>
+        <v>6815358</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,61 +7196,61 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7259,13 +7259,13 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,61 +7641,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N81">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X81">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7704,13 +7704,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,61 +7730,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82">
+        <v>2.2</v>
+      </c>
+      <c r="L82">
         <v>3</v>
       </c>
-      <c r="J82" t="s">
-        <v>39</v>
-      </c>
-      <c r="K82">
-        <v>1.444</v>
-      </c>
-      <c r="L82">
-        <v>3.75</v>
-      </c>
       <c r="M82">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>1.75</v>
+      </c>
+      <c r="T82">
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <v>1.8</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>1.875</v>
-      </c>
-      <c r="S82">
-        <v>1.925</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.775</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
-      <c r="W82">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7793,13 +7793,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB82">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7997,7 +7997,7 @@
         <v>45262.375</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>2.5</v>
+      </c>
+      <c r="L100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100">
-        <v>10</v>
-      </c>
-      <c r="L100">
-        <v>5.5</v>
-      </c>
       <c r="M100">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N100">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="Q100">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
       <c r="W100">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
+        <v>1.825</v>
+      </c>
+      <c r="V101">
         <v>1.975</v>
       </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
         <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,55 +9777,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N105">
+        <v>8</v>
+      </c>
+      <c r="O105">
         <v>4.75</v>
       </c>
-      <c r="O105">
-        <v>3</v>
-      </c>
       <c r="P105">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9834,19 +9834,19 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N106">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.825</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
         <v>0.75</v>
       </c>
-      <c r="R106">
-        <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.875</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>0.25</v>
-      </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
         <v>1.925</v>
       </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
         <v>1.875</v>
       </c>
-      <c r="S108">
-        <v>1.925</v>
-      </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7906320</v>
+        <v>7906319</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,13 +10222,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10237,40 +10237,40 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
         <v>2.875</v>
       </c>
       <c r="M110">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O110">
         <v>3</v>
       </c>
       <c r="P110">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.75</v>
       </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10279,19 +10279,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB110">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7906319</v>
+        <v>7906320</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,13 +10311,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -10326,61 +10326,61 @@
         <v>41</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
         <v>2.875</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
         <v>3</v>
       </c>
       <c r="P111">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>1.9</v>
+      </c>
+      <c r="S111">
+        <v>1.9</v>
+      </c>
+      <c r="T111">
+        <v>1.75</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
+        <v>1.95</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>2.2</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB111">
+        <v>0.425</v>
+      </c>
+      <c r="AC111">
         <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.975</v>
-      </c>
-      <c r="S111">
-        <v>1.825</v>
-      </c>
-      <c r="T111">
-        <v>2</v>
-      </c>
-      <c r="U111">
-        <v>1.75</v>
-      </c>
-      <c r="V111">
-        <v>2.05</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>3</v>
-      </c>
-      <c r="Z111">
-        <v>-1</v>
-      </c>
-      <c r="AA111">
-        <v>0.825</v>
-      </c>
-      <c r="AB111">
-        <v>0.75</v>
-      </c>
-      <c r="AC111">
-        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -10667,7 +10667,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -10934,7 +10934,7 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6815397</v>
+        <v>6815398</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,76 +11201,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="L121">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="N121">
+        <v>6.5</v>
+      </c>
+      <c r="O121">
+        <v>4.2</v>
+      </c>
+      <c r="P121">
+        <v>1.4</v>
+      </c>
+      <c r="Q121">
+        <v>1.25</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
         <v>2.75</v>
       </c>
-      <c r="O121">
-        <v>2.5</v>
-      </c>
-      <c r="P121">
-        <v>2.875</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>1.85</v>
-      </c>
-      <c r="S121">
-        <v>1.95</v>
-      </c>
-      <c r="T121">
-        <v>2</v>
-      </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6815398</v>
+        <v>6815397</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K122">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M122">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P122">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y122">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11471,7 +11471,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11646,7 +11646,7 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11824,7 +11824,7 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>34</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
       </c>
       <c r="K20">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815305</v>
+        <v>6815304</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
       <c r="K21">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
+        <v>2.875</v>
+      </c>
+      <c r="M59">
+        <v>2.6</v>
+      </c>
+      <c r="N59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>1.833</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W59">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L60">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N60">
+        <v>1.833</v>
+      </c>
+      <c r="O60">
         <v>3.1</v>
       </c>
-      <c r="O60">
-        <v>2.9</v>
-      </c>
       <c r="P60">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V60">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7366683</v>
+        <v>6815343</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L62">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O62">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X62">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6815343</v>
+        <v>7366683</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P63">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6815430</v>
+        <v>6815362</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,61 +7641,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81">
+        <v>2.2</v>
+      </c>
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81">
-        <v>1.444</v>
-      </c>
-      <c r="L81">
-        <v>3.75</v>
-      </c>
       <c r="M81">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>1.75</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1.8</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
         <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.775</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
-      <c r="W81">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7704,13 +7704,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.4625</v>
+        <v>0.375</v>
       </c>
       <c r="AB81">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6815362</v>
+        <v>6815430</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,61 +7730,61 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O82">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X82">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7793,13 +7793,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.375</v>
+        <v>0.4625</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
         <v>1.875</v>
       </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
         <v>1.925</v>
       </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6815398</v>
+        <v>6815397</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,76 +11201,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K121">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M121">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P121">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y121">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6815397</v>
+        <v>6815398</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="L122">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="N122">
+        <v>6.5</v>
+      </c>
+      <c r="O122">
+        <v>4.2</v>
+      </c>
+      <c r="P122">
+        <v>1.4</v>
+      </c>
+      <c r="Q122">
+        <v>1.25</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
         <v>2.75</v>
       </c>
-      <c r="O122">
-        <v>2.5</v>
-      </c>
-      <c r="P122">
-        <v>2.875</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>1.85</v>
-      </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>2</v>
-      </c>
       <c r="U122">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6815401</v>
+        <v>6815402</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K126">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N126">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P126">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R126">
+        <v>1.775</v>
+      </c>
+      <c r="S126">
+        <v>2.025</v>
+      </c>
+      <c r="T126">
+        <v>1.75</v>
+      </c>
+      <c r="U126">
         <v>1.825</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="T126">
-        <v>2</v>
-      </c>
-      <c r="U126">
-        <v>1.925</v>
-      </c>
-      <c r="V126">
-        <v>1.875</v>
-      </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6815402</v>
+        <v>6815401</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,76 +11735,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K127">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N127">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O127">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y127">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:29">

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N17">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y19">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.925</v>
-      </c>
-      <c r="AB19">
-        <v>-0.5</v>
-      </c>
-      <c r="AC19">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815305</v>
+        <v>6815422</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
       <c r="K21">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,76 +3013,76 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O29">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815312</v>
+        <v>6815311</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,58 +3102,58 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>39</v>
       </c>
       <c r="K30">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L30">
+        <v>3.1</v>
+      </c>
+      <c r="M30">
         <v>4</v>
       </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P30">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3162,16 +3162,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,34 +3191,34 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1.4</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P31">
         <v>6.5</v>
@@ -3227,40 +3227,40 @@
         <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N59">
+        <v>1.833</v>
+      </c>
+      <c r="O59">
         <v>3.1</v>
       </c>
-      <c r="O59">
-        <v>2.9</v>
-      </c>
       <c r="P59">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L60">
+        <v>2.875</v>
+      </c>
+      <c r="M60">
+        <v>2.6</v>
+      </c>
+      <c r="N60">
         <v>3.1</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W60">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6815343</v>
+        <v>7366683</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P62">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366683</v>
+        <v>6815343</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L63">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O63">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X63">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
         <v>1.925</v>
       </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
         <v>1.875</v>
       </c>
-      <c r="S108">
-        <v>1.925</v>
-      </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6815397</v>
+        <v>6815398</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,76 +11201,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="L121">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="N121">
+        <v>6.5</v>
+      </c>
+      <c r="O121">
+        <v>4.2</v>
+      </c>
+      <c r="P121">
+        <v>1.4</v>
+      </c>
+      <c r="Q121">
+        <v>1.25</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
         <v>2.75</v>
       </c>
-      <c r="O121">
-        <v>2.5</v>
-      </c>
-      <c r="P121">
-        <v>2.875</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>1.85</v>
-      </c>
-      <c r="S121">
-        <v>1.95</v>
-      </c>
-      <c r="T121">
-        <v>2</v>
-      </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6815398</v>
+        <v>6815397</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K122">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M122">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P122">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y122">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,76 +3013,76 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815311</v>
+        <v>6815312</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,58 +3102,58 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>39</v>
       </c>
       <c r="K30">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L30">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>1.4</v>
+      </c>
+      <c r="O30">
         <v>4</v>
       </c>
-      <c r="N30">
-        <v>2.25</v>
-      </c>
-      <c r="O30">
-        <v>2.9</v>
-      </c>
       <c r="P30">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3162,16 +3162,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,34 +3191,34 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
         <v>1.4</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
         <v>6.5</v>
@@ -3227,40 +3227,40 @@
         <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,61 +3280,61 @@
         <v>45172.5</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P32">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-0</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,61 +3369,61 @@
         <v>45172.5</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
       </c>
       <c r="K33">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3435,10 +3435,10 @@
         <v>-0</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
+        <v>2.375</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>2.75</v>
+      </c>
+      <c r="N39">
+        <v>2.625</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>2.4</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
         <v>1.8</v>
       </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>3.75</v>
-      </c>
-      <c r="N39">
-        <v>1.6</v>
-      </c>
-      <c r="O39">
-        <v>3.5</v>
-      </c>
-      <c r="P39">
-        <v>4.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.825</v>
-      </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.725</v>
+      </c>
+      <c r="V39">
         <v>1.975</v>
       </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.75</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K42">
+        <v>1.3</v>
+      </c>
+      <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>1.363</v>
+      </c>
+      <c r="O42">
+        <v>4.333</v>
+      </c>
+      <c r="P42">
+        <v>7.5</v>
+      </c>
+      <c r="Q42">
+        <v>-1.5</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.85</v>
+      </c>
+      <c r="T42">
         <v>3</v>
       </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>2.25</v>
-      </c>
-      <c r="N42">
-        <v>3.25</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
-      <c r="P42">
-        <v>2.1</v>
-      </c>
-      <c r="Q42">
-        <v>0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.925</v>
-      </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6815333</v>
+        <v>6815331</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,76 +4704,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6815331</v>
+        <v>6815333</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,76 +4793,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L49">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M49">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
         <v>3.6</v>
       </c>
       <c r="P49">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
+        <v>1.85</v>
+      </c>
+      <c r="V49">
         <v>1.95</v>
       </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6815426</v>
+        <v>6815334</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R53">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z53">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6815334</v>
+        <v>6815426</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N55">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
+        <v>2.875</v>
+      </c>
+      <c r="M59">
+        <v>2.6</v>
+      </c>
+      <c r="N59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>1.833</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W59">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L60">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N60">
+        <v>1.833</v>
+      </c>
+      <c r="O60">
         <v>3.1</v>
       </c>
-      <c r="O60">
-        <v>2.9</v>
-      </c>
       <c r="P60">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V60">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7366683</v>
+        <v>6815343</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L62">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O62">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X62">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,13 +6039,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6054,43 +6054,43 @@
         <v>39</v>
       </c>
       <c r="K63">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N63">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P63">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6099,7 +6099,7 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6108,7 +6108,7 @@
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,76 +6128,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K64">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L64">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M64">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P64">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>1.75</v>
+      </c>
+      <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.925</v>
-      </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,76 +6751,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
+        <v>1.666</v>
+      </c>
+      <c r="N71">
+        <v>5.25</v>
+      </c>
+      <c r="O71">
+        <v>3.8</v>
+      </c>
+      <c r="P71">
+        <v>1.5</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1.85</v>
+      </c>
+      <c r="S71">
+        <v>1.95</v>
+      </c>
+      <c r="T71">
+        <v>2.5</v>
+      </c>
+      <c r="U71">
         <v>1.8</v>
       </c>
-      <c r="N71">
-        <v>3.8</v>
-      </c>
-      <c r="O71">
-        <v>3.25</v>
-      </c>
-      <c r="P71">
-        <v>1.8</v>
-      </c>
-      <c r="Q71">
-        <v>0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.95</v>
-      </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>2</v>
-      </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6840,76 +6840,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N72">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
       </c>
-      <c r="S72">
-        <v>1.95</v>
-      </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>1.975</v>
       </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K101">
-        <v>10</v>
-      </c>
-      <c r="L101">
-        <v>5.5</v>
-      </c>
       <c r="M101">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N101">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="Q101">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
       <c r="W101">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
         <v>1.875</v>
       </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
         <v>1.925</v>
       </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10833,7 +10833,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6815389</v>
+        <v>6815393</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10845,76 +10845,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M117">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N117">
+        <v>1.333</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>7</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
         <v>1.75</v>
       </c>
-      <c r="O117">
-        <v>3.2</v>
-      </c>
-      <c r="P117">
-        <v>4.333</v>
-      </c>
-      <c r="Q117">
-        <v>-0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.8</v>
-      </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X117">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6815393</v>
+        <v>6815389</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,76 +10934,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L118">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N118">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6815398</v>
+        <v>6815397</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,76 +11201,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K121">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M121">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P121">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y121">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6815397</v>
+        <v>6815398</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="L122">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="N122">
+        <v>6.5</v>
+      </c>
+      <c r="O122">
+        <v>4.2</v>
+      </c>
+      <c r="P122">
+        <v>1.4</v>
+      </c>
+      <c r="Q122">
+        <v>1.25</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
         <v>2.75</v>
       </c>
-      <c r="O122">
-        <v>2.5</v>
-      </c>
-      <c r="P122">
-        <v>2.875</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>1.85</v>
-      </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>2</v>
-      </c>
       <c r="U122">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11983,6 +11983,451 @@
       </c>
       <c r="AC129">
         <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>6815403</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>39</v>
+      </c>
+      <c r="K130">
+        <v>2.875</v>
+      </c>
+      <c r="L130">
+        <v>2.75</v>
+      </c>
+      <c r="M130">
+        <v>2.5</v>
+      </c>
+      <c r="N130">
+        <v>3.1</v>
+      </c>
+      <c r="O130">
+        <v>2.55</v>
+      </c>
+      <c r="P130">
+        <v>2.55</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
+        <v>1.75</v>
+      </c>
+      <c r="T130">
+        <v>1.75</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>1.85</v>
+      </c>
+      <c r="W130">
+        <v>2.1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>1.05</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>0.95</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6815406</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>40</v>
+      </c>
+      <c r="K131">
+        <v>2.25</v>
+      </c>
+      <c r="L131">
+        <v>3.3</v>
+      </c>
+      <c r="M131">
+        <v>2.7</v>
+      </c>
+      <c r="N131">
+        <v>2.05</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>3</v>
+      </c>
+      <c r="Q131">
+        <v>-0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
+        <v>1.975</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
+        <v>1.8</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.4</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>-0.5</v>
+      </c>
+      <c r="AA131">
+        <v>0.4875</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6815405</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132" t="s">
+        <v>41</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>1.8</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132">
+        <v>3.25</v>
+      </c>
+      <c r="P132">
+        <v>1.65</v>
+      </c>
+      <c r="Q132">
+        <v>0.75</v>
+      </c>
+      <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
+        <v>1.925</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1.875</v>
+      </c>
+      <c r="V132">
+        <v>1.925</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.925</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6815404</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F133" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>39</v>
+      </c>
+      <c r="K133">
+        <v>1.5</v>
+      </c>
+      <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>5.75</v>
+      </c>
+      <c r="N133">
+        <v>1.5</v>
+      </c>
+      <c r="O133">
+        <v>3.75</v>
+      </c>
+      <c r="P133">
+        <v>5.75</v>
+      </c>
+      <c r="Q133">
+        <v>-1</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.9</v>
+      </c>
+      <c r="V133">
+        <v>1.9</v>
+      </c>
+      <c r="W133">
+        <v>0.5</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>-0</v>
+      </c>
+      <c r="AB133">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>6815407</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45381.58333333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K134">
+        <v>1.571</v>
+      </c>
+      <c r="L134">
+        <v>3.75</v>
+      </c>
+      <c r="M134">
+        <v>4.75</v>
+      </c>
+      <c r="N134">
+        <v>1.444</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>6.5</v>
+      </c>
+      <c r="Q134">
+        <v>-1</v>
+      </c>
+      <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.85</v>
+      </c>
+      <c r="V134">
+        <v>1.95</v>
+      </c>
+      <c r="W134">
+        <v>0.444</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L3">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>0.4</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="AA3">
-        <v>0.45</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,46 +1678,46 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
         <v>2.25</v>
@@ -1732,16 +1732,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
         <v>0.925</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,46 +1767,46 @@
         <v>45144.625</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
+        <v>1.533</v>
+      </c>
+      <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>5.75</v>
+      </c>
+      <c r="N15">
+        <v>1.533</v>
+      </c>
+      <c r="O15">
+        <v>3.6</v>
+      </c>
+      <c r="P15">
+        <v>5.75</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
         <v>1.95</v>
       </c>
-      <c r="L15">
-        <v>3.3</v>
-      </c>
-      <c r="M15">
-        <v>3.4</v>
-      </c>
-      <c r="N15">
-        <v>1.909</v>
-      </c>
-      <c r="O15">
-        <v>3.3</v>
-      </c>
-      <c r="P15">
-        <v>3.5</v>
-      </c>
-      <c r="Q15">
-        <v>-0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
         <v>2.25</v>
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815304</v>
+        <v>6815422</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y20">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.925</v>
-      </c>
-      <c r="AB20">
-        <v>-0.5</v>
-      </c>
-      <c r="AC20">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
         <v>31</v>
       </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>1.7</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>0.875</v>
+      </c>
+      <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>-0.5</v>
       </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
-      <c r="W25">
-        <v>0.8</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.825</v>
-      </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
-      <c r="AB25">
-        <v>0.825</v>
-      </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,58 +2746,58 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2806,16 +2806,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815311</v>
+        <v>6815312</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,58 +3013,58 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>1.4</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>2.25</v>
-      </c>
-      <c r="O29">
-        <v>2.9</v>
-      </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3073,16 +3073,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815312</v>
+        <v>6815311</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,58 +3102,58 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>39</v>
       </c>
       <c r="K30">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L30">
+        <v>3.1</v>
+      </c>
+      <c r="M30">
         <v>4</v>
       </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P30">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3162,16 +3162,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3191,7 +3191,7 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6815316</v>
+        <v>6815319</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,61 +3280,61 @@
         <v>45172.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
       </c>
       <c r="K32">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6815319</v>
+        <v>6815316</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,61 +3369,61 @@
         <v>45172.5</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
       </c>
       <c r="K33">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3435,10 +3435,10 @@
         <v>-0</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N42">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K43">
+        <v>1.3</v>
+      </c>
+      <c r="L43">
+        <v>4.333</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>1.363</v>
+      </c>
+      <c r="O43">
+        <v>4.333</v>
+      </c>
+      <c r="P43">
+        <v>7.5</v>
+      </c>
+      <c r="Q43">
+        <v>-1.5</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>1.85</v>
+      </c>
+      <c r="T43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>2.25</v>
-      </c>
-      <c r="N43">
-        <v>3.25</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>2.1</v>
-      </c>
-      <c r="Q43">
-        <v>0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.925</v>
-      </c>
-      <c r="S43">
-        <v>1.875</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
       <c r="U43">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6815331</v>
+        <v>6815333</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,76 +4704,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6815333</v>
+        <v>6815331</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,76 +4793,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O49">
         <v>3.6</v>
       </c>
       <c r="P49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
+        <v>1.95</v>
+      </c>
+      <c r="V49">
         <v>1.85</v>
       </c>
-      <c r="V49">
-        <v>1.95</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N53">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
         <v>1.8</v>
       </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>38</v>
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5683,10 +5683,10 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
         <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M63">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P63">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>1.75</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.925</v>
-      </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366683</v>
+        <v>7366684</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,76 +6128,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K64">
+        <v>2.875</v>
+      </c>
+      <c r="L64">
+        <v>2.9</v>
+      </c>
+      <c r="M64">
         <v>2.375</v>
       </c>
-      <c r="L64">
-        <v>2.8</v>
-      </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
       <c r="N64">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.925</v>
+      </c>
+      <c r="V64">
         <v>1.875</v>
       </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.875</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6843,7 +6843,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815359</v>
+        <v>6815358</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,61 +7107,61 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7170,13 +7170,13 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815358</v>
+        <v>6815357</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,10 +7196,10 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7211,61 +7211,61 @@
         <v>40</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45241.5</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7644,7 +7644,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,55 +7997,55 @@
         <v>45262.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L85">
+        <v>3.5</v>
+      </c>
+      <c r="M85">
+        <v>1.615</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85">
         <v>3.6</v>
       </c>
-      <c r="M85">
-        <v>5</v>
-      </c>
-      <c r="N85">
-        <v>1.363</v>
-      </c>
-      <c r="O85">
-        <v>4.2</v>
-      </c>
       <c r="P85">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q85">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S85">
         <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8054,19 +8054,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,55 +8086,55 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
       </c>
       <c r="K86">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
         <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8143,19 +8143,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>2.5</v>
+      </c>
+      <c r="L100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100">
-        <v>10</v>
-      </c>
-      <c r="L100">
-        <v>5.5</v>
-      </c>
       <c r="M100">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N100">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="Q100">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
       <c r="W100">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M101">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
+        <v>1.825</v>
+      </c>
+      <c r="V101">
         <v>1.975</v>
       </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
         <v>31</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,76 +9777,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N105">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
+        <v>1.95</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
         <v>0.75</v>
       </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.875</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.9</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>0.25</v>
-      </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,55 +9866,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
         <v>4.75</v>
       </c>
-      <c r="O106">
-        <v>3</v>
-      </c>
       <c r="P106">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9923,19 +9923,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10044,7 +10044,7 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -10314,7 +10314,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -10667,7 +10667,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -10833,7 +10833,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6815393</v>
+        <v>6815389</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10845,76 +10845,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L117">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N117">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6815389</v>
+        <v>6815393</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,76 +10934,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K118">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N118">
+        <v>1.333</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>7</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.75</v>
       </c>
-      <c r="O118">
-        <v>3.2</v>
-      </c>
-      <c r="P118">
-        <v>4.333</v>
-      </c>
-      <c r="Q118">
-        <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>1.8</v>
-      </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X118">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11735,7 +11735,7 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -11824,7 +11824,7 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>34</v>
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6815406</v>
+        <v>6815404</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K131">
+        <v>1.5</v>
+      </c>
+      <c r="L131">
+        <v>3.75</v>
+      </c>
+      <c r="M131">
+        <v>5.75</v>
+      </c>
+      <c r="N131">
+        <v>1.5</v>
+      </c>
+      <c r="O131">
+        <v>3.75</v>
+      </c>
+      <c r="P131">
+        <v>5.75</v>
+      </c>
+      <c r="Q131">
+        <v>-1</v>
+      </c>
+      <c r="R131">
+        <v>1.85</v>
+      </c>
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
         <v>2.25</v>
       </c>
-      <c r="L131">
-        <v>3.3</v>
-      </c>
-      <c r="M131">
-        <v>2.7</v>
-      </c>
-      <c r="N131">
-        <v>2.05</v>
-      </c>
-      <c r="O131">
-        <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>3</v>
-      </c>
-      <c r="Q131">
-        <v>-0.25</v>
-      </c>
-      <c r="R131">
-        <v>1.825</v>
-      </c>
-      <c r="S131">
-        <v>1.975</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12183,7 +12183,7 @@
         <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6815404</v>
+        <v>6815406</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12361,7 +12361,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>2</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L4">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.4</v>
+      </c>
+      <c r="AA4">
         <v>-0.5</v>
       </c>
-      <c r="AA4">
-        <v>0.45</v>
-      </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1678,10 +1678,10 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N17">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y19">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.925</v>
-      </c>
-      <c r="AB19">
-        <v>-0.5</v>
-      </c>
-      <c r="AC19">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
       </c>
       <c r="K20">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815305</v>
+        <v>6815422</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2660,7 +2660,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2746,7 +2746,7 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,34 +3013,34 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
         <v>1.4</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3049,40 +3049,40 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815311</v>
+        <v>6815312</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,58 +3102,58 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>39</v>
       </c>
       <c r="K30">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L30">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>1.4</v>
+      </c>
+      <c r="O30">
         <v>4</v>
       </c>
-      <c r="N30">
-        <v>2.25</v>
-      </c>
-      <c r="O30">
-        <v>2.9</v>
-      </c>
       <c r="P30">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3162,16 +3162,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,76 +3191,76 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
+        <v>2.375</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.75</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>2.4</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>1.8</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>3.75</v>
-      </c>
-      <c r="N38">
-        <v>1.6</v>
-      </c>
-      <c r="O38">
-        <v>3.5</v>
-      </c>
-      <c r="P38">
-        <v>4.75</v>
-      </c>
-      <c r="Q38">
-        <v>-0.75</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1.725</v>
+      </c>
+      <c r="V38">
         <v>1.975</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.75</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6815327</v>
+        <v>7246029</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K42">
+        <v>1.3</v>
+      </c>
+      <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>1.363</v>
+      </c>
+      <c r="O42">
+        <v>4.333</v>
+      </c>
+      <c r="P42">
+        <v>7.5</v>
+      </c>
+      <c r="Q42">
+        <v>-1.5</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.85</v>
+      </c>
+      <c r="T42">
         <v>3</v>
       </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>2.25</v>
-      </c>
-      <c r="N42">
-        <v>3.25</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
-      <c r="P42">
-        <v>2.1</v>
-      </c>
-      <c r="Q42">
-        <v>0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.925</v>
-      </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7246029</v>
+        <v>6815327</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="O43">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6815333</v>
+        <v>6815331</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,76 +4704,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6815331</v>
+        <v>6815333</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,76 +4793,76 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L49">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M49">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
         <v>3.6</v>
       </c>
       <c r="P49">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
+        <v>1.85</v>
+      </c>
+      <c r="V49">
         <v>1.95</v>
       </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7279987</v>
+        <v>6815426</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O53">
         <v>3</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
+        <v>0.7</v>
+      </c>
+      <c r="AA53">
+        <v>-1</v>
+      </c>
+      <c r="AB53">
         <v>-0.5</v>
       </c>
-      <c r="AA53">
-        <v>0.5</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6815334</v>
+        <v>7279987</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N54">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y54">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6815426</v>
+        <v>6815334</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N55">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z55">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N59">
+        <v>1.833</v>
+      </c>
+      <c r="O59">
         <v>3.1</v>
       </c>
-      <c r="O59">
-        <v>2.9</v>
-      </c>
       <c r="P59">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L60">
+        <v>2.875</v>
+      </c>
+      <c r="M60">
+        <v>2.6</v>
+      </c>
+      <c r="N60">
         <v>3.1</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W60">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,13 +5950,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5965,43 +5965,43 @@
         <v>39</v>
       </c>
       <c r="K62">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N62">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P62">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6010,7 +6010,7 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -6019,7 +6019,7 @@
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7366683</v>
+        <v>6815343</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L63">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O63">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X63">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366684</v>
+        <v>7366683</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,76 +6128,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K64">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L64">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M64">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P64">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>1.75</v>
+      </c>
+      <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.925</v>
-      </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6843,7 +6843,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7107,7 +7107,7 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>36</v>
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N76">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P76">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45241.5</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7644,7 +7644,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,55 +7997,55 @@
         <v>45262.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N85">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
         <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8054,19 +8054,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,55 +8086,55 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>1.615</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>1.363</v>
-      </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
       <c r="P86">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S86">
         <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8143,19 +8143,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
         <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9869,7 +9869,7 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7906319</v>
+        <v>7906320</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,13 +10222,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10237,61 +10237,61 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
         <v>2.875</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N110">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
         <v>3</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.9</v>
+      </c>
+      <c r="S110">
+        <v>1.9</v>
+      </c>
+      <c r="T110">
+        <v>1.75</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>2.2</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB110">
+        <v>0.425</v>
+      </c>
+      <c r="AC110">
         <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.75</v>
-      </c>
-      <c r="V110">
-        <v>2.05</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>3</v>
-      </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>0.825</v>
-      </c>
-      <c r="AB110">
-        <v>0.75</v>
-      </c>
-      <c r="AC110">
-        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7906320</v>
+        <v>7906319</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,13 +10311,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -10326,40 +10326,40 @@
         <v>41</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
         <v>2.875</v>
       </c>
       <c r="M111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O111">
         <v>3</v>
       </c>
       <c r="P111">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
         <v>1.75</v>
       </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10368,19 +10368,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -10667,7 +10667,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -10833,7 +10833,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6815389</v>
+        <v>6815393</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10845,76 +10845,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M117">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N117">
+        <v>1.333</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>7</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
         <v>1.75</v>
       </c>
-      <c r="O117">
-        <v>3.2</v>
-      </c>
-      <c r="P117">
-        <v>4.333</v>
-      </c>
-      <c r="Q117">
-        <v>-0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.8</v>
-      </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X117">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6815393</v>
+        <v>6815389</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,76 +10934,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L118">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N118">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6815397</v>
+        <v>6815398</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,76 +11201,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="L121">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="N121">
+        <v>6.5</v>
+      </c>
+      <c r="O121">
+        <v>4.2</v>
+      </c>
+      <c r="P121">
+        <v>1.4</v>
+      </c>
+      <c r="Q121">
+        <v>1.25</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
         <v>2.75</v>
       </c>
-      <c r="O121">
-        <v>2.5</v>
-      </c>
-      <c r="P121">
-        <v>2.875</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>1.85</v>
-      </c>
-      <c r="S121">
-        <v>1.95</v>
-      </c>
-      <c r="T121">
-        <v>2</v>
-      </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6815398</v>
+        <v>6815397</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K122">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M122">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P122">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y122">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11471,7 +11471,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6815402</v>
+        <v>6815401</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K126">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L126">
         <v>3</v>
       </c>
       <c r="M126">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O126">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y126">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6815401</v>
+        <v>6815402</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,76 +11735,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K127">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L127">
         <v>3</v>
       </c>
       <c r="M127">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N127">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P127">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R127">
+        <v>1.775</v>
+      </c>
+      <c r="S127">
+        <v>2.025</v>
+      </c>
+      <c r="T127">
+        <v>1.75</v>
+      </c>
+      <c r="U127">
         <v>1.825</v>
       </c>
-      <c r="S127">
+      <c r="V127">
         <v>1.975</v>
       </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
-      <c r="U127">
-        <v>1.925</v>
-      </c>
-      <c r="V127">
-        <v>1.875</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11824,7 +11824,7 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>34</v>
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6815403</v>
+        <v>6815405</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,76 +12002,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N130">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O130">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="P130">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6815404</v>
+        <v>6815406</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K131">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N131">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6815405</v>
+        <v>6815403</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,76 +12180,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M132">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="P132">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6815406</v>
+        <v>6815404</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K133">
+        <v>1.5</v>
+      </c>
+      <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>5.75</v>
+      </c>
+      <c r="N133">
+        <v>1.5</v>
+      </c>
+      <c r="O133">
+        <v>3.75</v>
+      </c>
+      <c r="P133">
+        <v>5.75</v>
+      </c>
+      <c r="Q133">
+        <v>-1</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
         <v>2.25</v>
       </c>
-      <c r="L133">
-        <v>3.3</v>
-      </c>
-      <c r="M133">
-        <v>2.7</v>
-      </c>
-      <c r="N133">
-        <v>2.05</v>
-      </c>
-      <c r="O133">
-        <v>3.4</v>
-      </c>
-      <c r="P133">
-        <v>3</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.825</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12361,7 +12361,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>2</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,55 +9777,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N105">
+        <v>8</v>
+      </c>
+      <c r="O105">
         <v>4.75</v>
       </c>
-      <c r="O105">
-        <v>3</v>
-      </c>
       <c r="P105">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9834,19 +9834,19 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N106">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.825</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
         <v>0.75</v>
       </c>
-      <c r="R106">
-        <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.875</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>0.25</v>
-      </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
         <v>1.925</v>
       </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
         <v>1.875</v>
       </c>
-      <c r="S108">
-        <v>1.925</v>
-      </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6815403</v>
+        <v>6815404</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,13 +12180,13 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -12195,43 +12195,43 @@
         <v>39</v>
       </c>
       <c r="K132">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="L132">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N132">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12240,13 +12240,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6815404</v>
+        <v>6815403</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,13 +12269,13 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -12284,43 +12284,43 @@
         <v>39</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M133">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R133">
+        <v>2.05</v>
+      </c>
+      <c r="S133">
+        <v>1.75</v>
+      </c>
+      <c r="T133">
+        <v>1.75</v>
+      </c>
+      <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>1.9</v>
-      </c>
-      <c r="V133">
-        <v>1.9</v>
-      </c>
       <c r="W133">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12329,13 +12329,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
         <v>-1</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,76 +9777,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N105">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.975</v>
+      </c>
+      <c r="S105">
+        <v>1.825</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
+        <v>1.95</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
         <v>0.75</v>
       </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.875</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.9</v>
-      </c>
-      <c r="V105">
-        <v>1.9</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>0.25</v>
-      </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,55 +9866,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
         <v>4.75</v>
       </c>
-      <c r="O106">
-        <v>3</v>
-      </c>
       <c r="P106">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9923,19 +9923,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
         <v>1.875</v>
       </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
         <v>1.925</v>
       </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6815404</v>
+        <v>6815403</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,13 +12180,13 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -12195,43 +12195,43 @@
         <v>39</v>
       </c>
       <c r="K132">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M132">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="P132">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R132">
+        <v>2.05</v>
+      </c>
+      <c r="S132">
+        <v>1.75</v>
+      </c>
+      <c r="T132">
+        <v>1.75</v>
+      </c>
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="S132">
-        <v>1.95</v>
-      </c>
-      <c r="T132">
-        <v>2.25</v>
-      </c>
-      <c r="U132">
-        <v>1.9</v>
-      </c>
-      <c r="V132">
-        <v>1.9</v>
-      </c>
       <c r="W132">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12240,13 +12240,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6815403</v>
+        <v>6815404</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,13 +12269,13 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -12284,43 +12284,43 @@
         <v>39</v>
       </c>
       <c r="K133">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="L133">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N133">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12329,13 +12329,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N18">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,58 +2657,58 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2717,16 +2717,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
+        <v>1.925</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>1.7</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.875</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>-0.5</v>
       </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
-      <c r="W26">
-        <v>0.8</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.825</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>0.825</v>
-      </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,34 +3013,34 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1.4</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P29">
         <v>6.5</v>
@@ -3049,40 +3049,40 @@
         <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815312</v>
+        <v>6815315</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,34 +3102,34 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
         <v>1.4</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
         <v>6.5</v>
@@ -3138,40 +3138,40 @@
         <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W38">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
+        <v>2.375</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>2.75</v>
+      </c>
+      <c r="N39">
+        <v>2.625</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>2.4</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
         <v>1.8</v>
       </c>
-      <c r="L39">
-        <v>3.4</v>
-      </c>
-      <c r="M39">
-        <v>3.75</v>
-      </c>
-      <c r="N39">
-        <v>1.6</v>
-      </c>
-      <c r="O39">
-        <v>3.5</v>
-      </c>
-      <c r="P39">
-        <v>4.75</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.825</v>
-      </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.725</v>
+      </c>
+      <c r="V39">
         <v>1.975</v>
       </c>
-      <c r="T39">
-        <v>2.5</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.75</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6815426</v>
+        <v>7279987</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N53">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O53">
         <v>3</v>
       </c>
       <c r="P53">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7279987</v>
+        <v>6815426</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O54">
         <v>3</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
+        <v>0.7</v>
+      </c>
+      <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
         <v>-0.5</v>
       </c>
-      <c r="AA54">
-        <v>0.5</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
+        <v>2.875</v>
+      </c>
+      <c r="M59">
+        <v>2.6</v>
+      </c>
+      <c r="N59">
         <v>3.1</v>
       </c>
-      <c r="M59">
-        <v>4</v>
-      </c>
-      <c r="N59">
-        <v>1.833</v>
-      </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W59">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L60">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N60">
+        <v>1.833</v>
+      </c>
+      <c r="O60">
         <v>3.1</v>
       </c>
-      <c r="O60">
-        <v>2.9</v>
-      </c>
       <c r="P60">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V60">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6815343</v>
+        <v>7366683</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P63">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366683</v>
+        <v>6815343</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,76 +6128,76 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K64">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L64">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N64">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O64">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815359</v>
+        <v>6815357</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>4.8</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="N76">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O76">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="Q76">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6815357</v>
+        <v>6815359</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45241.5</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
-        <v>4.8</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,55 +7997,55 @@
         <v>45262.375</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L85">
+        <v>3.5</v>
+      </c>
+      <c r="M85">
+        <v>1.615</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85">
         <v>3.6</v>
       </c>
-      <c r="M85">
-        <v>5</v>
-      </c>
-      <c r="N85">
-        <v>1.363</v>
-      </c>
-      <c r="O85">
-        <v>4.2</v>
-      </c>
       <c r="P85">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q85">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S85">
         <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8054,19 +8054,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,55 +8086,55 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
       </c>
       <c r="K86">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
         <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8143,19 +8143,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7906320</v>
+        <v>7906319</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,13 +10222,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10237,40 +10237,40 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
         <v>2.875</v>
       </c>
       <c r="M110">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O110">
         <v>3</v>
       </c>
       <c r="P110">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.75</v>
       </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10279,19 +10279,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB110">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7906319</v>
+        <v>7906320</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,13 +10311,13 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -10326,61 +10326,61 @@
         <v>41</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
         <v>2.875</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
         <v>3</v>
       </c>
       <c r="P111">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>1.9</v>
+      </c>
+      <c r="S111">
+        <v>1.9</v>
+      </c>
+      <c r="T111">
+        <v>1.75</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
+        <v>1.95</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>2.2</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB111">
+        <v>0.425</v>
+      </c>
+      <c r="AC111">
         <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.975</v>
-      </c>
-      <c r="S111">
-        <v>1.825</v>
-      </c>
-      <c r="T111">
-        <v>2</v>
-      </c>
-      <c r="U111">
-        <v>1.75</v>
-      </c>
-      <c r="V111">
-        <v>2.05</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>3</v>
-      </c>
-      <c r="Z111">
-        <v>-1</v>
-      </c>
-      <c r="AA111">
-        <v>0.825</v>
-      </c>
-      <c r="AB111">
-        <v>0.75</v>
-      </c>
-      <c r="AC111">
-        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6815405</v>
+        <v>6815404</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,76 +12002,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="N130">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6815406</v>
+        <v>6815403</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M131">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N131">
+        <v>3.1</v>
+      </c>
+      <c r="O131">
+        <v>2.55</v>
+      </c>
+      <c r="P131">
+        <v>2.55</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
         <v>2.05</v>
       </c>
-      <c r="O131">
-        <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>3</v>
-      </c>
-      <c r="Q131">
-        <v>-0.25</v>
-      </c>
-      <c r="R131">
-        <v>1.825</v>
-      </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA131">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6815403</v>
+        <v>6815405</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,76 +12180,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N132">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O132">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z132">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6815404</v>
+        <v>6815406</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12428,6 +12428,451 @@
       </c>
       <c r="AC134">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>8043517</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45385.41666666666</v>
+      </c>
+      <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>41</v>
+      </c>
+      <c r="K135">
+        <v>5.5</v>
+      </c>
+      <c r="L135">
+        <v>3.2</v>
+      </c>
+      <c r="M135">
+        <v>1.615</v>
+      </c>
+      <c r="N135">
+        <v>6.5</v>
+      </c>
+      <c r="O135">
+        <v>3.4</v>
+      </c>
+      <c r="P135">
+        <v>1.533</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>1.85</v>
+      </c>
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>2.025</v>
+      </c>
+      <c r="V135">
+        <v>1.775</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.95</v>
+      </c>
+      <c r="AB135">
+        <v>-0.5</v>
+      </c>
+      <c r="AC135">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>8043518</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45385.41666666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>39</v>
+      </c>
+      <c r="K136">
+        <v>1.909</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>3.9</v>
+      </c>
+      <c r="N136">
+        <v>1.65</v>
+      </c>
+      <c r="O136">
+        <v>3.3</v>
+      </c>
+      <c r="P136">
+        <v>5</v>
+      </c>
+      <c r="Q136">
+        <v>-0.75</v>
+      </c>
+      <c r="R136">
+        <v>1.875</v>
+      </c>
+      <c r="S136">
+        <v>1.925</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.875</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.8</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>6815409</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45385.5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>39</v>
+      </c>
+      <c r="K137">
+        <v>1.727</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>1.909</v>
+      </c>
+      <c r="O137">
+        <v>3</v>
+      </c>
+      <c r="P137">
+        <v>4</v>
+      </c>
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>1.925</v>
+      </c>
+      <c r="S137">
+        <v>1.875</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
+        <v>2</v>
+      </c>
+      <c r="V137">
+        <v>1.8</v>
+      </c>
+      <c r="W137">
+        <v>0.909</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.925</v>
+      </c>
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>1</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>8043515</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45385.54166666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>35</v>
+      </c>
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>39</v>
+      </c>
+      <c r="K138">
+        <v>2.375</v>
+      </c>
+      <c r="L138">
+        <v>2.8</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>2.1</v>
+      </c>
+      <c r="O138">
+        <v>2.8</v>
+      </c>
+      <c r="P138">
+        <v>3.6</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
+        <v>1.975</v>
+      </c>
+      <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
+        <v>1.95</v>
+      </c>
+      <c r="V138">
+        <v>1.85</v>
+      </c>
+      <c r="W138">
+        <v>1.1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>0.825</v>
+      </c>
+      <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>8043516</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45385.5625</v>
+      </c>
+      <c r="F139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" t="s">
+        <v>29</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>41</v>
+      </c>
+      <c r="K139">
+        <v>1.3</v>
+      </c>
+      <c r="L139">
+        <v>4.4</v>
+      </c>
+      <c r="M139">
+        <v>8.5</v>
+      </c>
+      <c r="N139">
+        <v>1.25</v>
+      </c>
+      <c r="O139">
+        <v>5.25</v>
+      </c>
+      <c r="P139">
+        <v>9</v>
+      </c>
+      <c r="Q139">
+        <v>-1.75</v>
+      </c>
+      <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>8</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>1</v>
+      </c>
+      <c r="AB139">
+        <v>-0.5</v>
+      </c>
+      <c r="AC139">
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L3">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>0.4</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="AA3">
-        <v>0.45</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1678,10 +1678,10 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815304</v>
+        <v>6815305</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>40</v>
       </c>
       <c r="K19">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815305</v>
+        <v>6815422</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815422</v>
+        <v>6815304</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.925</v>
-      </c>
-      <c r="AB21">
-        <v>-0.5</v>
-      </c>
-      <c r="AC21">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815315</v>
+        <v>6815311</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,76 +3102,76 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P30">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,76 +3191,76 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O31">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4262,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4707,7 +4707,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>38</v>
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6815338</v>
+        <v>6815427</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,73 +5683,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N59">
+        <v>1.833</v>
+      </c>
+      <c r="O59">
         <v>3.1</v>
       </c>
-      <c r="O59">
-        <v>2.9</v>
-      </c>
       <c r="P59">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6815427</v>
+        <v>6815338</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,73 +5772,73 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L60">
+        <v>2.875</v>
+      </c>
+      <c r="M60">
+        <v>2.6</v>
+      </c>
+      <c r="N60">
         <v>3.1</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="W60">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5953,7 +5953,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6843,7 +6843,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6815358</v>
+        <v>6815357</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,10 +7107,10 @@
         <v>45241.5</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7122,61 +7122,61 @@
         <v>40</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6815357</v>
+        <v>6815358</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,10 +7196,10 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7211,61 +7211,61 @@
         <v>40</v>
       </c>
       <c r="K76">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB76">
         <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7644,7 +7644,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>36</v>
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
         <v>31</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9869,7 +9869,7 @@
         <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -10314,7 +10314,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -10667,7 +10667,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -10845,7 +10845,7 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -11293,7 +11293,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11646,7 +11646,7 @@
         <v>45368.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11824,7 +11824,7 @@
         <v>45368.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>34</v>
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6815404</v>
+        <v>6815403</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,13 +12002,13 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12017,43 +12017,43 @@
         <v>39</v>
       </c>
       <c r="K130">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M130">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="P130">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
+        <v>1.75</v>
+      </c>
+      <c r="T130">
+        <v>1.75</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
         <v>1.85</v>
       </c>
-      <c r="S130">
-        <v>1.95</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
-      <c r="U130">
-        <v>1.9</v>
-      </c>
-      <c r="V130">
-        <v>1.9</v>
-      </c>
       <c r="W130">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12062,13 +12062,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6815403</v>
+        <v>6815405</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N131">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O131">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6815405</v>
+        <v>6815406</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,76 +12180,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
+        <v>2.7</v>
+      </c>
+      <c r="N132">
+        <v>2.05</v>
+      </c>
+      <c r="O132">
+        <v>3.4</v>
+      </c>
+      <c r="P132">
+        <v>3</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.825</v>
+      </c>
+      <c r="S132">
+        <v>1.975</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
         <v>1.8</v>
       </c>
-      <c r="N132">
-        <v>5</v>
-      </c>
-      <c r="O132">
-        <v>3.25</v>
-      </c>
-      <c r="P132">
-        <v>1.65</v>
-      </c>
-      <c r="Q132">
-        <v>0.75</v>
-      </c>
-      <c r="R132">
-        <v>1.875</v>
-      </c>
-      <c r="S132">
-        <v>1.925</v>
-      </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>1.875</v>
-      </c>
-      <c r="V132">
-        <v>1.925</v>
-      </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6815406</v>
+        <v>6815404</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K133">
+        <v>1.5</v>
+      </c>
+      <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>5.75</v>
+      </c>
+      <c r="N133">
+        <v>1.5</v>
+      </c>
+      <c r="O133">
+        <v>3.75</v>
+      </c>
+      <c r="P133">
+        <v>5.75</v>
+      </c>
+      <c r="Q133">
+        <v>-1</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
         <v>2.25</v>
       </c>
-      <c r="L133">
-        <v>3.3</v>
-      </c>
-      <c r="M133">
-        <v>2.7</v>
-      </c>
-      <c r="N133">
-        <v>2.05</v>
-      </c>
-      <c r="O133">
-        <v>3.4</v>
-      </c>
-      <c r="P133">
-        <v>3</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.825</v>
-      </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12361,7 +12361,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12450,7 +12450,7 @@
         <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12717,7 +12717,7 @@
         <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>1</v>

--- a/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
+++ b/Montenegro Prva Liga/Montenegro Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>OFK Mladost DG</t>
   </si>
   <si>
-    <t>FK Decic Tuzi</t>
+    <t>OFK Petrovac</t>
   </si>
   <si>
-    <t>OFK Petrovac</t>
+    <t>FK Decic Tuzi</t>
   </si>
   <si>
     <t>FK Rudar Pljevlja</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6951073</v>
+        <v>6951072</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6951072</v>
+        <v>6951073</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L4">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.4</v>
+      </c>
+      <c r="AA4">
         <v>-0.5</v>
       </c>
-      <c r="AA4">
-        <v>0.45</v>
-      </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>45136.625</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6815299</v>
+        <v>6815302</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,46 +1678,46 @@
         <v>45144.625</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
+        <v>1.533</v>
+      </c>
+      <c r="L14">
+        <v>3.6</v>
+      </c>
+      <c r="M14">
+        <v>5.75</v>
+      </c>
+      <c r="N14">
+        <v>1.533</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>5.75</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
         <v>1.95</v>
       </c>
-      <c r="L14">
-        <v>3.3</v>
-      </c>
-      <c r="M14">
-        <v>3.4</v>
-      </c>
-      <c r="N14">
-        <v>1.909</v>
-      </c>
-      <c r="O14">
-        <v>3.3</v>
-      </c>
-      <c r="P14">
-        <v>3.5</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>2.25</v>
@@ -1732,16 +1732,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
         <v>0.925</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6815302</v>
+        <v>6815299</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,46 +1767,46 @@
         <v>45144.625</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB15">
         <v>0.925</v>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6815306</v>
+        <v>6815303</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,49 +1945,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N17">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -1996,25 +1996,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6815303</v>
+        <v>6815306</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,49 +2034,49 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.85</v>
@@ -2085,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6815305</v>
+        <v>6815304</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,76 +2123,76 @@
         <v>45151.625</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>40</v>
       </c>
       <c r="K19">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6815422</v>
+        <v>6815305</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45151.625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>1.571</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>4.2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.75</v>
+      </c>
+      <c r="R20">
+        <v>1.75</v>
+      </c>
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
+        <v>1.95</v>
+      </c>
+      <c r="V20">
+        <v>1.85</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>2.75</v>
-      </c>
-      <c r="N20">
-        <v>3.1</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>2.15</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>2.025</v>
-      </c>
-      <c r="V20">
-        <v>1.775</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6815304</v>
+        <v>6815422</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,76 +2301,76 @@
         <v>45151.625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6815423</v>
+        <v>6815308</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45158.625</v>
       </c>
       <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>39</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P25">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>1.7</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>0.875</v>
+      </c>
+      <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>-0.5</v>
       </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
-      <c r="W25">
-        <v>0.8</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.825</v>
-      </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
-      <c r="AB25">
-        <v>0.825</v>
-      </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6815308</v>
+        <v>6815423</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,58 +2746,58 @@
         <v>45158.625</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2806,16 +2806,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6815312</v>
+        <v>6815311</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,58 +3013,58 @@
         <v>45164.625</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>39</v>
       </c>
       <c r="K29">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
       <c r="N29">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3073,16 +3073,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6815311</v>
+        <v>6815315</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,76 +3102,76 @@
         <v>45164.625</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L30">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O30">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6815315</v>
+        <v>6815312</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,34 +3191,34 @@
         <v>45164.625</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1.4</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P31">
         <v>6.5</v>
@@ -3227,40 +3227,40 @@
         <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6815321</v>
+        <v>6815322</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,76 +3814,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
+        <v>2.375</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.75</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>2.4</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>1.8</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>3.75</v>
-      </c>
-      <c r="N38">
-        <v>1.6</v>
-      </c>
-      <c r="O38">
-        <v>3.5</v>
-      </c>
-      <c r="P38">
-        <v>4.75</v>
-      </c>
-      <c r="Q38">
-        <v>-0.75</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1.725</v>
+      </c>
+      <c r="V38">
         <v>1.975</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
-      <c r="V38">
-        <v>1.75</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6815322</v>
+        <v>6815321</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45185.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4262,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4707,7 +4707,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7279987</v>
+        <v>6815334</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,76 +5149,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
         <v>1.8</v>
       </c>
-      <c r="S53">
-        <v>2</v>
-      </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6815426</v>
+        <v>7279987</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N54">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
         <v>3</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6815334</v>
+        <v>6815426</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N55">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>45206.58333333334</v>
       </c>
       <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
         <v>31</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7366684</v>
+        <v>6815343</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,13 +5950,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5965,43 +5965,43 @@
         <v>39</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O62">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>1.625</v>
+        <v>0.333</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6010,7 +6010,7 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -6019,7 +6019,7 @@
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6815343</v>
+        <v>7366684</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,13 +6128,13 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6143,43 +6143,43 @@
         <v>39</v>
       </c>
       <c r="K64">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N64">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P64">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>0.333</v>
+        <v>1.625</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6188,7 +6188,7 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6197,7 +6197,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6815351</v>
+        <v>6815354</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,76 +6751,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O71">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P71">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
         <v>1.85</v>
       </c>
-      <c r="S71">
-        <v>1.95</v>
-      </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.8</v>
       </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6815354</v>
+        <v>6815351</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6840,76 +6840,76 @@
         <v>45235.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
+        <v>1.666</v>
+      </c>
+      <c r="N72">
+        <v>5.25</v>
+      </c>
+      <c r="O72">
+        <v>3.8</v>
+      </c>
+      <c r="P72">
+        <v>1.5</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>1.95</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
         <v>1.8</v>
       </c>
-      <c r="N72">
-        <v>3.8</v>
-      </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>1.8</v>
-      </c>
-      <c r="Q72">
-        <v>0.5</v>
-      </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>2</v>
-      </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7021,7 +7021,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7196,7 +7196,7 @@
         <v>45241.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>36</v>
@@ -7374,7 +7374,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7644,7 +7644,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6815365</v>
+        <v>6815366</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,55 +7997,55 @@
         <v>45262.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N85">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
         <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8054,19 +8054,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.615</v>
+        <v>6</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6815366</v>
+        <v>6815365</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,55 +8086,55 @@
         <v>45262.375</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>1.615</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>1.363</v>
-      </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
       <c r="P86">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S86">
         <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8143,19 +8143,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>6</v>
+        <v>0.615</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>45269.5</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -9065,7 +9065,7 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9246,7 +9246,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6815433</v>
+        <v>6815378</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,40 +9332,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M100">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9374,31 +9374,31 @@
         <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>1.975</v>
       </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6815378</v>
+        <v>6815433</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,40 +9421,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K101">
-        <v>10</v>
-      </c>
-      <c r="L101">
-        <v>5.5</v>
-      </c>
       <c r="M101">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="N101">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="Q101">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9463,31 +9463,31 @@
         <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
       <c r="W101">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9688,10 +9688,10 @@
         <v>45347.5625</v>
       </c>
       <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
         <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6815382</v>
+        <v>6815434</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,55 +9777,55 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N105">
+        <v>8</v>
+      </c>
+      <c r="O105">
         <v>4.75</v>
       </c>
-      <c r="O105">
-        <v>3</v>
-      </c>
       <c r="P105">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9834,19 +9834,19 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6815434</v>
+        <v>6815382</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45350.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M106">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N106">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>1.825</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
         <v>0.75</v>
       </c>
-      <c r="R106">
-        <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.875</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>0.25</v>
-      </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7890506</v>
+        <v>7890508</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L107">
         <v>3.1</v>
       </c>
       <c r="M107">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
         <v>1.925</v>
       </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
         <v>1.95</v>
@@ -10009,7 +10009,7 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10018,13 +10018,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7890508</v>
+        <v>7890506</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,49 +10044,49 @@
         <v>45350.5625</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>40</v>
       </c>
       <c r="K108">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
         <v>1.875</v>
       </c>
-      <c r="S108">
-        <v>1.925</v>
-      </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
         <v>1.95</v>
@@ -10098,7 +10098,7 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10107,13 +10107,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10314,7 +10314,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -10667,7 +10667,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -10845,7 +10845,7 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6815398</v>
+        <v>6815397</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,76 +11201,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K121">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M121">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P121">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y121">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6815397</v>
+        <v>6815398</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45364.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="L122">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="N122">
+        <v>6.5</v>
+      </c>
+      <c r="O122">
+        <v>4.2</v>
+ 